--- a/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
+++ b/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="48760" windowHeight="22600" tabRatio="500"/>
+    <workbookView xWindow="680" yWindow="3020" windowWidth="50060" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="run013" sheetId="1" r:id="rId1"/>
+    <sheet name="micans_v6_exp1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="296">
   <si>
     <t>Country</t>
   </si>
@@ -591,15 +591,6 @@
     <t>kap@micans.se</t>
   </si>
   <si>
-    <t>ellen.hanson@tataa.com</t>
-  </si>
-  <si>
-    <t>Ellen Hanson</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
     <t>Optional extra data</t>
   </si>
   <si>
@@ -772,14 +763,258 @@
   </si>
   <si>
     <t>run9_lane4</t>
+  </si>
+  <si>
+    <t>jed@micans.se</t>
+  </si>
+  <si>
+    <t>Johanna Edlund</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>5579c410dbc9c9f82a90e28a59c41425</t>
+  </si>
+  <si>
+    <t>764a390894dd4a6647169445dcd4861c</t>
+  </si>
+  <si>
+    <t>4d09e109f41a516273537805652f14aa</t>
+  </si>
+  <si>
+    <t>e6ee2d0d65cf598ea26d00bdea17b71d</t>
+  </si>
+  <si>
+    <t>e673a80262682938b903dd4d7ee1c3e8</t>
+  </si>
+  <si>
+    <t>b74fe7ed0afbccecb9ac495e2db9f359</t>
+  </si>
+  <si>
+    <t>5ff8b1c2826377a96a172cd031579081</t>
+  </si>
+  <si>
+    <t>3b10b8af63c33468b0400a203784f920</t>
+  </si>
+  <si>
+    <t>5fcd22c2512bb730d947e83e971c584b</t>
+  </si>
+  <si>
+    <t>4a08abc27ce92ee83c5dbf15dcd672c8</t>
+  </si>
+  <si>
+    <t>5ae563b7d05d32baaeb786fe257bbb1d</t>
+  </si>
+  <si>
+    <t>7c7d7770d16a289f761395ce8e01b3b9</t>
+  </si>
+  <si>
+    <t>942c78e343a5d5faca5522b601c49a99</t>
+  </si>
+  <si>
+    <t>2f1fd7662dcb09d1725013db4b1780be</t>
+  </si>
+  <si>
+    <t>a89fa86b1707a6cf3567e1a78f2ff46c</t>
+  </si>
+  <si>
+    <t>ef09e416d25196b2f69066cfcbfa794f</t>
+  </si>
+  <si>
+    <t>65c6b32317150004c6900777aad1c18f</t>
+  </si>
+  <si>
+    <t>3c3b59a15d3d1d073707acc20eb89f8f</t>
+  </si>
+  <si>
+    <t>c6a4a99c51bc83dd449d3e68b705c24f</t>
+  </si>
+  <si>
+    <t>910f516459c6eacd6f4239136a172f3b</t>
+  </si>
+  <si>
+    <t>8a77888d1b9a6c1664e0ef3c45e02c2c</t>
+  </si>
+  <si>
+    <t>6d4931ffd3421ce58a941db1396c9a9e</t>
+  </si>
+  <si>
+    <t>11382793a8dbbc4cc5f37fdf59429a5f</t>
+  </si>
+  <si>
+    <t>3ef63016409e01ceb476aa61129236c0</t>
+  </si>
+  <si>
+    <t>895bb315ccef12b596c2dacd1c80096d</t>
+  </si>
+  <si>
+    <t>5324d90de682c0d44ea8e6bc189abd26</t>
+  </si>
+  <si>
+    <t>b44e60618d8b190ccfb7133bde63b388</t>
+  </si>
+  <si>
+    <t>b5ef97903204220973f31bdffb842c86</t>
+  </si>
+  <si>
+    <t>bf77e60fd6f564d2aea51ed3951795c5</t>
+  </si>
+  <si>
+    <t>1b479593fc396e9cb91d2cb69259d431</t>
+  </si>
+  <si>
+    <t>090f743ad20aa0faf00f707c608ea8cb</t>
+  </si>
+  <si>
+    <t>e21fa7072f66bd16210e7c5897ff3af8</t>
+  </si>
+  <si>
+    <t>2f79e1a53613b16aca2d009f1afec93f</t>
+  </si>
+  <si>
+    <t>b212934881fab19ef688b7a7122b4177</t>
+  </si>
+  <si>
+    <t>b2538dbb55f7513520972af77d64a148</t>
+  </si>
+  <si>
+    <t>8190adfd9dd639b4a5b44da5d348ab4c</t>
+  </si>
+  <si>
+    <t>8a8139a77395bea931212ef3fb8d570d</t>
+  </si>
+  <si>
+    <t>0d821eb83e4653991e6113eab91605e6</t>
+  </si>
+  <si>
+    <t>45240445bf8070a691204db0415c4ab0</t>
+  </si>
+  <si>
+    <t>44d96e9c8c81bf2559c2a8655a85a440</t>
+  </si>
+  <si>
+    <t>5536b5772c860b76e119dda9708fc1bf</t>
+  </si>
+  <si>
+    <t>cabc9730bf28f4e5269d1faef63bc360</t>
+  </si>
+  <si>
+    <t>49609c7d5cf37b45e78f523c0b170056</t>
+  </si>
+  <si>
+    <t>d27a29e59e8f66f348726bc69448a41b</t>
+  </si>
+  <si>
+    <t>1698af403d7d40d9d1b141a0f05d07a0</t>
+  </si>
+  <si>
+    <t>8bb263d0c7431586297f991447e9a547</t>
+  </si>
+  <si>
+    <t>c2a200180455e528f7fd82834c84f005</t>
+  </si>
+  <si>
+    <t>7ca88a97a72f386c8a40a4fac9c0de0d</t>
+  </si>
+  <si>
+    <t>ccfc2a8f4e68b8852bd1fdceda145af9</t>
+  </si>
+  <si>
+    <t>bbf11519e73beb47e722d24633b7ea79</t>
+  </si>
+  <si>
+    <t>6258bae36a4366b95b905c84f29975f5</t>
+  </si>
+  <si>
+    <t>57c95d19a5c0615b3ec7a641ec50ab15</t>
+  </si>
+  <si>
+    <t>c8d9968a4bec76356bc47897a1f4dad7</t>
+  </si>
+  <si>
+    <t>d5ecac30c909d9ea81aae493c2c4a79a</t>
+  </si>
+  <si>
+    <t>f2b4a528f87eade8759f160b6671937b</t>
+  </si>
+  <si>
+    <t>a70e8f940b5d20e66954c615c54ca439</t>
+  </si>
+  <si>
+    <t>3315347aa21aee359aa6ac2195a0c8b1</t>
+  </si>
+  <si>
+    <t>c6ae4d6e8c2e2affa4b1c3d4d6848b52</t>
+  </si>
+  <si>
+    <t>7544502fede83fb5a93e4e8e41959aec</t>
+  </si>
+  <si>
+    <t>d495d8d8310130497fe95f2dd9409048</t>
+  </si>
+  <si>
+    <t>32f7a49a7c9f0694140edd355fbd54df</t>
+  </si>
+  <si>
+    <t>c96804f9a4ef30aff30e735989a26b3c</t>
+  </si>
+  <si>
+    <t>66dd9d9724d1620773a2e1512091aabd</t>
+  </si>
+  <si>
+    <t>932100a6ba9bc31beab2a522265fd49a</t>
+  </si>
+  <si>
+    <t>0cced46fa92535b25738634a9695739a</t>
+  </si>
+  <si>
+    <t>12012d3a14c159de60fd7a58c033e3a1</t>
+  </si>
+  <si>
+    <t>c90d29d3985f2c3d91f27c7e34a49ce4</t>
+  </si>
+  <si>
+    <t>4f07fd990b0c6e278cab5f31ab966d0e</t>
+  </si>
+  <si>
+    <t>bffbdf61409fe1013066f79b8687ae66</t>
+  </si>
+  <si>
+    <t>e14328d1bbcdb855692ac75156dfa0fa</t>
+  </si>
+  <si>
+    <t>8498f29737db1f7c966dbf427d82cd46</t>
+  </si>
+  <si>
+    <t>da88c76e9a2654555276ab99f54c0cc7</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>1046R</t>
+  </si>
+  <si>
+    <t>967F</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTTCCCTACACGACGCTCTTCCGATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGATGTGACTGGAGTTCAGACGTGTGCTCTTCCGATCTCGACRRCCATGCA</t>
+  </si>
+  <si>
+    <t>Short V6 primers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1269,7 +1504,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1327,7 +1562,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1338,15 +1573,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1390,6 +1619,29 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="282">
@@ -1676,7 +1928,219 @@
     <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2055,40 +2519,40 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BY40"/>
+  <dimension ref="A1:BY69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="34" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="23" style="41" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="23" style="39" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="39" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="41" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="14" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="59" customWidth="1"/>
+    <col min="15" max="15" width="14" style="62" customWidth="1"/>
     <col min="16" max="17" width="16.83203125" customWidth="1"/>
     <col min="18" max="18" width="11.5" customWidth="1"/>
     <col min="19" max="19" width="44.33203125" style="20" customWidth="1"/>
     <col min="20" max="20" width="43.6640625" style="20" customWidth="1"/>
     <col min="21" max="21" width="9.83203125" customWidth="1"/>
-    <col min="22" max="22" width="25.5" style="51" customWidth="1"/>
+    <col min="22" max="22" width="25.5" style="49" customWidth="1"/>
     <col min="23" max="23" width="20.1640625" style="20" customWidth="1"/>
     <col min="24" max="24" width="22" style="23" customWidth="1"/>
-    <col min="25" max="25" width="17.83203125" style="51" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" style="49" customWidth="1"/>
     <col min="26" max="26" width="21.5" style="20" customWidth="1"/>
     <col min="27" max="27" width="27.6640625" style="24" customWidth="1"/>
     <col min="28" max="28" width="9.83203125" customWidth="1"/>
@@ -2101,11 +2565,11 @@
     <col min="35" max="35" width="10.33203125" style="18" customWidth="1"/>
     <col min="36" max="36" width="10.33203125" customWidth="1"/>
     <col min="37" max="37" width="11.5" customWidth="1"/>
-    <col min="38" max="38" width="27.5" customWidth="1"/>
-    <col min="39" max="39" width="12.83203125" customWidth="1"/>
-    <col min="40" max="40" width="29.33203125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="30.5" style="1" customWidth="1"/>
+    <col min="38" max="38" width="19.6640625" customWidth="1"/>
+    <col min="39" max="39" width="12.83203125" style="63" customWidth="1"/>
+    <col min="40" max="40" width="32.83203125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13" style="63" customWidth="1"/>
+    <col min="42" max="42" width="35.6640625" style="1" customWidth="1"/>
     <col min="43" max="43" width="10.1640625" customWidth="1"/>
     <col min="44" max="44" width="12.5" customWidth="1"/>
     <col min="45" max="45" width="15" customWidth="1"/>
@@ -2146,28 +2610,28 @@
         <v>49</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="53"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="11"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="5"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="8"/>
       <c r="S1" s="21"/>
       <c r="T1" s="8"/>
-      <c r="V1" s="50"/>
+      <c r="V1" s="48"/>
       <c r="W1" s="21"/>
       <c r="X1" s="22"/>
-      <c r="Y1" s="52"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="21"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="36"/>
+      <c r="AB1" s="35"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="7"/>
       <c r="AE1" s="5"/>
@@ -2177,9 +2641,9 @@
       <c r="AI1" s="16"/>
       <c r="AJ1" s="5"/>
       <c r="AL1" s="10"/>
-      <c r="AM1" s="5"/>
+      <c r="AM1" s="33"/>
       <c r="AN1" s="11"/>
-      <c r="AO1" s="5"/>
+      <c r="AO1" s="33"/>
       <c r="AP1" s="9"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
@@ -2190,26 +2654,26 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="12"/>
-      <c r="BB1" s="34" t="s">
+      <c r="BB1" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BG1" s="34" t="s">
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BG1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BN1" s="34" t="s">
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="55"/>
+      <c r="BN1" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="BO1" s="34"/>
+      <c r="BO1" s="55"/>
       <c r="BQ1" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BR1" s="25"/>
       <c r="BS1" s="25"/>
@@ -2219,256 +2683,267 @@
       <c r="BW1" s="25"/>
       <c r="BX1" s="25"/>
     </row>
-    <row r="2" spans="1:77" s="49" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="1:77" s="47" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="N2" s="43" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="43" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="43" t="s">
+      <c r="U2" s="53"/>
+      <c r="V2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Y2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="Z2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="43" t="s">
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AE2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AF2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AG2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="43" t="s">
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AN2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AO2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AP2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="43" t="s">
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="43" t="s">
+      <c r="AS2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AT2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AU2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AV2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AW2" s="43" t="s">
+      <c r="AW2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AX2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="AY2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="AZ2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="45" t="s">
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="BC2" s="45" t="s">
+      <c r="BC2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="BD2" s="45" t="s">
+      <c r="BD2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BE2" s="45" t="s">
+      <c r="BE2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="46" t="s">
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="BH2" s="46" t="s">
+      <c r="BH2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="BI2" s="46" t="s">
+      <c r="BI2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="BJ2" s="46" t="s">
+      <c r="BJ2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="BK2" s="46" t="s">
+      <c r="BK2" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="BL2" s="46" t="s">
+      <c r="BL2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="47" t="s">
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="BO2" s="47" t="s">
+      <c r="BO2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="BP2" s="56"/>
-      <c r="BQ2" s="48" t="s">
+      <c r="BP2" s="54"/>
+      <c r="BQ2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="BR2" s="48" t="s">
+      <c r="BR2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="BS2" s="48" t="s">
+      <c r="BS2" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="BT2" s="48" t="s">
+      <c r="BT2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="48" t="s">
+      <c r="BU2" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="BV2" s="48" t="s">
+      <c r="BV2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="BW2" s="48" t="s">
+      <c r="BW2" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="BX2" s="48" t="s">
+      <c r="BX2" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="BY2" s="56"/>
+      <c r="BY2" s="54"/>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
-        <f>COUNTIF(C3,"&lt;&gt;"&amp;"")+COUNTIF(BL3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="A3:A38" si="0">COUNTIF(C3,"&lt;&gt;"&amp;"")+COUNTIF(BL3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="27">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>182</v>
+      <c r="C3" s="34" t="s">
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="23"/>
+      <c r="L3" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="58">
+        <v>1541441</v>
+      </c>
+      <c r="O3" s="61">
+        <v>1541441</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W3" s="20" t="s">
@@ -2477,14 +2952,14 @@
       <c r="X3" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y3" s="51" t="s">
-        <v>159</v>
+      <c r="Y3" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>49</v>
@@ -2492,8 +2967,28 @@
       <c r="AG3" s="19"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="17"/>
-      <c r="AJ3" s="15"/>
+      <c r="AJ3" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM3" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO3" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>49</v>
       </c>
       <c r="AR3" t="s">
@@ -2510,6 +3005,15 @@
       </c>
       <c r="AV3" t="s">
         <v>11</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY3">
+        <v>111</v>
+      </c>
+      <c r="AZ3">
+        <v>111</v>
       </c>
       <c r="BG3" s="29"/>
       <c r="BH3" s="30"/>
@@ -2528,45 +3032,56 @@
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <f>COUNTIF(C4,"&lt;&gt;"&amp;"")+COUNTIF(BL4,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>183</v>
+      <c r="C4" s="34" t="s">
+        <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="23"/>
+      <c r="L4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" s="58">
+        <v>1513804</v>
+      </c>
+      <c r="O4" s="61">
+        <v>1513804</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
       <c r="U4" s="1"/>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W4" s="20" t="s">
@@ -2575,14 +3090,14 @@
       <c r="X4" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y4" s="51" t="s">
-        <v>159</v>
+      <c r="Y4" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA4" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>49</v>
@@ -2590,8 +3105,28 @@
       <c r="AG4" s="19"/>
       <c r="AH4" s="4"/>
       <c r="AI4" s="17"/>
-      <c r="AJ4" s="15"/>
+      <c r="AJ4" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM4" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO4" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>49</v>
       </c>
       <c r="AR4" t="s">
@@ -2608,6 +3143,15 @@
       </c>
       <c r="AV4" t="s">
         <v>11</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY4">
+        <v>111</v>
+      </c>
+      <c r="AZ4">
+        <v>111</v>
       </c>
       <c r="BG4" s="29"/>
       <c r="BH4" s="30"/>
@@ -2626,45 +3170,56 @@
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
-        <f>COUNTIF(C5,"&lt;&gt;"&amp;"")+COUNTIF(BL5,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>184</v>
+      <c r="C5" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="28"/>
+      <c r="L5" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" s="58">
+        <v>1563302</v>
+      </c>
+      <c r="O5" s="61">
+        <v>1563302</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
       <c r="U5" s="1"/>
-      <c r="V5" s="51" t="s">
+      <c r="V5" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W5" s="20" t="s">
@@ -2673,14 +3228,14 @@
       <c r="X5" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y5" s="51" t="s">
-        <v>159</v>
+      <c r="Y5" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>49</v>
@@ -2688,8 +3243,28 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="17"/>
-      <c r="AJ5" s="15"/>
+      <c r="AJ5" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM5" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO5" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>49</v>
       </c>
       <c r="AR5" t="s">
@@ -2706,6 +3281,15 @@
       </c>
       <c r="AV5" t="s">
         <v>11</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY5">
+        <v>111</v>
+      </c>
+      <c r="AZ5">
+        <v>111</v>
       </c>
       <c r="BG5" s="29"/>
       <c r="BH5" s="30"/>
@@ -2724,45 +3308,56 @@
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
-        <f>COUNTIF(C6,"&lt;&gt;"&amp;"")+COUNTIF(BL6,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6" s="27">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>185</v>
+      <c r="C6" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="23"/>
+      <c r="L6" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" s="58">
+        <v>1565845</v>
+      </c>
+      <c r="O6" s="61">
+        <v>1565845</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
       <c r="U6" s="1"/>
-      <c r="V6" s="51" t="s">
+      <c r="V6" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W6" s="20" t="s">
@@ -2771,14 +3366,14 @@
       <c r="X6" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y6" s="51" t="s">
-        <v>159</v>
+      <c r="Y6" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA6" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>49</v>
@@ -2786,8 +3381,28 @@
       <c r="AG6" s="19"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="17"/>
-      <c r="AJ6" s="15"/>
+      <c r="AJ6" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM6" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO6" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>49</v>
       </c>
       <c r="AR6" t="s">
@@ -2804,6 +3419,15 @@
       </c>
       <c r="AV6" t="s">
         <v>11</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY6">
+        <v>111</v>
+      </c>
+      <c r="AZ6">
+        <v>111</v>
       </c>
       <c r="BG6" s="29"/>
       <c r="BH6" s="30"/>
@@ -2822,45 +3446,56 @@
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
-        <f>COUNTIF(C7,"&lt;&gt;"&amp;"")+COUNTIF(BL7,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>186</v>
+      <c r="C7" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="L7" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="23"/>
+      <c r="L7" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="N7" s="58">
+        <v>677372</v>
+      </c>
+      <c r="O7" s="61">
+        <v>677372</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
       <c r="U7" s="1"/>
-      <c r="V7" s="51" t="s">
+      <c r="V7" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W7" s="20" t="s">
@@ -2869,14 +3504,14 @@
       <c r="X7" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y7" s="51" t="s">
-        <v>159</v>
+      <c r="Y7" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA7" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>49</v>
@@ -2884,8 +3519,28 @@
       <c r="AG7" s="19"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="17"/>
-      <c r="AJ7" s="15"/>
+      <c r="AJ7" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM7" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO7" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>49</v>
       </c>
       <c r="AR7" t="s">
@@ -2902,6 +3557,15 @@
       </c>
       <c r="AV7" t="s">
         <v>11</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY7">
+        <v>111</v>
+      </c>
+      <c r="AZ7">
+        <v>111</v>
       </c>
       <c r="BG7" s="29"/>
       <c r="BH7" s="30"/>
@@ -2920,45 +3584,56 @@
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
-        <f>COUNTIF(C8,"&lt;&gt;"&amp;"")+COUNTIF(BL8,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8" s="27">
         <v>6</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>187</v>
+      <c r="C8" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="28"/>
+      <c r="L8" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="N8" s="58">
+        <v>663201</v>
+      </c>
+      <c r="O8" s="61">
+        <v>663201</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
       <c r="U8" s="1"/>
-      <c r="V8" s="51" t="s">
+      <c r="V8" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W8" s="20" t="s">
@@ -2967,14 +3642,14 @@
       <c r="X8" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y8" s="51" t="s">
-        <v>159</v>
+      <c r="Y8" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA8" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>49</v>
@@ -2982,8 +3657,28 @@
       <c r="AG8" s="19"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="17"/>
-      <c r="AJ8" s="15"/>
+      <c r="AJ8" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM8" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO8" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>49</v>
       </c>
       <c r="AR8" t="s">
@@ -3000,6 +3695,15 @@
       </c>
       <c r="AV8" t="s">
         <v>11</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY8">
+        <v>111</v>
+      </c>
+      <c r="AZ8">
+        <v>111</v>
       </c>
       <c r="BG8" s="29"/>
       <c r="BH8" s="30"/>
@@ -3018,45 +3722,56 @@
     </row>
     <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
-        <f>COUNTIF(C9,"&lt;&gt;"&amp;"")+COUNTIF(BL9,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B9" s="27">
         <v>7</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>188</v>
+      <c r="C9" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="23"/>
+      <c r="L9" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="N9" s="58">
+        <v>686948</v>
+      </c>
+      <c r="O9" s="61">
+        <v>686948</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
       <c r="U9" s="1"/>
-      <c r="V9" s="51" t="s">
+      <c r="V9" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W9" s="20" t="s">
@@ -3065,14 +3780,14 @@
       <c r="X9" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y9" s="51" t="s">
-        <v>159</v>
+      <c r="Y9" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA9" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>49</v>
@@ -3080,8 +3795,28 @@
       <c r="AG9" s="19"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="17"/>
-      <c r="AJ9" s="15"/>
+      <c r="AJ9" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM9" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO9" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>49</v>
       </c>
       <c r="AR9" t="s">
@@ -3098,6 +3833,15 @@
       </c>
       <c r="AV9" t="s">
         <v>11</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY9">
+        <v>111</v>
+      </c>
+      <c r="AZ9">
+        <v>111</v>
       </c>
       <c r="BG9" s="29"/>
       <c r="BH9" s="30"/>
@@ -3116,45 +3860,56 @@
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
-        <f>COUNTIF(C10,"&lt;&gt;"&amp;"")+COUNTIF(BL10,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B10" s="27">
         <v>8</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>189</v>
+      <c r="C10" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="23"/>
+      <c r="L10" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" s="58">
+        <v>686723</v>
+      </c>
+      <c r="O10" s="61">
+        <v>686723</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
       <c r="U10" s="1"/>
-      <c r="V10" s="51" t="s">
+      <c r="V10" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W10" s="20" t="s">
@@ -3163,14 +3918,14 @@
       <c r="X10" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y10" s="51" t="s">
-        <v>159</v>
+      <c r="Y10" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA10" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>49</v>
@@ -3178,8 +3933,28 @@
       <c r="AG10" s="19"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="17"/>
-      <c r="AJ10" s="15"/>
+      <c r="AJ10" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM10" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO10" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>49</v>
       </c>
       <c r="AR10" t="s">
@@ -3196,6 +3971,15 @@
       </c>
       <c r="AV10" t="s">
         <v>11</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY10">
+        <v>111</v>
+      </c>
+      <c r="AZ10">
+        <v>111</v>
       </c>
       <c r="BG10" s="29"/>
       <c r="BH10" s="30"/>
@@ -3214,45 +3998,56 @@
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
-        <f>COUNTIF(C11,"&lt;&gt;"&amp;"")+COUNTIF(BL11,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B11" s="27">
         <v>9</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>190</v>
+      <c r="C11" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="23"/>
+      <c r="L11" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11" s="58">
+        <v>1539394</v>
+      </c>
+      <c r="O11" s="61">
+        <v>1539394</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
       <c r="U11" s="1"/>
-      <c r="V11" s="51" t="s">
+      <c r="V11" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W11" s="20" t="s">
@@ -3261,14 +4056,14 @@
       <c r="X11" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y11" s="51" t="s">
-        <v>159</v>
+      <c r="Y11" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA11" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>49</v>
@@ -3276,8 +4071,28 @@
       <c r="AG11" s="19"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="17"/>
-      <c r="AJ11" s="15"/>
+      <c r="AJ11" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM11" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO11" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>49</v>
       </c>
       <c r="AR11" t="s">
@@ -3294,6 +4109,15 @@
       </c>
       <c r="AV11" t="s">
         <v>11</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY11">
+        <v>111</v>
+      </c>
+      <c r="AZ11">
+        <v>111</v>
       </c>
       <c r="BG11" s="29"/>
       <c r="BH11" s="30"/>
@@ -3312,45 +4136,56 @@
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
-        <f>COUNTIF(C12,"&lt;&gt;"&amp;"")+COUNTIF(BL12,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B12" s="27">
         <v>10</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>191</v>
+      <c r="C12" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="L12" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="23"/>
+      <c r="L12" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="N12" s="58">
+        <v>1510757</v>
+      </c>
+      <c r="O12" s="61">
+        <v>1510757</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
+      </c>
       <c r="U12" s="1"/>
-      <c r="V12" s="51" t="s">
+      <c r="V12" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W12" s="20" t="s">
@@ -3359,14 +4194,14 @@
       <c r="X12" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y12" s="51" t="s">
-        <v>159</v>
+      <c r="Y12" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA12" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>49</v>
@@ -3374,8 +4209,28 @@
       <c r="AG12" s="19"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="17"/>
-      <c r="AJ12" s="15"/>
+      <c r="AJ12" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM12" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO12" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>49</v>
       </c>
       <c r="AR12" t="s">
@@ -3392,6 +4247,15 @@
       </c>
       <c r="AV12" t="s">
         <v>11</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY12">
+        <v>111</v>
+      </c>
+      <c r="AZ12">
+        <v>111</v>
       </c>
       <c r="BG12" s="29"/>
       <c r="BH12" s="30"/>
@@ -3410,45 +4274,56 @@
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
-        <f>COUNTIF(C13,"&lt;&gt;"&amp;"")+COUNTIF(BL13,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B13" s="27">
         <v>11</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>192</v>
+      <c r="C13" s="34" t="s">
+        <v>189</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="L13" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="23"/>
+      <c r="L13" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="N13" s="58">
+        <v>1562525</v>
+      </c>
+      <c r="O13" s="61">
+        <v>1562525</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="R13" t="s">
+        <v>49</v>
+      </c>
       <c r="U13" s="1"/>
-      <c r="V13" s="51" t="s">
+      <c r="V13" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W13" s="20" t="s">
@@ -3457,14 +4332,14 @@
       <c r="X13" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y13" s="51" t="s">
-        <v>159</v>
+      <c r="Y13" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z13" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA13" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>49</v>
@@ -3472,11 +4347,30 @@
       <c r="AG13" s="19"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="17"/>
-      <c r="AJ13" s="15"/>
+      <c r="AJ13" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK13" t="s">
         <v>49</v>
       </c>
-      <c r="AL13" s="30"/>
+      <c r="AL13" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM13" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO13" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>49</v>
+      </c>
       <c r="AR13" t="s">
         <v>8</v>
       </c>
@@ -3491,6 +4385,15 @@
       </c>
       <c r="AV13" t="s">
         <v>11</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY13">
+        <v>111</v>
+      </c>
+      <c r="AZ13">
+        <v>111</v>
       </c>
       <c r="BG13" s="29"/>
       <c r="BH13" s="30"/>
@@ -3509,45 +4412,56 @@
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
-        <f>COUNTIF(C14,"&lt;&gt;"&amp;"")+COUNTIF(BL14,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B14" s="27">
         <v>12</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>193</v>
+      <c r="C14" s="34" t="s">
+        <v>190</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="L14" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="23"/>
+      <c r="L14" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="N14" s="58">
+        <v>1560693</v>
+      </c>
+      <c r="O14" s="61">
+        <v>1560693</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="R14" t="s">
+        <v>49</v>
+      </c>
       <c r="U14" s="1"/>
-      <c r="V14" s="51" t="s">
+      <c r="V14" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W14" s="20" t="s">
@@ -3556,14 +4470,14 @@
       <c r="X14" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y14" s="51" t="s">
-        <v>159</v>
+      <c r="Y14" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z14" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA14" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>49</v>
@@ -3571,11 +4485,30 @@
       <c r="AG14" s="19"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="17"/>
-      <c r="AJ14" s="15"/>
+      <c r="AJ14" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK14" t="s">
         <v>49</v>
       </c>
-      <c r="AL14" s="30"/>
+      <c r="AL14" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM14" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO14" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>49</v>
+      </c>
       <c r="AR14" t="s">
         <v>8</v>
       </c>
@@ -3590,6 +4523,15 @@
       </c>
       <c r="AV14" t="s">
         <v>11</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY14">
+        <v>111</v>
+      </c>
+      <c r="AZ14">
+        <v>111</v>
       </c>
       <c r="BG14" s="29"/>
       <c r="BH14" s="30"/>
@@ -3608,45 +4550,56 @@
     </row>
     <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <f>COUNTIF(C15,"&lt;&gt;"&amp;"")+COUNTIF(BL15,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B15" s="27">
         <v>13</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>194</v>
+      <c r="C15" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="23"/>
+      <c r="L15" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="58">
+        <v>1033095</v>
+      </c>
+      <c r="O15" s="61">
+        <v>1033095</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="R15" t="s">
+        <v>49</v>
+      </c>
       <c r="U15" s="1"/>
-      <c r="V15" s="51" t="s">
+      <c r="V15" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W15" s="20" t="s">
@@ -3655,14 +4608,14 @@
       <c r="X15" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y15" s="51" t="s">
-        <v>159</v>
+      <c r="Y15" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z15" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA15" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>49</v>
@@ -3670,8 +4623,28 @@
       <c r="AG15" s="19"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="17"/>
-      <c r="AJ15" s="15"/>
+      <c r="AJ15" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM15" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO15" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>49</v>
       </c>
       <c r="AR15" t="s">
@@ -3688,6 +4661,15 @@
       </c>
       <c r="AV15" t="s">
         <v>11</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY15">
+        <v>111</v>
+      </c>
+      <c r="AZ15">
+        <v>111</v>
       </c>
       <c r="BG15" s="29"/>
       <c r="BH15" s="30"/>
@@ -3706,45 +4688,56 @@
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
-        <f>COUNTIF(C16,"&lt;&gt;"&amp;"")+COUNTIF(BL16,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B16" s="27">
         <v>14</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>195</v>
+      <c r="C16" s="34" t="s">
+        <v>192</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="M16" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="23"/>
+      <c r="L16" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" s="58">
+        <v>1012051</v>
+      </c>
+      <c r="O16" s="61">
+        <v>1012051</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="R16" t="s">
+        <v>49</v>
+      </c>
       <c r="U16" s="1"/>
-      <c r="V16" s="51" t="s">
+      <c r="V16" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W16" s="20" t="s">
@@ -3753,14 +4746,14 @@
       <c r="X16" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y16" s="51" t="s">
-        <v>159</v>
+      <c r="Y16" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z16" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA16" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>49</v>
@@ -3768,8 +4761,28 @@
       <c r="AG16" s="19"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="17"/>
-      <c r="AJ16" s="15"/>
+      <c r="AJ16" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM16" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO16" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>49</v>
       </c>
       <c r="AR16" t="s">
@@ -3786,6 +4799,15 @@
       </c>
       <c r="AV16" t="s">
         <v>11</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY16">
+        <v>111</v>
+      </c>
+      <c r="AZ16">
+        <v>111</v>
       </c>
       <c r="BG16" s="29"/>
       <c r="BH16" s="30"/>
@@ -3804,45 +4826,56 @@
     </row>
     <row r="17" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
-        <f>COUNTIF(C17,"&lt;&gt;"&amp;"")+COUNTIF(BL17,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B17" s="27">
         <v>15</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>196</v>
+      <c r="C17" s="34" t="s">
+        <v>193</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="M17" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="23"/>
+      <c r="L17" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N17" s="58">
+        <v>1045841</v>
+      </c>
+      <c r="O17" s="61">
+        <v>1045841</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="R17" t="s">
+        <v>49</v>
+      </c>
       <c r="U17" s="1"/>
-      <c r="V17" s="51" t="s">
+      <c r="V17" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W17" s="20" t="s">
@@ -3851,14 +4884,14 @@
       <c r="X17" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y17" s="51" t="s">
-        <v>159</v>
+      <c r="Y17" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z17" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA17" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>49</v>
@@ -3866,8 +4899,28 @@
       <c r="AG17" s="19"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="17"/>
-      <c r="AJ17" s="15"/>
+      <c r="AJ17" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM17" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO17" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>49</v>
       </c>
       <c r="AR17" t="s">
@@ -3884,6 +4937,15 @@
       </c>
       <c r="AV17" t="s">
         <v>11</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY17">
+        <v>111</v>
+      </c>
+      <c r="AZ17">
+        <v>111</v>
       </c>
       <c r="BG17" s="29"/>
       <c r="BH17" s="30"/>
@@ -3902,45 +4964,56 @@
     </row>
     <row r="18" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <f>COUNTIF(C18,"&lt;&gt;"&amp;"")+COUNTIF(BL18,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B18" s="27">
         <v>16</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>197</v>
+      <c r="C18" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="23"/>
+      <c r="L18" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N18" s="58">
+        <v>1045591</v>
+      </c>
+      <c r="O18" s="61">
+        <v>1045591</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="R18" t="s">
+        <v>49</v>
+      </c>
       <c r="U18" s="1"/>
-      <c r="V18" s="51" t="s">
+      <c r="V18" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W18" s="20" t="s">
@@ -3949,14 +5022,14 @@
       <c r="X18" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y18" s="51" t="s">
-        <v>159</v>
+      <c r="Y18" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z18" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA18" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>49</v>
@@ -3964,8 +5037,28 @@
       <c r="AG18" s="19"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="17"/>
-      <c r="AJ18" s="15"/>
+      <c r="AJ18" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM18" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO18" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>49</v>
       </c>
       <c r="AR18" t="s">
@@ -3982,6 +5075,15 @@
       </c>
       <c r="AV18" t="s">
         <v>11</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY18">
+        <v>111</v>
+      </c>
+      <c r="AZ18">
+        <v>111</v>
       </c>
       <c r="BG18" s="29"/>
       <c r="BH18" s="30"/>
@@ -4000,45 +5102,56 @@
     </row>
     <row r="19" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
-        <f>COUNTIF(C19,"&lt;&gt;"&amp;"")+COUNTIF(BL19,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B19" s="27">
         <v>17</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>198</v>
+      <c r="C19" s="34" t="s">
+        <v>195</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="M19" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="23"/>
+      <c r="L19" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="N19" s="58">
+        <v>911612</v>
+      </c>
+      <c r="O19" s="61">
+        <v>911612</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="R19" t="s">
+        <v>49</v>
+      </c>
       <c r="U19" s="1"/>
-      <c r="V19" s="51" t="s">
+      <c r="V19" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W19" s="20" t="s">
@@ -4047,14 +5160,14 @@
       <c r="X19" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y19" s="51" t="s">
-        <v>159</v>
+      <c r="Y19" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z19" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA19" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>49</v>
@@ -4062,8 +5175,28 @@
       <c r="AG19" s="19"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="17"/>
-      <c r="AJ19" s="15"/>
+      <c r="AJ19" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM19" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO19" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>49</v>
       </c>
       <c r="AR19" t="s">
@@ -4080,6 +5213,15 @@
       </c>
       <c r="AV19" t="s">
         <v>11</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY19">
+        <v>111</v>
+      </c>
+      <c r="AZ19">
+        <v>111</v>
       </c>
       <c r="BG19" s="29"/>
       <c r="BH19" s="30"/>
@@ -4098,45 +5240,56 @@
     </row>
     <row r="20" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
-        <f>COUNTIF(C20,"&lt;&gt;"&amp;"")+COUNTIF(BL20,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B20" s="27">
         <v>18</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>199</v>
+      <c r="C20" s="34" t="s">
+        <v>196</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="L20" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="M20" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="23"/>
+      <c r="L20" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="N20" s="58">
+        <v>890088</v>
+      </c>
+      <c r="O20" s="61">
+        <v>890088</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="R20" t="s">
+        <v>49</v>
+      </c>
       <c r="U20" s="1"/>
-      <c r="V20" s="51" t="s">
+      <c r="V20" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W20" s="20" t="s">
@@ -4145,14 +5298,14 @@
       <c r="X20" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y20" s="51" t="s">
-        <v>159</v>
+      <c r="Y20" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA20" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>49</v>
@@ -4160,8 +5313,28 @@
       <c r="AG20" s="19"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="17"/>
-      <c r="AJ20" s="15"/>
+      <c r="AJ20" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM20" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO20" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>49</v>
       </c>
       <c r="AR20" t="s">
@@ -4178,6 +5351,15 @@
       </c>
       <c r="AV20" t="s">
         <v>11</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY20">
+        <v>111</v>
+      </c>
+      <c r="AZ20">
+        <v>111</v>
       </c>
       <c r="BG20" s="29"/>
       <c r="BH20" s="30"/>
@@ -4196,45 +5378,56 @@
     </row>
     <row r="21" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
-        <f>COUNTIF(C21,"&lt;&gt;"&amp;"")+COUNTIF(BL21,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B21" s="27">
         <v>19</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>200</v>
+      <c r="C21" s="34" t="s">
+        <v>197</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="L21" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="M21" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="23"/>
+      <c r="L21" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="N21" s="58">
+        <v>922452</v>
+      </c>
+      <c r="O21" s="61">
+        <v>922452</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="R21" t="s">
+        <v>49</v>
+      </c>
       <c r="U21" s="1"/>
-      <c r="V21" s="51" t="s">
+      <c r="V21" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W21" s="20" t="s">
@@ -4243,14 +5436,14 @@
       <c r="X21" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y21" s="51" t="s">
-        <v>159</v>
+      <c r="Y21" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z21" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA21" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>49</v>
@@ -4258,8 +5451,28 @@
       <c r="AG21" s="19"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="17"/>
-      <c r="AJ21" s="15"/>
+      <c r="AJ21" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM21" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO21" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>49</v>
       </c>
       <c r="AR21" t="s">
@@ -4276,6 +5489,15 @@
       </c>
       <c r="AV21" t="s">
         <v>11</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY21">
+        <v>111</v>
+      </c>
+      <c r="AZ21">
+        <v>111</v>
       </c>
       <c r="BG21" s="29"/>
       <c r="BH21" s="30"/>
@@ -4294,45 +5516,56 @@
     </row>
     <row r="22" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
-        <f>COUNTIF(C22,"&lt;&gt;"&amp;"")+COUNTIF(BL22,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B22" s="27">
         <v>20</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>201</v>
+      <c r="C22" s="34" t="s">
+        <v>198</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="M22" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="23"/>
+      <c r="L22" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="N22" s="58">
+        <v>920466</v>
+      </c>
+      <c r="O22" s="61">
+        <v>920466</v>
+      </c>
+      <c r="P22" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="R22" t="s">
+        <v>49</v>
+      </c>
       <c r="U22" s="1"/>
-      <c r="V22" s="51" t="s">
+      <c r="V22" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W22" s="20" t="s">
@@ -4341,14 +5574,14 @@
       <c r="X22" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y22" s="51" t="s">
-        <v>159</v>
+      <c r="Y22" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z22" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA22" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>49</v>
@@ -4356,8 +5589,28 @@
       <c r="AG22" s="19"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="17"/>
-      <c r="AJ22" s="15"/>
+      <c r="AJ22" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM22" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO22" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>49</v>
       </c>
       <c r="AR22" t="s">
@@ -4374,6 +5627,15 @@
       </c>
       <c r="AV22" t="s">
         <v>11</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY22">
+        <v>111</v>
+      </c>
+      <c r="AZ22">
+        <v>111</v>
       </c>
       <c r="BG22" s="29"/>
       <c r="BH22" s="30"/>
@@ -4392,45 +5654,56 @@
     </row>
     <row r="23" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
-        <f>COUNTIF(C23,"&lt;&gt;"&amp;"")+COUNTIF(BL23,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B23" s="27">
         <v>21</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>202</v>
+      <c r="C23" s="34" t="s">
+        <v>199</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="M23" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="23"/>
+      <c r="L23" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="N23" s="58">
+        <v>3067661</v>
+      </c>
+      <c r="O23" s="61">
+        <v>3067661</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="R23" t="s">
+        <v>49</v>
+      </c>
       <c r="U23" s="1"/>
-      <c r="V23" s="51" t="s">
+      <c r="V23" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W23" s="20" t="s">
@@ -4439,14 +5712,14 @@
       <c r="X23" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y23" s="51" t="s">
-        <v>159</v>
+      <c r="Y23" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z23" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA23" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>49</v>
@@ -4454,11 +5727,30 @@
       <c r="AG23" s="19"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="17"/>
-      <c r="AJ23" s="15"/>
+      <c r="AJ23" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK23" t="s">
         <v>49</v>
       </c>
-      <c r="AL23" s="30"/>
+      <c r="AL23" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM23" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO23" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>49</v>
+      </c>
       <c r="AR23" t="s">
         <v>8</v>
       </c>
@@ -4473,6 +5765,15 @@
       </c>
       <c r="AV23" t="s">
         <v>11</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY23">
+        <v>111</v>
+      </c>
+      <c r="AZ23">
+        <v>111</v>
       </c>
       <c r="BG23" s="29"/>
       <c r="BH23" s="30"/>
@@ -4491,45 +5792,56 @@
     </row>
     <row r="24" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
-        <f>COUNTIF(C24,"&lt;&gt;"&amp;"")+COUNTIF(BL24,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B24" s="27">
         <v>22</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>203</v>
+      <c r="C24" s="34" t="s">
+        <v>200</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="M24" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="23"/>
+      <c r="L24" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="N24" s="58">
+        <v>3009815</v>
+      </c>
+      <c r="O24" s="61">
+        <v>3009815</v>
+      </c>
+      <c r="P24" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="R24" t="s">
+        <v>49</v>
+      </c>
       <c r="U24" s="1"/>
-      <c r="V24" s="51" t="s">
+      <c r="V24" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W24" s="20" t="s">
@@ -4538,14 +5850,14 @@
       <c r="X24" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y24" s="51" t="s">
-        <v>159</v>
+      <c r="Y24" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z24" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA24" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>49</v>
@@ -4553,11 +5865,30 @@
       <c r="AG24" s="19"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="17"/>
-      <c r="AJ24" s="15"/>
+      <c r="AJ24" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK24" t="s">
         <v>49</v>
       </c>
-      <c r="AL24" s="30"/>
+      <c r="AL24" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM24" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO24" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>49</v>
+      </c>
       <c r="AR24" t="s">
         <v>8</v>
       </c>
@@ -4572,6 +5903,15 @@
       </c>
       <c r="AV24" t="s">
         <v>11</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY24">
+        <v>111</v>
+      </c>
+      <c r="AZ24">
+        <v>111</v>
       </c>
       <c r="BG24" s="29"/>
       <c r="BH24" s="30"/>
@@ -4590,45 +5930,56 @@
     </row>
     <row r="25" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
-        <f>COUNTIF(C25,"&lt;&gt;"&amp;"")+COUNTIF(BL25,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B25" s="27">
         <v>23</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>204</v>
+      <c r="C25" s="34" t="s">
+        <v>201</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="41" t="s">
+      <c r="J25" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="L25" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="M25" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="23"/>
+      <c r="L25" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="N25" s="58">
+        <v>3108035</v>
+      </c>
+      <c r="O25" s="61">
+        <v>3108035</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="R25" t="s">
+        <v>49</v>
+      </c>
       <c r="U25" s="1"/>
-      <c r="V25" s="51" t="s">
+      <c r="V25" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W25" s="20" t="s">
@@ -4637,14 +5988,14 @@
       <c r="X25" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y25" s="51" t="s">
-        <v>159</v>
+      <c r="Y25" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z25" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA25" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>49</v>
@@ -4652,11 +6003,30 @@
       <c r="AG25" s="19"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="17"/>
-      <c r="AJ25" s="15"/>
+      <c r="AJ25" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK25" t="s">
         <v>49</v>
       </c>
-      <c r="AL25" s="30"/>
+      <c r="AL25" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM25" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO25" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>49</v>
+      </c>
       <c r="AR25" t="s">
         <v>8</v>
       </c>
@@ -4671,6 +6041,15 @@
       </c>
       <c r="AV25" t="s">
         <v>11</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY25">
+        <v>111</v>
+      </c>
+      <c r="AZ25">
+        <v>111</v>
       </c>
       <c r="BG25" s="29"/>
       <c r="BH25" s="30"/>
@@ -4689,45 +6068,56 @@
     </row>
     <row r="26" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
-        <f>COUNTIF(C26,"&lt;&gt;"&amp;"")+COUNTIF(BL26,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B26" s="27">
         <v>24</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>205</v>
+      <c r="C26" s="34" t="s">
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="L26" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="M26" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="23"/>
+      <c r="L26" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="N26" s="58">
+        <v>3114749</v>
+      </c>
+      <c r="O26" s="61">
+        <v>3114749</v>
+      </c>
+      <c r="P26" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q26" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="R26" t="s">
+        <v>49</v>
+      </c>
       <c r="U26" s="1"/>
-      <c r="V26" s="51" t="s">
+      <c r="V26" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W26" s="20" t="s">
@@ -4736,14 +6126,14 @@
       <c r="X26" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y26" s="51" t="s">
-        <v>159</v>
+      <c r="Y26" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA26" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>49</v>
@@ -4751,11 +6141,30 @@
       <c r="AG26" s="19"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="17"/>
-      <c r="AJ26" s="15"/>
+      <c r="AJ26" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK26" t="s">
         <v>49</v>
       </c>
-      <c r="AL26" s="30"/>
+      <c r="AL26" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM26" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO26" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>49</v>
+      </c>
       <c r="AR26" t="s">
         <v>8</v>
       </c>
@@ -4770,6 +6179,15 @@
       </c>
       <c r="AV26" t="s">
         <v>11</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY26">
+        <v>111</v>
+      </c>
+      <c r="AZ26">
+        <v>111</v>
       </c>
       <c r="BG26" s="29"/>
       <c r="BH26" s="30"/>
@@ -4788,45 +6206,56 @@
     </row>
     <row r="27" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
-        <f>COUNTIF(C27,"&lt;&gt;"&amp;"")+COUNTIF(BL27,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B27" s="27">
         <v>25</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>206</v>
+      <c r="C27" s="34" t="s">
+        <v>203</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="23"/>
+      <c r="L27" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="N27" s="58">
+        <v>2634261</v>
+      </c>
+      <c r="O27" s="61">
+        <v>2634261</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="R27" t="s">
+        <v>49</v>
+      </c>
       <c r="U27" s="1"/>
-      <c r="V27" s="51" t="s">
+      <c r="V27" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W27" s="20" t="s">
@@ -4835,14 +6264,14 @@
       <c r="X27" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y27" s="51" t="s">
-        <v>159</v>
+      <c r="Y27" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z27" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA27" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>49</v>
@@ -4850,11 +6279,30 @@
       <c r="AG27" s="19"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="17"/>
-      <c r="AJ27" s="15"/>
+      <c r="AJ27" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK27" t="s">
         <v>49</v>
       </c>
-      <c r="AL27" s="30"/>
+      <c r="AL27" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM27" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO27" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>49</v>
+      </c>
       <c r="AR27" t="s">
         <v>8</v>
       </c>
@@ -4869,6 +6317,15 @@
       </c>
       <c r="AV27" t="s">
         <v>11</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY27">
+        <v>111</v>
+      </c>
+      <c r="AZ27">
+        <v>111</v>
       </c>
       <c r="BG27" s="29"/>
       <c r="BH27" s="30"/>
@@ -4887,45 +6344,56 @@
     </row>
     <row r="28" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
-        <f>COUNTIF(C28,"&lt;&gt;"&amp;"")+COUNTIF(BL28,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B28" s="27">
         <v>26</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>207</v>
+      <c r="C28" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="L28" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="M28" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="23"/>
+      <c r="L28" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="N28" s="58">
+        <v>2572925</v>
+      </c>
+      <c r="O28" s="61">
+        <v>2572925</v>
+      </c>
+      <c r="P28" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="R28" t="s">
+        <v>49</v>
+      </c>
       <c r="U28" s="1"/>
-      <c r="V28" s="51" t="s">
+      <c r="V28" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W28" s="20" t="s">
@@ -4934,14 +6402,14 @@
       <c r="X28" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y28" s="51" t="s">
-        <v>159</v>
+      <c r="Y28" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z28" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA28" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>49</v>
@@ -4949,8 +6417,28 @@
       <c r="AG28" s="19"/>
       <c r="AH28" s="4"/>
       <c r="AI28" s="17"/>
-      <c r="AJ28" s="15"/>
+      <c r="AJ28" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM28" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO28" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>49</v>
       </c>
       <c r="AR28" t="s">
@@ -4967,6 +6455,15 @@
       </c>
       <c r="AV28" t="s">
         <v>11</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY28">
+        <v>111</v>
+      </c>
+      <c r="AZ28">
+        <v>111</v>
       </c>
       <c r="BG28" s="29"/>
       <c r="BH28" s="30"/>
@@ -4985,45 +6482,56 @@
     </row>
     <row r="29" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
-        <f>COUNTIF(C29,"&lt;&gt;"&amp;"")+COUNTIF(BL29,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B29" s="27">
         <v>27</v>
       </c>
-      <c r="C29" s="35" t="s">
-        <v>208</v>
+      <c r="C29" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="L29" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="M29" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="23"/>
+      <c r="L29" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="N29" s="58">
+        <v>2670122</v>
+      </c>
+      <c r="O29" s="61">
+        <v>2670122</v>
+      </c>
+      <c r="P29" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="R29" t="s">
+        <v>49</v>
+      </c>
       <c r="U29" s="1"/>
-      <c r="V29" s="51" t="s">
+      <c r="V29" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W29" s="20" t="s">
@@ -5032,14 +6540,14 @@
       <c r="X29" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y29" s="51" t="s">
-        <v>159</v>
+      <c r="Y29" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z29" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA29" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>49</v>
@@ -5047,8 +6555,28 @@
       <c r="AG29" s="19"/>
       <c r="AH29" s="4"/>
       <c r="AI29" s="17"/>
-      <c r="AJ29" s="15"/>
+      <c r="AJ29" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM29" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO29" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ29" t="s">
         <v>49</v>
       </c>
       <c r="AR29" t="s">
@@ -5065,6 +6593,15 @@
       </c>
       <c r="AV29" t="s">
         <v>11</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY29">
+        <v>111</v>
+      </c>
+      <c r="AZ29">
+        <v>111</v>
       </c>
       <c r="BG29" s="29"/>
       <c r="BH29" s="30"/>
@@ -5083,45 +6620,56 @@
     </row>
     <row r="30" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
-        <f>COUNTIF(C30,"&lt;&gt;"&amp;"")+COUNTIF(BL30,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B30" s="27">
         <v>28</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>209</v>
+      <c r="C30" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="L30" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="M30" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="23"/>
+      <c r="L30" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="N30" s="58">
+        <v>2666598</v>
+      </c>
+      <c r="O30" s="61">
+        <v>2666598</v>
+      </c>
+      <c r="P30" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="R30" t="s">
+        <v>49</v>
+      </c>
       <c r="U30" s="1"/>
-      <c r="V30" s="51" t="s">
+      <c r="V30" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W30" s="20" t="s">
@@ -5130,14 +6678,14 @@
       <c r="X30" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y30" s="51" t="s">
-        <v>159</v>
+      <c r="Y30" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA30" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>49</v>
@@ -5145,8 +6693,28 @@
       <c r="AG30" s="19"/>
       <c r="AH30" s="4"/>
       <c r="AI30" s="17"/>
-      <c r="AJ30" s="15"/>
+      <c r="AJ30" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM30" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN30" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO30" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ30" t="s">
         <v>49</v>
       </c>
       <c r="AR30" t="s">
@@ -5163,6 +6731,15 @@
       </c>
       <c r="AV30" t="s">
         <v>11</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY30">
+        <v>111</v>
+      </c>
+      <c r="AZ30">
+        <v>111</v>
       </c>
       <c r="BG30" s="29"/>
       <c r="BH30" s="30"/>
@@ -5181,45 +6758,56 @@
     </row>
     <row r="31" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
-        <f>COUNTIF(C31,"&lt;&gt;"&amp;"")+COUNTIF(BL31,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B31" s="27">
         <v>29</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>210</v>
+      <c r="C31" s="34" t="s">
+        <v>207</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="J31" s="41" t="s">
+      <c r="J31" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="L31" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="M31" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="23"/>
+      <c r="L31" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="N31" s="58">
+        <v>1678404</v>
+      </c>
+      <c r="O31" s="61">
+        <v>1678404</v>
+      </c>
+      <c r="P31" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="R31" t="s">
+        <v>49</v>
+      </c>
       <c r="U31" s="1"/>
-      <c r="V31" s="51" t="s">
+      <c r="V31" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W31" s="20" t="s">
@@ -5228,14 +6816,14 @@
       <c r="X31" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y31" s="51" t="s">
-        <v>159</v>
+      <c r="Y31" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z31" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA31" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>49</v>
@@ -5243,8 +6831,28 @@
       <c r="AG31" s="19"/>
       <c r="AH31" s="4"/>
       <c r="AI31" s="17"/>
-      <c r="AJ31" s="15"/>
+      <c r="AJ31" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM31" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO31" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ31" t="s">
         <v>49</v>
       </c>
       <c r="AR31" t="s">
@@ -5261,6 +6869,15 @@
       </c>
       <c r="AV31" t="s">
         <v>11</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY31">
+        <v>111</v>
+      </c>
+      <c r="AZ31">
+        <v>111</v>
       </c>
       <c r="BG31" s="29"/>
       <c r="BH31" s="30"/>
@@ -5279,45 +6896,56 @@
     </row>
     <row r="32" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
-        <f>COUNTIF(C32,"&lt;&gt;"&amp;"")+COUNTIF(BL32,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B32" s="27">
         <v>30</v>
       </c>
-      <c r="C32" s="35" t="s">
-        <v>211</v>
+      <c r="C32" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="J32" s="41" t="s">
+      <c r="J32" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="L32" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="M32" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="23"/>
+      <c r="L32" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="N32" s="58">
+        <v>1640506</v>
+      </c>
+      <c r="O32" s="61">
+        <v>1640506</v>
+      </c>
+      <c r="P32" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="R32" t="s">
+        <v>49</v>
+      </c>
       <c r="U32" s="1"/>
-      <c r="V32" s="51" t="s">
+      <c r="V32" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W32" s="20" t="s">
@@ -5326,14 +6954,14 @@
       <c r="X32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y32" s="51" t="s">
-        <v>159</v>
+      <c r="Y32" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z32" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA32" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>49</v>
@@ -5341,8 +6969,28 @@
       <c r="AG32" s="19"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="17"/>
-      <c r="AJ32" s="15"/>
+      <c r="AJ32" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM32" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO32" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ32" t="s">
         <v>49</v>
       </c>
       <c r="AR32" t="s">
@@ -5359,6 +7007,15 @@
       </c>
       <c r="AV32" t="s">
         <v>11</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY32">
+        <v>111</v>
+      </c>
+      <c r="AZ32">
+        <v>111</v>
       </c>
       <c r="BG32" s="29"/>
       <c r="BH32" s="30"/>
@@ -5377,45 +7034,56 @@
     </row>
     <row r="33" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
-        <f>COUNTIF(C33,"&lt;&gt;"&amp;"")+COUNTIF(BL33,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B33" s="27">
         <v>31</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>212</v>
+      <c r="C33" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="L33" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="M33" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="23"/>
+      <c r="L33" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="N33" s="58">
+        <v>1702829</v>
+      </c>
+      <c r="O33" s="61">
+        <v>1702829</v>
+      </c>
+      <c r="P33" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="R33" t="s">
+        <v>49</v>
+      </c>
       <c r="U33" s="1"/>
-      <c r="V33" s="51" t="s">
+      <c r="V33" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W33" s="20" t="s">
@@ -5424,14 +7092,14 @@
       <c r="X33" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y33" s="51" t="s">
-        <v>159</v>
+      <c r="Y33" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z33" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA33" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>49</v>
@@ -5439,11 +7107,30 @@
       <c r="AG33" s="19"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="17"/>
-      <c r="AJ33" s="15"/>
+      <c r="AJ33" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK33" t="s">
         <v>49</v>
       </c>
-      <c r="AL33" s="30"/>
+      <c r="AL33" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM33" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO33" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>49</v>
+      </c>
       <c r="AR33" t="s">
         <v>8</v>
       </c>
@@ -5458,6 +7145,15 @@
       </c>
       <c r="AV33" t="s">
         <v>11</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY33">
+        <v>111</v>
+      </c>
+      <c r="AZ33">
+        <v>111</v>
       </c>
       <c r="BG33" s="29"/>
       <c r="BH33" s="30"/>
@@ -5476,45 +7172,56 @@
     </row>
     <row r="34" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
-        <f>COUNTIF(C34,"&lt;&gt;"&amp;"")+COUNTIF(BL34,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B34" s="27">
         <v>32</v>
       </c>
-      <c r="C34" s="35" t="s">
-        <v>213</v>
+      <c r="C34" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="41" t="s">
+      <c r="I34" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="41" t="s">
+      <c r="J34" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="L34" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="M34" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="23"/>
+      <c r="L34" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="N34" s="58">
+        <v>1699601</v>
+      </c>
+      <c r="O34" s="61">
+        <v>1699601</v>
+      </c>
+      <c r="P34" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q34" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="R34" t="s">
+        <v>49</v>
+      </c>
       <c r="U34" s="1"/>
-      <c r="V34" s="51" t="s">
+      <c r="V34" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W34" s="20" t="s">
@@ -5523,14 +7230,14 @@
       <c r="X34" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y34" s="51" t="s">
-        <v>159</v>
+      <c r="Y34" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z34" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA34" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>49</v>
@@ -5538,11 +7245,30 @@
       <c r="AG34" s="19"/>
       <c r="AH34" s="4"/>
       <c r="AI34" s="17"/>
-      <c r="AJ34" s="15"/>
+      <c r="AJ34" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK34" t="s">
         <v>49</v>
       </c>
-      <c r="AL34" s="30"/>
+      <c r="AL34" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM34" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN34" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO34" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>49</v>
+      </c>
       <c r="AR34" t="s">
         <v>8</v>
       </c>
@@ -5557,6 +7283,15 @@
       </c>
       <c r="AV34" t="s">
         <v>11</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY34">
+        <v>111</v>
+      </c>
+      <c r="AZ34">
+        <v>111</v>
       </c>
       <c r="BG34" s="29"/>
       <c r="BH34" s="30"/>
@@ -5575,45 +7310,56 @@
     </row>
     <row r="35" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
-        <f>COUNTIF(C35,"&lt;&gt;"&amp;"")+COUNTIF(BL35,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B35" s="27">
         <v>33</v>
       </c>
-      <c r="C35" s="35" t="s">
-        <v>214</v>
+      <c r="C35" s="34" t="s">
+        <v>211</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="41" t="s">
+      <c r="I35" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="J35" s="41" t="s">
+      <c r="J35" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="L35" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="M35" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="23"/>
+      <c r="L35" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="N35" s="58">
+        <v>1677838</v>
+      </c>
+      <c r="O35" s="61">
+        <v>1677838</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="R35" t="s">
+        <v>49</v>
+      </c>
       <c r="U35" s="1"/>
-      <c r="V35" s="51" t="s">
+      <c r="V35" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W35" s="20" t="s">
@@ -5622,14 +7368,14 @@
       <c r="X35" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y35" s="51" t="s">
-        <v>159</v>
+      <c r="Y35" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z35" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA35" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>49</v>
@@ -5637,8 +7383,28 @@
       <c r="AG35" s="19"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="17"/>
-      <c r="AJ35" s="15"/>
+      <c r="AJ35" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM35" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN35" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO35" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ35" t="s">
         <v>49</v>
       </c>
       <c r="AR35" t="s">
@@ -5655,6 +7421,15 @@
       </c>
       <c r="AV35" t="s">
         <v>11</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY35">
+        <v>111</v>
+      </c>
+      <c r="AZ35">
+        <v>111</v>
       </c>
       <c r="BG35" s="29"/>
       <c r="BH35" s="30"/>
@@ -5673,45 +7448,56 @@
     </row>
     <row r="36" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
-        <f>COUNTIF(C36,"&lt;&gt;"&amp;"")+COUNTIF(BL36,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B36" s="27">
         <v>34</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>215</v>
+      <c r="C36" s="34" t="s">
+        <v>212</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="41" t="s">
+      <c r="I36" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="J36" s="41" t="s">
+      <c r="J36" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="L36" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="M36" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="23"/>
+      <c r="L36" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="N36" s="58">
+        <v>1637501</v>
+      </c>
+      <c r="O36" s="61">
+        <v>1637501</v>
+      </c>
+      <c r="P36" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="R36" t="s">
+        <v>49</v>
+      </c>
       <c r="U36" s="1"/>
-      <c r="V36" s="51" t="s">
+      <c r="V36" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W36" s="20" t="s">
@@ -5720,14 +7506,14 @@
       <c r="X36" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y36" s="51" t="s">
-        <v>159</v>
+      <c r="Y36" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z36" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA36" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>49</v>
@@ -5735,8 +7521,28 @@
       <c r="AG36" s="19"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="15"/>
+      <c r="AJ36" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AK36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM36" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO36" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ36" t="s">
         <v>49</v>
       </c>
       <c r="AR36" t="s">
@@ -5753,6 +7559,15 @@
       </c>
       <c r="AV36" t="s">
         <v>11</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY36">
+        <v>111</v>
+      </c>
+      <c r="AZ36">
+        <v>111</v>
       </c>
       <c r="BG36" s="29"/>
       <c r="BH36" s="30"/>
@@ -5771,43 +7586,58 @@
     </row>
     <row r="37" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
-        <f>COUNTIF(C37,"&lt;&gt;"&amp;"")+COUNTIF(BL37,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B37" s="27">
         <v>35</v>
       </c>
-      <c r="C37" s="35" t="s">
-        <v>216</v>
+      <c r="C37" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="I37" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="J37" s="41" t="s">
+      <c r="J37" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="L37" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="M37" s="41" t="s">
-        <v>179</v>
+      <c r="L37" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="N37" s="59">
+        <v>1699067</v>
+      </c>
+      <c r="O37" s="62">
+        <v>1699067</v>
+      </c>
+      <c r="P37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>288</v>
+      </c>
+      <c r="R37" t="s">
+        <v>49</v>
       </c>
       <c r="S37"/>
       <c r="T37"/>
-      <c r="V37" s="51" t="s">
+      <c r="V37" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W37" s="20" t="s">
@@ -5816,14 +7646,14 @@
       <c r="X37" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y37" s="51" t="s">
-        <v>159</v>
+      <c r="Y37" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z37" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA37" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB37" s="1" t="s">
         <v>49</v>
@@ -5832,6 +7662,7 @@
       <c r="AF37"/>
       <c r="AG37"/>
       <c r="AI37"/>
+      <c r="AJ37" s="15"/>
       <c r="AN37"/>
       <c r="AP37"/>
       <c r="BH37"/>
@@ -5850,43 +7681,58 @@
     </row>
     <row r="38" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
-        <f>COUNTIF(C38,"&lt;&gt;"&amp;"")+COUNTIF(BL38,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B38" s="27">
         <v>36</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>217</v>
+      <c r="C38" s="34" t="s">
+        <v>214</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="41" t="s">
+      <c r="I38" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="J38" s="41" t="s">
+      <c r="J38" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="L38" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="M38" s="41" t="s">
-        <v>179</v>
+      <c r="L38" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="N38" s="59">
+        <v>1691153</v>
+      </c>
+      <c r="O38" s="62">
+        <v>1691153</v>
+      </c>
+      <c r="P38" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>289</v>
+      </c>
+      <c r="R38" t="s">
+        <v>49</v>
       </c>
       <c r="S38"/>
       <c r="T38"/>
-      <c r="V38" s="51" t="s">
+      <c r="V38" s="49" t="s">
         <v>154</v>
       </c>
       <c r="W38" s="20" t="s">
@@ -5895,14 +7741,14 @@
       <c r="X38" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y38" s="51" t="s">
-        <v>159</v>
+      <c r="Y38" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AA38" s="24" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>49</v>
@@ -5911,6 +7757,7 @@
       <c r="AF38"/>
       <c r="AG38"/>
       <c r="AI38"/>
+      <c r="AJ38" s="15"/>
       <c r="AN38"/>
       <c r="AP38"/>
       <c r="BH38"/>
@@ -5930,8 +7777,8 @@
     <row r="39" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="D39"/>
-      <c r="E39" s="38"/>
-      <c r="G39" s="41"/>
+      <c r="E39" s="36"/>
+      <c r="G39" s="39"/>
       <c r="S39"/>
       <c r="T39"/>
       <c r="V39" s="2"/>
@@ -5944,6 +7791,7 @@
       <c r="AF39"/>
       <c r="AG39"/>
       <c r="AI39"/>
+      <c r="AJ39" s="15"/>
       <c r="AN39"/>
       <c r="AP39"/>
       <c r="BH39"/>
@@ -5963,8 +7811,8 @@
     <row r="40" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="D40"/>
-      <c r="E40" s="38"/>
-      <c r="G40" s="41"/>
+      <c r="E40" s="36"/>
+      <c r="G40" s="39"/>
       <c r="S40"/>
       <c r="T40"/>
       <c r="V40" s="2"/>
@@ -5977,6 +7825,7 @@
       <c r="AF40"/>
       <c r="AG40"/>
       <c r="AI40"/>
+      <c r="AJ40" s="15"/>
       <c r="AN40"/>
       <c r="AP40"/>
       <c r="BH40"/>
@@ -5993,21 +7842,98 @@
       <c r="BW40"/>
       <c r="BX40"/>
     </row>
+    <row r="41" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="AJ41" s="15"/>
+    </row>
+    <row r="42" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="AJ42" s="15"/>
+    </row>
+    <row r="43" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="AJ43" s="15"/>
+    </row>
+    <row r="44" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="AJ44" s="15"/>
+    </row>
+    <row r="45" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="AJ45" s="15"/>
+    </row>
+    <row r="46" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="AJ46" s="15"/>
+    </row>
+    <row r="47" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="AJ47" s="15"/>
+    </row>
+    <row r="48" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="AJ48" s="15"/>
+    </row>
+    <row r="49" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ49" s="15"/>
+    </row>
+    <row r="50" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ50" s="15"/>
+    </row>
+    <row r="51" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ51" s="15"/>
+    </row>
+    <row r="52" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ52" s="15"/>
+    </row>
+    <row r="53" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ53" s="15"/>
+    </row>
+    <row r="54" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ54" s="15"/>
+    </row>
+    <row r="55" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ55" s="15"/>
+    </row>
+    <row r="56" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ56" s="15"/>
+    </row>
+    <row r="57" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ57" s="15"/>
+    </row>
+    <row r="58" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ58" s="15"/>
+    </row>
+    <row r="59" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ59" s="15"/>
+    </row>
+    <row r="60" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ60" s="15"/>
+    </row>
+    <row r="61" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ61" s="15"/>
+    </row>
+    <row r="62" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ62" s="15"/>
+    </row>
+    <row r="63" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ63" s="15"/>
+    </row>
+    <row r="64" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ64" s="15"/>
+    </row>
+    <row r="65" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ65" s="15"/>
+    </row>
+    <row r="66" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ66" s="15"/>
+    </row>
+    <row r="67" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ67" s="15"/>
+    </row>
+    <row r="68" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ68" s="15"/>
+    </row>
+    <row r="69" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ69" s="15"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -6025,14 +7951,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -6043,15 +7979,15 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="AI3:AI36">
-    <cfRule type="containsBlanks" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="9" stopIfTrue="1">
       <formula>LEN(TRIM(AI3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A1048576 A3:A38">
-    <cfRule type="iconSet" priority="4">
+    <cfRule type="iconSet" priority="8">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="1"/>
@@ -6060,8 +7996,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O36">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>2000</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$N3&lt;&gt;$O3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O36 N41:O1048576">

--- a/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
+++ b/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="3020" windowWidth="50060" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="4620" windowWidth="50060" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_exp1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="296">
   <si>
     <t>Country</t>
   </si>
@@ -999,13 +999,13 @@
     <t>967F</t>
   </si>
   <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTTCCCTACACGACGCTCTTCCGATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGATGTGACTGGAGTTCAGACGTGTGCTCTTCCGATCTCGACRRCCATGCA</t>
-  </si>
-  <si>
     <t>Short V6 primers</t>
+  </si>
+  <si>
+    <t>NNNNGAGACCTAACCGANGAACCTYACC</t>
+  </si>
+  <si>
+    <t>CNACGCGAAGAACCTTANC</t>
   </si>
 </sst>
 </file>
@@ -1620,9 +1620,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1641,6 +1638,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1928,7 +1928,7 @@
     <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="5">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1957,208 +1957,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2521,10 +2319,10 @@
   </sheetPr>
   <dimension ref="A1:BY69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="AP44" sqref="AP44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2542,8 +2340,8 @@
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" style="39" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="59" customWidth="1"/>
-    <col min="15" max="15" width="14" style="62" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="58" customWidth="1"/>
+    <col min="15" max="15" width="14" style="61" customWidth="1"/>
     <col min="16" max="17" width="16.83203125" customWidth="1"/>
     <col min="18" max="18" width="11.5" customWidth="1"/>
     <col min="19" max="19" width="44.33203125" style="20" customWidth="1"/>
@@ -2566,9 +2364,9 @@
     <col min="36" max="36" width="10.33203125" customWidth="1"/>
     <col min="37" max="37" width="11.5" customWidth="1"/>
     <col min="38" max="38" width="19.6640625" customWidth="1"/>
-    <col min="39" max="39" width="12.83203125" style="63" customWidth="1"/>
+    <col min="39" max="39" width="12.83203125" style="62" customWidth="1"/>
     <col min="40" max="40" width="32.83203125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13" style="63" customWidth="1"/>
+    <col min="41" max="41" width="13" style="62" customWidth="1"/>
     <col min="42" max="42" width="35.6640625" style="1" customWidth="1"/>
     <col min="43" max="43" width="10.1640625" customWidth="1"/>
     <col min="44" max="44" width="12.5" customWidth="1"/>
@@ -2619,8 +2417,8 @@
       <c r="J1" s="38"/>
       <c r="L1" s="37"/>
       <c r="M1" s="38"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="60"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="8"/>
       <c r="S1" s="21"/>
@@ -2654,24 +2452,24 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="12"/>
-      <c r="BB1" s="55" t="s">
+      <c r="BB1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BG1" s="55" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BG1" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="55"/>
-      <c r="BN1" s="55" t="s">
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BN1" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="BO1" s="55"/>
+      <c r="BO1" s="63"/>
       <c r="BQ1" s="10" t="s">
         <v>157</v>
       </c>
@@ -2719,10 +2517,10 @@
       <c r="M2" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="56" t="s">
         <v>58</v>
       </c>
       <c r="P2" s="41" t="s">
@@ -2927,10 +2725,10 @@
       <c r="M3" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="57">
         <v>1541441</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="60">
         <v>1541441</v>
       </c>
       <c r="P3" s="31" t="s">
@@ -2974,19 +2772,19 @@
         <v>49</v>
       </c>
       <c r="AL3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM3" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO3" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM3" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO3" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ3" t="s">
         <v>49</v>
@@ -3065,10 +2863,10 @@
       <c r="M4" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="N4" s="58">
+      <c r="N4" s="57">
         <v>1513804</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="60">
         <v>1513804</v>
       </c>
       <c r="P4" s="31" t="s">
@@ -3112,19 +2910,19 @@
         <v>49</v>
       </c>
       <c r="AL4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM4" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO4" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM4" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO4" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ4" t="s">
         <v>49</v>
@@ -3203,10 +3001,10 @@
       <c r="M5" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="N5" s="58">
+      <c r="N5" s="57">
         <v>1563302</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="60">
         <v>1563302</v>
       </c>
       <c r="P5" s="31" t="s">
@@ -3250,19 +3048,19 @@
         <v>49</v>
       </c>
       <c r="AL5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM5" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO5" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP5" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM5" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO5" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ5" t="s">
         <v>49</v>
@@ -3341,10 +3139,10 @@
       <c r="M6" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="N6" s="58">
+      <c r="N6" s="57">
         <v>1565845</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="60">
         <v>1565845</v>
       </c>
       <c r="P6" s="32" t="s">
@@ -3388,19 +3186,19 @@
         <v>49</v>
       </c>
       <c r="AL6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM6" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO6" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM6" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO6" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ6" t="s">
         <v>49</v>
@@ -3479,10 +3277,10 @@
       <c r="M7" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="57">
         <v>677372</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="60">
         <v>677372</v>
       </c>
       <c r="P7" s="31" t="s">
@@ -3526,19 +3324,19 @@
         <v>49</v>
       </c>
       <c r="AL7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM7" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO7" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM7" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO7" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ7" t="s">
         <v>49</v>
@@ -3617,10 +3415,10 @@
       <c r="M8" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="N8" s="58">
+      <c r="N8" s="57">
         <v>663201</v>
       </c>
-      <c r="O8" s="61">
+      <c r="O8" s="60">
         <v>663201</v>
       </c>
       <c r="P8" s="31" t="s">
@@ -3664,19 +3462,19 @@
         <v>49</v>
       </c>
       <c r="AL8" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM8" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO8" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP8" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM8" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO8" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ8" t="s">
         <v>49</v>
@@ -3755,10 +3553,10 @@
       <c r="M9" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N9" s="57">
         <v>686948</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="60">
         <v>686948</v>
       </c>
       <c r="P9" s="31" t="s">
@@ -3802,19 +3600,19 @@
         <v>49</v>
       </c>
       <c r="AL9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM9" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO9" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP9" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM9" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO9" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ9" t="s">
         <v>49</v>
@@ -3893,10 +3691,10 @@
       <c r="M10" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="N10" s="58">
+      <c r="N10" s="57">
         <v>686723</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10" s="60">
         <v>686723</v>
       </c>
       <c r="P10" s="31" t="s">
@@ -3940,19 +3738,19 @@
         <v>49</v>
       </c>
       <c r="AL10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM10" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO10" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP10" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM10" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO10" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ10" t="s">
         <v>49</v>
@@ -4031,10 +3829,10 @@
       <c r="M11" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="57">
         <v>1539394</v>
       </c>
-      <c r="O11" s="61">
+      <c r="O11" s="60">
         <v>1539394</v>
       </c>
       <c r="P11" s="31" t="s">
@@ -4078,19 +3876,19 @@
         <v>49</v>
       </c>
       <c r="AL11" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM11" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO11" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP11" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM11" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO11" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ11" t="s">
         <v>49</v>
@@ -4169,10 +3967,10 @@
       <c r="M12" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="N12" s="58">
+      <c r="N12" s="57">
         <v>1510757</v>
       </c>
-      <c r="O12" s="61">
+      <c r="O12" s="60">
         <v>1510757</v>
       </c>
       <c r="P12" s="31" t="s">
@@ -4216,19 +4014,19 @@
         <v>49</v>
       </c>
       <c r="AL12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM12" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO12" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP12" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM12" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO12" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ12" t="s">
         <v>49</v>
@@ -4307,10 +4105,10 @@
       <c r="M13" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="N13" s="58">
+      <c r="N13" s="57">
         <v>1562525</v>
       </c>
-      <c r="O13" s="61">
+      <c r="O13" s="60">
         <v>1562525</v>
       </c>
       <c r="P13" s="31" t="s">
@@ -4354,19 +4152,19 @@
         <v>49</v>
       </c>
       <c r="AL13" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM13" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO13" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP13" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM13" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO13" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ13" t="s">
         <v>49</v>
@@ -4445,10 +4243,10 @@
       <c r="M14" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="N14" s="58">
+      <c r="N14" s="57">
         <v>1560693</v>
       </c>
-      <c r="O14" s="61">
+      <c r="O14" s="60">
         <v>1560693</v>
       </c>
       <c r="P14" s="31" t="s">
@@ -4492,19 +4290,19 @@
         <v>49</v>
       </c>
       <c r="AL14" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM14" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO14" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM14" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO14" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ14" t="s">
         <v>49</v>
@@ -4583,10 +4381,10 @@
       <c r="M15" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="57">
         <v>1033095</v>
       </c>
-      <c r="O15" s="61">
+      <c r="O15" s="60">
         <v>1033095</v>
       </c>
       <c r="P15" s="31" t="s">
@@ -4630,19 +4428,19 @@
         <v>49</v>
       </c>
       <c r="AL15" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM15" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO15" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP15" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM15" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO15" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ15" t="s">
         <v>49</v>
@@ -4721,10 +4519,10 @@
       <c r="M16" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="N16" s="58">
+      <c r="N16" s="57">
         <v>1012051</v>
       </c>
-      <c r="O16" s="61">
+      <c r="O16" s="60">
         <v>1012051</v>
       </c>
       <c r="P16" s="31" t="s">
@@ -4768,19 +4566,19 @@
         <v>49</v>
       </c>
       <c r="AL16" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM16" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO16" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP16" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM16" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO16" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ16" t="s">
         <v>49</v>
@@ -4859,10 +4657,10 @@
       <c r="M17" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="N17" s="58">
+      <c r="N17" s="57">
         <v>1045841</v>
       </c>
-      <c r="O17" s="61">
+      <c r="O17" s="60">
         <v>1045841</v>
       </c>
       <c r="P17" s="32" t="s">
@@ -4906,19 +4704,19 @@
         <v>49</v>
       </c>
       <c r="AL17" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM17" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO17" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP17" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM17" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO17" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ17" t="s">
         <v>49</v>
@@ -4997,10 +4795,10 @@
       <c r="M18" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="57">
         <v>1045591</v>
       </c>
-      <c r="O18" s="61">
+      <c r="O18" s="60">
         <v>1045591</v>
       </c>
       <c r="P18" s="31" t="s">
@@ -5044,19 +4842,19 @@
         <v>49</v>
       </c>
       <c r="AL18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM18" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO18" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP18" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM18" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO18" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ18" t="s">
         <v>49</v>
@@ -5135,10 +4933,10 @@
       <c r="M19" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="57">
         <v>911612</v>
       </c>
-      <c r="O19" s="61">
+      <c r="O19" s="60">
         <v>911612</v>
       </c>
       <c r="P19" s="31" t="s">
@@ -5182,19 +4980,19 @@
         <v>49</v>
       </c>
       <c r="AL19" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM19" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO19" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP19" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM19" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO19" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ19" t="s">
         <v>49</v>
@@ -5273,10 +5071,10 @@
       <c r="M20" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="N20" s="58">
+      <c r="N20" s="57">
         <v>890088</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="60">
         <v>890088</v>
       </c>
       <c r="P20" s="31" t="s">
@@ -5320,19 +5118,19 @@
         <v>49</v>
       </c>
       <c r="AL20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM20" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO20" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP20" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM20" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO20" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ20" t="s">
         <v>49</v>
@@ -5411,10 +5209,10 @@
       <c r="M21" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="57">
         <v>922452</v>
       </c>
-      <c r="O21" s="61">
+      <c r="O21" s="60">
         <v>922452</v>
       </c>
       <c r="P21" s="31" t="s">
@@ -5458,19 +5256,19 @@
         <v>49</v>
       </c>
       <c r="AL21" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM21" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO21" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP21" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM21" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN21" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO21" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP21" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ21" t="s">
         <v>49</v>
@@ -5549,10 +5347,10 @@
       <c r="M22" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="N22" s="58">
+      <c r="N22" s="57">
         <v>920466</v>
       </c>
-      <c r="O22" s="61">
+      <c r="O22" s="60">
         <v>920466</v>
       </c>
       <c r="P22" s="31" t="s">
@@ -5596,19 +5394,19 @@
         <v>49</v>
       </c>
       <c r="AL22" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM22" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO22" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP22" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM22" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO22" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP22" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ22" t="s">
         <v>49</v>
@@ -5687,10 +5485,10 @@
       <c r="M23" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="57">
         <v>3067661</v>
       </c>
-      <c r="O23" s="61">
+      <c r="O23" s="60">
         <v>3067661</v>
       </c>
       <c r="P23" s="31" t="s">
@@ -5734,19 +5532,19 @@
         <v>49</v>
       </c>
       <c r="AL23" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM23" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO23" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP23" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM23" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO23" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ23" t="s">
         <v>49</v>
@@ -5825,10 +5623,10 @@
       <c r="M24" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="N24" s="58">
+      <c r="N24" s="57">
         <v>3009815</v>
       </c>
-      <c r="O24" s="61">
+      <c r="O24" s="60">
         <v>3009815</v>
       </c>
       <c r="P24" s="31" t="s">
@@ -5872,19 +5670,19 @@
         <v>49</v>
       </c>
       <c r="AL24" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM24" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO24" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP24" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM24" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN24" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO24" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP24" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ24" t="s">
         <v>49</v>
@@ -5963,10 +5761,10 @@
       <c r="M25" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="N25" s="58">
+      <c r="N25" s="57">
         <v>3108035</v>
       </c>
-      <c r="O25" s="61">
+      <c r="O25" s="60">
         <v>3108035</v>
       </c>
       <c r="P25" s="31" t="s">
@@ -6010,19 +5808,19 @@
         <v>49</v>
       </c>
       <c r="AL25" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM25" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO25" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP25" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM25" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO25" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP25" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ25" t="s">
         <v>49</v>
@@ -6101,10 +5899,10 @@
       <c r="M26" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="N26" s="58">
+      <c r="N26" s="57">
         <v>3114749</v>
       </c>
-      <c r="O26" s="61">
+      <c r="O26" s="60">
         <v>3114749</v>
       </c>
       <c r="P26" s="31" t="s">
@@ -6148,19 +5946,19 @@
         <v>49</v>
       </c>
       <c r="AL26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM26" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO26" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP26" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM26" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN26" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO26" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP26" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ26" t="s">
         <v>49</v>
@@ -6239,10 +6037,10 @@
       <c r="M27" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="N27" s="58">
+      <c r="N27" s="57">
         <v>2634261</v>
       </c>
-      <c r="O27" s="61">
+      <c r="O27" s="60">
         <v>2634261</v>
       </c>
       <c r="P27" s="31" t="s">
@@ -6286,19 +6084,19 @@
         <v>49</v>
       </c>
       <c r="AL27" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM27" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO27" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP27" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM27" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN27" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO27" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP27" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ27" t="s">
         <v>49</v>
@@ -6377,10 +6175,10 @@
       <c r="M28" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="N28" s="58">
+      <c r="N28" s="57">
         <v>2572925</v>
       </c>
-      <c r="O28" s="61">
+      <c r="O28" s="60">
         <v>2572925</v>
       </c>
       <c r="P28" s="31" t="s">
@@ -6424,19 +6222,19 @@
         <v>49</v>
       </c>
       <c r="AL28" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM28" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO28" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP28" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM28" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN28" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO28" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP28" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ28" t="s">
         <v>49</v>
@@ -6515,10 +6313,10 @@
       <c r="M29" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="N29" s="58">
+      <c r="N29" s="57">
         <v>2670122</v>
       </c>
-      <c r="O29" s="61">
+      <c r="O29" s="60">
         <v>2670122</v>
       </c>
       <c r="P29" s="31" t="s">
@@ -6562,19 +6360,19 @@
         <v>49</v>
       </c>
       <c r="AL29" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM29" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO29" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP29" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM29" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN29" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO29" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP29" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ29" t="s">
         <v>49</v>
@@ -6653,10 +6451,10 @@
       <c r="M30" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="N30" s="58">
+      <c r="N30" s="57">
         <v>2666598</v>
       </c>
-      <c r="O30" s="61">
+      <c r="O30" s="60">
         <v>2666598</v>
       </c>
       <c r="P30" s="31" t="s">
@@ -6700,19 +6498,19 @@
         <v>49</v>
       </c>
       <c r="AL30" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM30" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN30" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO30" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP30" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM30" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN30" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO30" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP30" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ30" t="s">
         <v>49</v>
@@ -6791,10 +6589,10 @@
       <c r="M31" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="N31" s="58">
+      <c r="N31" s="57">
         <v>1678404</v>
       </c>
-      <c r="O31" s="61">
+      <c r="O31" s="60">
         <v>1678404</v>
       </c>
       <c r="P31" s="31" t="s">
@@ -6838,19 +6636,19 @@
         <v>49</v>
       </c>
       <c r="AL31" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM31" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO31" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP31" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM31" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN31" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO31" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ31" t="s">
         <v>49</v>
@@ -6929,10 +6727,10 @@
       <c r="M32" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="N32" s="58">
+      <c r="N32" s="57">
         <v>1640506</v>
       </c>
-      <c r="O32" s="61">
+      <c r="O32" s="60">
         <v>1640506</v>
       </c>
       <c r="P32" s="31" t="s">
@@ -6976,19 +6774,19 @@
         <v>49</v>
       </c>
       <c r="AL32" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM32" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO32" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP32" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM32" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN32" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO32" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP32" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ32" t="s">
         <v>49</v>
@@ -7067,10 +6865,10 @@
       <c r="M33" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="N33" s="58">
+      <c r="N33" s="57">
         <v>1702829</v>
       </c>
-      <c r="O33" s="61">
+      <c r="O33" s="60">
         <v>1702829</v>
       </c>
       <c r="P33" s="32" t="s">
@@ -7114,19 +6912,19 @@
         <v>49</v>
       </c>
       <c r="AL33" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM33" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO33" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP33" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM33" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN33" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO33" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP33" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ33" t="s">
         <v>49</v>
@@ -7205,10 +7003,10 @@
       <c r="M34" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="N34" s="58">
+      <c r="N34" s="57">
         <v>1699601</v>
       </c>
-      <c r="O34" s="61">
+      <c r="O34" s="60">
         <v>1699601</v>
       </c>
       <c r="P34" s="31" t="s">
@@ -7252,19 +7050,19 @@
         <v>49</v>
       </c>
       <c r="AL34" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM34" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN34" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO34" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP34" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM34" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN34" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO34" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP34" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ34" t="s">
         <v>49</v>
@@ -7343,10 +7141,10 @@
       <c r="M35" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="N35" s="58">
+      <c r="N35" s="57">
         <v>1677838</v>
       </c>
-      <c r="O35" s="61">
+      <c r="O35" s="60">
         <v>1677838</v>
       </c>
       <c r="P35" s="31" t="s">
@@ -7390,19 +7188,19 @@
         <v>49</v>
       </c>
       <c r="AL35" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM35" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN35" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO35" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP35" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM35" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN35" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO35" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP35" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ35" t="s">
         <v>49</v>
@@ -7481,10 +7279,10 @@
       <c r="M36" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="N36" s="58">
+      <c r="N36" s="57">
         <v>1637501</v>
       </c>
-      <c r="O36" s="61">
+      <c r="O36" s="60">
         <v>1637501</v>
       </c>
       <c r="P36" s="31" t="s">
@@ -7528,19 +7326,19 @@
         <v>49</v>
       </c>
       <c r="AL36" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM36" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO36" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP36" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AM36" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN36" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO36" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP36" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AQ36" t="s">
         <v>49</v>
@@ -7620,10 +7418,10 @@
       <c r="M37" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="N37" s="59">
+      <c r="N37" s="58">
         <v>1699067</v>
       </c>
-      <c r="O37" s="62">
+      <c r="O37" s="61">
         <v>1699067</v>
       </c>
       <c r="P37" t="s">
@@ -7662,9 +7460,54 @@
       <c r="AF37"/>
       <c r="AG37"/>
       <c r="AI37"/>
-      <c r="AJ37" s="15"/>
-      <c r="AN37"/>
-      <c r="AP37"/>
+      <c r="AJ37" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM37" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO37" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY37">
+        <v>111</v>
+      </c>
+      <c r="AZ37">
+        <v>111</v>
+      </c>
       <c r="BH37"/>
       <c r="BI37"/>
       <c r="BJ37"/>
@@ -7715,10 +7558,10 @@
       <c r="M38" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="N38" s="59">
+      <c r="N38" s="58">
         <v>1691153</v>
       </c>
-      <c r="O38" s="62">
+      <c r="O38" s="61">
         <v>1691153</v>
       </c>
       <c r="P38" t="s">
@@ -7757,9 +7600,54 @@
       <c r="AF38"/>
       <c r="AG38"/>
       <c r="AI38"/>
-      <c r="AJ38" s="15"/>
-      <c r="AN38"/>
-      <c r="AP38"/>
+      <c r="AJ38" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM38" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO38" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY38">
+        <v>111</v>
+      </c>
+      <c r="AZ38">
+        <v>111</v>
+      </c>
       <c r="BH38"/>
       <c r="BI38"/>
       <c r="BJ38"/>
@@ -7931,9 +7819,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7951,24 +7849,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
+++ b/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="4620" windowWidth="50060" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="4300" windowWidth="50060" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_exp1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="331">
   <si>
     <t>Country</t>
   </si>
@@ -999,13 +999,118 @@
     <t>967F</t>
   </si>
   <si>
-    <t>Short V6 primers</t>
-  </si>
-  <si>
-    <t>NNNNGAGACCTAACCGANGAACCTYACC</t>
-  </si>
-  <si>
-    <t>CNACGCGAAGAACCTTANC</t>
+    <t>CGACRRCCATGCANCACCT</t>
+  </si>
+  <si>
+    <t>MNAMSCGMNRAACCTYANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAMPS Illumina V6 </t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V7</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V8</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V9</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V10</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V11</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V12</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V13</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V14</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V15</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V16</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V17</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V18</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V19</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V20</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V21</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V22</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V23</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V24</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V25</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V26</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V27</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V28</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V29</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V30</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V31</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V32</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V33</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V34</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V35</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V36</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V37</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V38</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V39</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V40</t>
+  </si>
+  <si>
+    <t>VAMPS Illumina V41</t>
   </si>
 </sst>
 </file>
@@ -2319,10 +2424,10 @@
   </sheetPr>
   <dimension ref="A1:BY69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AP44" sqref="AP44"/>
+      <selection pane="bottomLeft" activeCell="AL41" sqref="AL41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2772,7 +2877,7 @@
         <v>49</v>
       </c>
       <c r="AL3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM3" s="62" t="s">
         <v>292</v>
@@ -2784,7 +2889,7 @@
         <v>291</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ3" t="s">
         <v>49</v>
@@ -2910,7 +3015,7 @@
         <v>49</v>
       </c>
       <c r="AL4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AM4" s="62" t="s">
         <v>292</v>
@@ -2922,7 +3027,7 @@
         <v>291</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ4" t="s">
         <v>49</v>
@@ -3048,7 +3153,7 @@
         <v>49</v>
       </c>
       <c r="AL5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AM5" s="62" t="s">
         <v>292</v>
@@ -3060,7 +3165,7 @@
         <v>291</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ5" t="s">
         <v>49</v>
@@ -3186,7 +3291,7 @@
         <v>49</v>
       </c>
       <c r="AL6" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AM6" s="62" t="s">
         <v>292</v>
@@ -3198,7 +3303,7 @@
         <v>291</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ6" t="s">
         <v>49</v>
@@ -3324,7 +3429,7 @@
         <v>49</v>
       </c>
       <c r="AL7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AM7" s="62" t="s">
         <v>292</v>
@@ -3336,7 +3441,7 @@
         <v>291</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ7" t="s">
         <v>49</v>
@@ -3462,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="AL8" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AM8" s="62" t="s">
         <v>292</v>
@@ -3474,7 +3579,7 @@
         <v>291</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ8" t="s">
         <v>49</v>
@@ -3600,7 +3705,7 @@
         <v>49</v>
       </c>
       <c r="AL9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AM9" s="62" t="s">
         <v>292</v>
@@ -3612,7 +3717,7 @@
         <v>291</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ9" t="s">
         <v>49</v>
@@ -3738,7 +3843,7 @@
         <v>49</v>
       </c>
       <c r="AL10" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AM10" s="62" t="s">
         <v>292</v>
@@ -3750,7 +3855,7 @@
         <v>291</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ10" t="s">
         <v>49</v>
@@ -3876,7 +3981,7 @@
         <v>49</v>
       </c>
       <c r="AL11" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="AM11" s="62" t="s">
         <v>292</v>
@@ -3888,7 +3993,7 @@
         <v>291</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ11" t="s">
         <v>49</v>
@@ -4014,7 +4119,7 @@
         <v>49</v>
       </c>
       <c r="AL12" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="AM12" s="62" t="s">
         <v>292</v>
@@ -4026,7 +4131,7 @@
         <v>291</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ12" t="s">
         <v>49</v>
@@ -4152,7 +4257,7 @@
         <v>49</v>
       </c>
       <c r="AL13" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AM13" s="62" t="s">
         <v>292</v>
@@ -4164,7 +4269,7 @@
         <v>291</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ13" t="s">
         <v>49</v>
@@ -4290,7 +4395,7 @@
         <v>49</v>
       </c>
       <c r="AL14" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="AM14" s="62" t="s">
         <v>292</v>
@@ -4302,7 +4407,7 @@
         <v>291</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ14" t="s">
         <v>49</v>
@@ -4428,7 +4533,7 @@
         <v>49</v>
       </c>
       <c r="AL15" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="AM15" s="62" t="s">
         <v>292</v>
@@ -4440,7 +4545,7 @@
         <v>291</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ15" t="s">
         <v>49</v>
@@ -4566,7 +4671,7 @@
         <v>49</v>
       </c>
       <c r="AL16" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="AM16" s="62" t="s">
         <v>292</v>
@@ -4578,7 +4683,7 @@
         <v>291</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ16" t="s">
         <v>49</v>
@@ -4704,7 +4809,7 @@
         <v>49</v>
       </c>
       <c r="AL17" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="AM17" s="62" t="s">
         <v>292</v>
@@ -4716,7 +4821,7 @@
         <v>291</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ17" t="s">
         <v>49</v>
@@ -4842,7 +4947,7 @@
         <v>49</v>
       </c>
       <c r="AL18" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="AM18" s="62" t="s">
         <v>292</v>
@@ -4854,7 +4959,7 @@
         <v>291</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ18" t="s">
         <v>49</v>
@@ -4980,7 +5085,7 @@
         <v>49</v>
       </c>
       <c r="AL19" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="AM19" s="62" t="s">
         <v>292</v>
@@ -4992,7 +5097,7 @@
         <v>291</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ19" t="s">
         <v>49</v>
@@ -5118,7 +5223,7 @@
         <v>49</v>
       </c>
       <c r="AL20" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="AM20" s="62" t="s">
         <v>292</v>
@@ -5130,7 +5235,7 @@
         <v>291</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ20" t="s">
         <v>49</v>
@@ -5256,7 +5361,7 @@
         <v>49</v>
       </c>
       <c r="AL21" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="AM21" s="62" t="s">
         <v>292</v>
@@ -5268,7 +5373,7 @@
         <v>291</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ21" t="s">
         <v>49</v>
@@ -5394,7 +5499,7 @@
         <v>49</v>
       </c>
       <c r="AL22" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="AM22" s="62" t="s">
         <v>292</v>
@@ -5406,7 +5511,7 @@
         <v>291</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ22" t="s">
         <v>49</v>
@@ -5532,7 +5637,7 @@
         <v>49</v>
       </c>
       <c r="AL23" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="AM23" s="62" t="s">
         <v>292</v>
@@ -5544,7 +5649,7 @@
         <v>291</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ23" t="s">
         <v>49</v>
@@ -5670,7 +5775,7 @@
         <v>49</v>
       </c>
       <c r="AL24" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="AM24" s="62" t="s">
         <v>292</v>
@@ -5682,7 +5787,7 @@
         <v>291</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ24" t="s">
         <v>49</v>
@@ -5808,7 +5913,7 @@
         <v>49</v>
       </c>
       <c r="AL25" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="AM25" s="62" t="s">
         <v>292</v>
@@ -5820,7 +5925,7 @@
         <v>291</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ25" t="s">
         <v>49</v>
@@ -5946,7 +6051,7 @@
         <v>49</v>
       </c>
       <c r="AL26" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="AM26" s="62" t="s">
         <v>292</v>
@@ -5958,7 +6063,7 @@
         <v>291</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ26" t="s">
         <v>49</v>
@@ -6084,7 +6189,7 @@
         <v>49</v>
       </c>
       <c r="AL27" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="AM27" s="62" t="s">
         <v>292</v>
@@ -6096,7 +6201,7 @@
         <v>291</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ27" t="s">
         <v>49</v>
@@ -6222,7 +6327,7 @@
         <v>49</v>
       </c>
       <c r="AL28" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="AM28" s="62" t="s">
         <v>292</v>
@@ -6234,7 +6339,7 @@
         <v>291</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ28" t="s">
         <v>49</v>
@@ -6360,7 +6465,7 @@
         <v>49</v>
       </c>
       <c r="AL29" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="AM29" s="62" t="s">
         <v>292</v>
@@ -6372,7 +6477,7 @@
         <v>291</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ29" t="s">
         <v>49</v>
@@ -6498,7 +6603,7 @@
         <v>49</v>
       </c>
       <c r="AL30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="AM30" s="62" t="s">
         <v>292</v>
@@ -6510,7 +6615,7 @@
         <v>291</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ30" t="s">
         <v>49</v>
@@ -6636,7 +6741,7 @@
         <v>49</v>
       </c>
       <c r="AL31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="AM31" s="62" t="s">
         <v>292</v>
@@ -6648,7 +6753,7 @@
         <v>291</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ31" t="s">
         <v>49</v>
@@ -6774,7 +6879,7 @@
         <v>49</v>
       </c>
       <c r="AL32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="AM32" s="62" t="s">
         <v>292</v>
@@ -6786,7 +6891,7 @@
         <v>291</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ32" t="s">
         <v>49</v>
@@ -6912,7 +7017,7 @@
         <v>49</v>
       </c>
       <c r="AL33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="AM33" s="62" t="s">
         <v>292</v>
@@ -6924,7 +7029,7 @@
         <v>291</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ33" t="s">
         <v>49</v>
@@ -7050,7 +7155,7 @@
         <v>49</v>
       </c>
       <c r="AL34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="AM34" s="62" t="s">
         <v>292</v>
@@ -7062,7 +7167,7 @@
         <v>291</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ34" t="s">
         <v>49</v>
@@ -7188,7 +7293,7 @@
         <v>49</v>
       </c>
       <c r="AL35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="AM35" s="62" t="s">
         <v>292</v>
@@ -7200,7 +7305,7 @@
         <v>291</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ35" t="s">
         <v>49</v>
@@ -7326,7 +7431,7 @@
         <v>49</v>
       </c>
       <c r="AL36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="AM36" s="62" t="s">
         <v>292</v>
@@ -7338,7 +7443,7 @@
         <v>291</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ36" t="s">
         <v>49</v>
@@ -7467,7 +7572,7 @@
         <v>49</v>
       </c>
       <c r="AL37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="AM37" s="62" t="s">
         <v>292</v>
@@ -7479,7 +7584,7 @@
         <v>291</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ37" t="s">
         <v>49</v>
@@ -7607,7 +7712,7 @@
         <v>49</v>
       </c>
       <c r="AL38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="AM38" s="62" t="s">
         <v>292</v>
@@ -7619,7 +7724,7 @@
         <v>291</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ38" t="s">
         <v>49</v>

--- a/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
+++ b/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
@@ -2424,10 +2424,10 @@
   </sheetPr>
   <dimension ref="A1:BY69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AL41" sqref="AL41"/>
+      <selection pane="bottomLeft" activeCell="AN43" sqref="AN43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
+++ b/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="226">
   <si>
     <t>Country</t>
   </si>
@@ -796,6 +796,12 @@
   </si>
   <si>
     <t>micans_9_31_32_34680793</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>micans</t>
   </si>
 </sst>
 </file>
@@ -2124,12 +2130,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CB65"/>
+  <dimension ref="A1:CC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="114" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="114" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2140,80 +2146,81 @@
     <col min="4" max="4" width="28.6640625" style="34" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="14" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="17" style="39" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="39" customWidth="1"/>
-    <col min="11" max="11" width="22" style="39" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="53" customWidth="1"/>
-    <col min="14" max="14" width="23.5" style="39" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="34" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" style="47" customWidth="1"/>
-    <col min="18" max="18" width="14" style="50" customWidth="1"/>
-    <col min="19" max="20" width="16.83203125" customWidth="1"/>
-    <col min="21" max="21" width="11.5" customWidth="1"/>
-    <col min="22" max="22" width="46.1640625" style="20" customWidth="1"/>
-    <col min="23" max="23" width="44.33203125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" customWidth="1"/>
-    <col min="25" max="25" width="25.5" style="42" customWidth="1"/>
-    <col min="26" max="26" width="20.1640625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="22" style="23" customWidth="1"/>
-    <col min="28" max="28" width="17.83203125" style="42" customWidth="1"/>
-    <col min="29" max="29" width="21.5" style="20" customWidth="1"/>
-    <col min="30" max="30" width="27.6640625" style="24" customWidth="1"/>
-    <col min="31" max="31" width="9.83203125" customWidth="1"/>
-    <col min="32" max="32" width="11" customWidth="1"/>
-    <col min="33" max="33" width="13.5" style="3" customWidth="1"/>
-    <col min="34" max="34" width="9.1640625" customWidth="1"/>
-    <col min="35" max="35" width="14.33203125" style="3" customWidth="1"/>
-    <col min="36" max="36" width="15.83203125" style="3" customWidth="1"/>
-    <col min="37" max="37" width="8.5" customWidth="1"/>
-    <col min="38" max="38" width="10.33203125" style="18" customWidth="1"/>
-    <col min="39" max="39" width="10.33203125" customWidth="1"/>
-    <col min="40" max="40" width="11.5" customWidth="1"/>
-    <col min="41" max="41" width="19.6640625" customWidth="1"/>
-    <col min="42" max="42" width="12.83203125" style="51" customWidth="1"/>
-    <col min="43" max="43" width="32.83203125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13" style="51" customWidth="1"/>
-    <col min="45" max="45" width="35.6640625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.1640625" customWidth="1"/>
-    <col min="47" max="47" width="12.5" customWidth="1"/>
-    <col min="48" max="48" width="15" customWidth="1"/>
-    <col min="49" max="49" width="10.83203125" customWidth="1"/>
-    <col min="50" max="50" width="14" customWidth="1"/>
-    <col min="51" max="51" width="13.1640625" customWidth="1"/>
-    <col min="52" max="52" width="15.6640625" customWidth="1"/>
-    <col min="53" max="53" width="11.6640625" customWidth="1"/>
-    <col min="54" max="54" width="12.1640625" customWidth="1"/>
-    <col min="55" max="55" width="13" customWidth="1"/>
-    <col min="56" max="56" width="10.1640625" customWidth="1"/>
-    <col min="57" max="59" width="19.83203125" customWidth="1"/>
-    <col min="60" max="60" width="20.83203125" customWidth="1"/>
-    <col min="61" max="61" width="8.6640625" customWidth="1"/>
-    <col min="62" max="62" width="15.5" customWidth="1"/>
-    <col min="63" max="63" width="13.6640625" style="13" customWidth="1"/>
-    <col min="64" max="64" width="13.1640625" style="13" customWidth="1"/>
-    <col min="65" max="65" width="12.5" style="20" customWidth="1"/>
-    <col min="66" max="66" width="26" style="20" customWidth="1"/>
-    <col min="67" max="67" width="31.33203125" style="20" customWidth="1"/>
-    <col min="68" max="68" width="9" customWidth="1"/>
-    <col min="69" max="69" width="16.5" customWidth="1"/>
-    <col min="70" max="70" width="16" customWidth="1"/>
-    <col min="71" max="71" width="9.5" customWidth="1"/>
-    <col min="72" max="72" width="11" style="26" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" style="26" customWidth="1"/>
-    <col min="74" max="74" width="14.33203125" style="26" customWidth="1"/>
-    <col min="75" max="75" width="12.6640625" style="26" customWidth="1"/>
-    <col min="76" max="76" width="13.6640625" style="26" customWidth="1"/>
-    <col min="77" max="77" width="15.33203125" style="26" customWidth="1"/>
-    <col min="78" max="78" width="15.5" style="26" customWidth="1"/>
-    <col min="79" max="79" width="14.6640625" style="26" customWidth="1"/>
-    <col min="80" max="80" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15" style="39" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="17" style="39" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="39" customWidth="1"/>
+    <col min="12" max="12" width="22" style="39" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="53" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="39" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="34" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" style="47" customWidth="1"/>
+    <col min="19" max="19" width="14" style="50" customWidth="1"/>
+    <col min="20" max="21" width="16.83203125" customWidth="1"/>
+    <col min="22" max="22" width="11.5" customWidth="1"/>
+    <col min="23" max="23" width="46.1640625" style="20" customWidth="1"/>
+    <col min="24" max="24" width="44.33203125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" customWidth="1"/>
+    <col min="26" max="26" width="25.5" style="42" customWidth="1"/>
+    <col min="27" max="27" width="20.1640625" style="20" customWidth="1"/>
+    <col min="28" max="28" width="22" style="23" customWidth="1"/>
+    <col min="29" max="29" width="17.83203125" style="42" customWidth="1"/>
+    <col min="30" max="30" width="21.5" style="20" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" style="24" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" customWidth="1"/>
+    <col min="33" max="33" width="11" customWidth="1"/>
+    <col min="34" max="34" width="13.5" style="3" customWidth="1"/>
+    <col min="35" max="35" width="9.1640625" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" style="3" customWidth="1"/>
+    <col min="37" max="37" width="15.83203125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="8.5" customWidth="1"/>
+    <col min="39" max="39" width="10.33203125" style="18" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" customWidth="1"/>
+    <col min="41" max="41" width="11.5" customWidth="1"/>
+    <col min="42" max="42" width="19.6640625" customWidth="1"/>
+    <col min="43" max="43" width="12.83203125" style="51" customWidth="1"/>
+    <col min="44" max="44" width="32.83203125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="13" style="51" customWidth="1"/>
+    <col min="46" max="46" width="35.6640625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.1640625" customWidth="1"/>
+    <col min="48" max="48" width="12.5" customWidth="1"/>
+    <col min="49" max="49" width="15" customWidth="1"/>
+    <col min="50" max="50" width="10.83203125" customWidth="1"/>
+    <col min="51" max="51" width="14" customWidth="1"/>
+    <col min="52" max="52" width="13.1640625" customWidth="1"/>
+    <col min="53" max="53" width="15.6640625" customWidth="1"/>
+    <col min="54" max="54" width="11.6640625" customWidth="1"/>
+    <col min="55" max="55" width="12.1640625" customWidth="1"/>
+    <col min="56" max="56" width="13" customWidth="1"/>
+    <col min="57" max="57" width="10.1640625" customWidth="1"/>
+    <col min="58" max="60" width="19.83203125" customWidth="1"/>
+    <col min="61" max="61" width="20.83203125" customWidth="1"/>
+    <col min="62" max="62" width="8.6640625" customWidth="1"/>
+    <col min="63" max="63" width="15.5" customWidth="1"/>
+    <col min="64" max="64" width="13.6640625" style="13" customWidth="1"/>
+    <col min="65" max="65" width="13.1640625" style="13" customWidth="1"/>
+    <col min="66" max="66" width="12.5" style="20" customWidth="1"/>
+    <col min="67" max="67" width="26" style="20" customWidth="1"/>
+    <col min="68" max="68" width="31.33203125" style="20" customWidth="1"/>
+    <col min="69" max="69" width="9" customWidth="1"/>
+    <col min="70" max="70" width="16.5" customWidth="1"/>
+    <col min="71" max="71" width="16" customWidth="1"/>
+    <col min="72" max="72" width="9.5" customWidth="1"/>
+    <col min="73" max="73" width="11" style="26" customWidth="1"/>
+    <col min="74" max="74" width="11.6640625" style="26" customWidth="1"/>
+    <col min="75" max="75" width="14.33203125" style="26" customWidth="1"/>
+    <col min="76" max="76" width="12.6640625" style="26" customWidth="1"/>
+    <col min="77" max="77" width="13.6640625" style="26" customWidth="1"/>
+    <col min="78" max="78" width="15.33203125" style="26" customWidth="1"/>
+    <col min="79" max="79" width="15.5" style="26" customWidth="1"/>
+    <col min="80" max="80" width="14.6640625" style="26" customWidth="1"/>
+    <col min="81" max="81" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
@@ -2225,37 +2232,37 @@
       <c r="H1" s="37"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="35"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="21"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="7"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="35"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="21"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="5"/>
       <c r="AJ1" s="7"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="5"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="9"/>
-      <c r="AU1" s="5"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="5"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="9"/>
       <c r="AV1" s="5"/>
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
@@ -2263,37 +2270,38 @@
       <c r="AZ1" s="5"/>
       <c r="BA1" s="5"/>
       <c r="BB1" s="5"/>
-      <c r="BC1" s="12"/>
-      <c r="BE1" s="65" t="s">
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="12"/>
+      <c r="BF1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="BF1" s="65"/>
       <c r="BG1" s="65"/>
       <c r="BH1" s="65"/>
-      <c r="BJ1" s="65" t="s">
+      <c r="BI1" s="65"/>
+      <c r="BK1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="BK1" s="65"/>
       <c r="BL1" s="65"/>
       <c r="BM1" s="65"/>
       <c r="BN1" s="65"/>
       <c r="BO1" s="65"/>
-      <c r="BQ1" s="65" t="s">
+      <c r="BP1" s="65"/>
+      <c r="BR1" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="65"/>
-      <c r="BT1" s="10" t="s">
+      <c r="BS1" s="65"/>
+      <c r="BU1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="25"/>
       <c r="BV1" s="25"/>
       <c r="BW1" s="25"/>
       <c r="BX1" s="25"/>
       <c r="BY1" s="25"/>
       <c r="BZ1" s="25"/>
       <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
     </row>
-    <row r="2" spans="1:80" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>49</v>
       </c>
@@ -2311,207 +2319,210 @@
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="I2" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="J2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="K2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="L2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="O2" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="P2" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="S2" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="T2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="U2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="56"/>
-      <c r="V2" s="54" t="s">
+      <c r="V2" s="56"/>
+      <c r="W2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="54" t="s">
+      <c r="X2" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="54" t="s">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="54" t="s">
+      <c r="AA2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="54" t="s">
+      <c r="AB2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="54" t="s">
+      <c r="AC2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="54" t="s">
+      <c r="AD2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="54" t="s">
+      <c r="AE2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="54" t="s">
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AG2" s="54" t="s">
+      <c r="AH2" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="54" t="s">
+      <c r="AI2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="54" t="s">
+      <c r="AJ2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="54" t="s">
+      <c r="AK2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" s="54" t="s">
+      <c r="AL2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="58" t="s">
+      <c r="AM2" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="54" t="s">
+      <c r="AN2" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="54" t="s">
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AP2" s="54" t="s">
+      <c r="AQ2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="54" t="s">
+      <c r="AR2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="54" t="s">
+      <c r="AS2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="54" t="s">
+      <c r="AT2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="54" t="s">
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AV2" s="54" t="s">
+      <c r="AW2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AW2" s="54" t="s">
+      <c r="AX2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AX2" s="54" t="s">
+      <c r="AY2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="54" t="s">
+      <c r="AZ2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="AZ2" s="54" t="s">
+      <c r="BA2" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="BA2" s="54" t="s">
+      <c r="BB2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="BB2" s="54" t="s">
+      <c r="BC2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="BC2" s="54" t="s">
+      <c r="BD2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="60" t="s">
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="BF2" s="60" t="s">
+      <c r="BG2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="BG2" s="60" t="s">
+      <c r="BH2" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="BH2" s="60" t="s">
+      <c r="BI2" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="61" t="s">
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="BK2" s="61" t="s">
+      <c r="BL2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="BL2" s="61" t="s">
+      <c r="BM2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="BM2" s="61" t="s">
+      <c r="BN2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="BN2" s="61" t="s">
+      <c r="BO2" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="BO2" s="61" t="s">
+      <c r="BP2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="62" t="s">
+      <c r="BQ2" s="59"/>
+      <c r="BR2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="BR2" s="62" t="s">
+      <c r="BS2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="BS2" s="59"/>
-      <c r="BT2" s="63" t="s">
+      <c r="BT2" s="59"/>
+      <c r="BU2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="BU2" s="63" t="s">
+      <c r="BV2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="BV2" s="63" t="s">
+      <c r="BW2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BW2" s="63" t="s">
+      <c r="BX2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="BX2" s="63" t="s">
+      <c r="BY2" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="BY2" s="63" t="s">
+      <c r="BZ2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="BZ2" s="63" t="s">
+      <c r="CA2" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="CA2" s="63" t="s">
+      <c r="CB2" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="CB2" s="59"/>
+      <c r="CC2" s="59"/>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
-        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BO3,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BP3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="27">
@@ -2527,122 +2538,124 @@
         <v>122</v>
       </c>
       <c r="G3" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="I3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="J3" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="K3" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="L3" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="N3" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="O3" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="23"/>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="20" t="s">
+      <c r="R3" s="46"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="23"/>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="X3" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="42" t="s">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="AA3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AB3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="42" t="s">
+      <c r="AC3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AD3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AE3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="15">
+      <c r="AF3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN3" t="s">
-        <v>49</v>
-      </c>
       <c r="AO3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" t="s">
         <v>82</v>
       </c>
-      <c r="AP3" s="51" t="s">
+      <c r="AQ3" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR3" s="51" t="s">
+      <c r="AS3" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT3" t="s">
-        <v>49</v>
-      </c>
       <c r="AU3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV3" t="s">
         <v>8</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>9</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>10</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>69</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>11</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>77</v>
-      </c>
-      <c r="BB3">
-        <v>111</v>
       </c>
       <c r="BC3">
         <v>111</v>
       </c>
-      <c r="BJ3" s="29"/>
-      <c r="BK3" s="30"/>
+      <c r="BD3">
+        <v>111</v>
+      </c>
+      <c r="BK3" s="29"/>
       <c r="BL3" s="30"/>
-      <c r="BM3"/>
+      <c r="BM3" s="30"/>
       <c r="BN3"/>
-      <c r="BO3" s="30"/>
-      <c r="BT3"/>
+      <c r="BO3"/>
+      <c r="BP3" s="30"/>
       <c r="BU3"/>
       <c r="BV3"/>
       <c r="BW3"/>
@@ -2650,10 +2663,11 @@
       <c r="BY3"/>
       <c r="BZ3"/>
       <c r="CA3"/>
+      <c r="CB3"/>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BO4,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BP4,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B4" s="27">
@@ -2669,122 +2683,124 @@
         <v>122</v>
       </c>
       <c r="G4" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="I4" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="K4" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="L4" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="N4" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="O4" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="P4" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="23"/>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="20" t="s">
+      <c r="R4" s="46"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="23"/>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="X4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="42" t="s">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="AA4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AB4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" s="42" t="s">
+      <c r="AC4" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AD4" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD4" s="24" t="s">
+      <c r="AE4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="15">
+      <c r="AF4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN4" t="s">
-        <v>49</v>
-      </c>
       <c r="AO4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" t="s">
         <v>82</v>
       </c>
-      <c r="AP4" s="51" t="s">
+      <c r="AQ4" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR4" s="51" t="s">
+      <c r="AS4" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT4" t="s">
-        <v>49</v>
-      </c>
       <c r="AU4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV4" t="s">
         <v>8</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>9</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>10</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>69</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>11</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>77</v>
-      </c>
-      <c r="BB4">
-        <v>111</v>
       </c>
       <c r="BC4">
         <v>111</v>
       </c>
-      <c r="BJ4" s="29"/>
-      <c r="BK4" s="30"/>
+      <c r="BD4">
+        <v>111</v>
+      </c>
+      <c r="BK4" s="29"/>
       <c r="BL4" s="30"/>
-      <c r="BM4"/>
+      <c r="BM4" s="30"/>
       <c r="BN4"/>
-      <c r="BO4" s="30"/>
-      <c r="BT4"/>
+      <c r="BO4"/>
+      <c r="BP4" s="30"/>
       <c r="BU4"/>
       <c r="BV4"/>
       <c r="BW4"/>
@@ -2792,10 +2808,11 @@
       <c r="BY4"/>
       <c r="BZ4"/>
       <c r="CA4"/>
+      <c r="CB4"/>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
-        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BO5,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BP5,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B5" s="27">
@@ -2811,122 +2828,124 @@
         <v>122</v>
       </c>
       <c r="G5" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="I5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="J5" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="K5" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="L5" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="N5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="O5" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="P5" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="28"/>
-      <c r="U5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="20" t="s">
+      <c r="R5" s="46"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="28"/>
+      <c r="V5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="X5" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="20" t="s">
+      <c r="AA5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="23" t="s">
+      <c r="AB5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AC5" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AD5" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AE5" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="15">
+      <c r="AF5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN5" t="s">
-        <v>49</v>
-      </c>
       <c r="AO5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP5" t="s">
         <v>83</v>
       </c>
-      <c r="AP5" s="51" t="s">
+      <c r="AQ5" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR5" s="51" t="s">
+      <c r="AS5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT5" t="s">
-        <v>49</v>
-      </c>
       <c r="AU5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV5" t="s">
         <v>8</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>9</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>69</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>11</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>77</v>
-      </c>
-      <c r="BB5">
-        <v>111</v>
       </c>
       <c r="BC5">
         <v>111</v>
       </c>
-      <c r="BJ5" s="29"/>
-      <c r="BK5" s="30"/>
+      <c r="BD5">
+        <v>111</v>
+      </c>
+      <c r="BK5" s="29"/>
       <c r="BL5" s="30"/>
-      <c r="BM5"/>
+      <c r="BM5" s="30"/>
       <c r="BN5"/>
-      <c r="BO5" s="30"/>
-      <c r="BT5"/>
+      <c r="BO5"/>
+      <c r="BP5" s="30"/>
       <c r="BU5"/>
       <c r="BV5"/>
       <c r="BW5"/>
@@ -2934,10 +2953,11 @@
       <c r="BY5"/>
       <c r="BZ5"/>
       <c r="CA5"/>
+      <c r="CB5"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
-        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BO6,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BP6,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B6" s="27">
@@ -2953,122 +2973,124 @@
         <v>122</v>
       </c>
       <c r="G6" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="I6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="J6" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="K6" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="L6" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="N6" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="P6" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="23"/>
-      <c r="U6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" s="20" t="s">
+      <c r="R6" s="46"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="23"/>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="20" t="s">
+      <c r="X6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="42" t="s">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="AA6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA6" s="23" t="s">
+      <c r="AB6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB6" s="42" t="s">
+      <c r="AC6" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC6" s="20" t="s">
+      <c r="AD6" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD6" s="24" t="s">
+      <c r="AE6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="15">
+      <c r="AF6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN6" t="s">
-        <v>49</v>
-      </c>
       <c r="AO6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP6" t="s">
         <v>83</v>
       </c>
-      <c r="AP6" s="51" t="s">
+      <c r="AQ6" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR6" s="51" t="s">
+      <c r="AS6" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT6" t="s">
-        <v>49</v>
-      </c>
       <c r="AU6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV6" t="s">
         <v>8</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>9</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>10</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>69</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>11</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>77</v>
-      </c>
-      <c r="BB6">
-        <v>111</v>
       </c>
       <c r="BC6">
         <v>111</v>
       </c>
-      <c r="BJ6" s="29"/>
-      <c r="BK6" s="30"/>
+      <c r="BD6">
+        <v>111</v>
+      </c>
+      <c r="BK6" s="29"/>
       <c r="BL6" s="30"/>
-      <c r="BM6"/>
+      <c r="BM6" s="30"/>
       <c r="BN6"/>
-      <c r="BO6" s="30"/>
-      <c r="BT6"/>
+      <c r="BO6"/>
+      <c r="BP6" s="30"/>
       <c r="BU6"/>
       <c r="BV6"/>
       <c r="BW6"/>
@@ -3076,10 +3098,11 @@
       <c r="BY6"/>
       <c r="BZ6"/>
       <c r="CA6"/>
+      <c r="CB6"/>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
-        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BO7,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BP7,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B7" s="27">
@@ -3095,122 +3118,124 @@
         <v>122</v>
       </c>
       <c r="G7" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="J7" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="K7" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="L7" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="N7" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="O7" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="P7" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="23"/>
-      <c r="U7" t="s">
-        <v>49</v>
-      </c>
-      <c r="V7" s="20" t="s">
+      <c r="R7" s="46"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="23"/>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="W7" s="20" t="s">
+      <c r="X7" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="42" t="s">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="AA7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="23" t="s">
+      <c r="AB7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB7" s="42" t="s">
+      <c r="AC7" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC7" s="20" t="s">
+      <c r="AD7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD7" s="24" t="s">
+      <c r="AE7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="15">
+      <c r="AF7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN7" t="s">
-        <v>49</v>
-      </c>
       <c r="AO7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP7" t="s">
         <v>83</v>
       </c>
-      <c r="AP7" s="51" t="s">
+      <c r="AQ7" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR7" s="51" t="s">
+      <c r="AS7" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT7" t="s">
-        <v>49</v>
-      </c>
       <c r="AU7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV7" t="s">
         <v>8</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
         <v>9</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>10</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>69</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>11</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>77</v>
-      </c>
-      <c r="BB7">
-        <v>111</v>
       </c>
       <c r="BC7">
         <v>111</v>
       </c>
-      <c r="BJ7" s="29"/>
-      <c r="BK7" s="30"/>
+      <c r="BD7">
+        <v>111</v>
+      </c>
+      <c r="BK7" s="29"/>
       <c r="BL7" s="30"/>
-      <c r="BM7"/>
+      <c r="BM7" s="30"/>
       <c r="BN7"/>
-      <c r="BO7" s="30"/>
-      <c r="BT7"/>
+      <c r="BO7"/>
+      <c r="BP7" s="30"/>
       <c r="BU7"/>
       <c r="BV7"/>
       <c r="BW7"/>
@@ -3218,10 +3243,11 @@
       <c r="BY7"/>
       <c r="BZ7"/>
       <c r="CA7"/>
+      <c r="CB7"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
-        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BO8,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BP8,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B8" s="27">
@@ -3237,122 +3263,124 @@
         <v>123</v>
       </c>
       <c r="G8" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="I8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="J8" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="K8" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="L8" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="N8" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="O8" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="P8" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="28"/>
-      <c r="U8" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" s="20" t="s">
+      <c r="R8" s="46"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="28"/>
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="W8" s="20" t="s">
+      <c r="X8" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="42" t="s">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="AA8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="23" t="s">
+      <c r="AB8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB8" s="42" t="s">
+      <c r="AC8" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC8" s="20" t="s">
+      <c r="AD8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD8" s="24" t="s">
+      <c r="AE8" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="15">
+      <c r="AF8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN8" t="s">
-        <v>49</v>
-      </c>
       <c r="AO8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP8" t="s">
         <v>83</v>
       </c>
-      <c r="AP8" s="51" t="s">
+      <c r="AQ8" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR8" s="51" t="s">
+      <c r="AS8" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AT8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT8" t="s">
-        <v>49</v>
-      </c>
       <c r="AU8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV8" t="s">
         <v>8</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
         <v>9</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>10</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>11</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>77</v>
-      </c>
-      <c r="BB8">
-        <v>111</v>
       </c>
       <c r="BC8">
         <v>111</v>
       </c>
-      <c r="BJ8" s="29"/>
-      <c r="BK8" s="30"/>
+      <c r="BD8">
+        <v>111</v>
+      </c>
+      <c r="BK8" s="29"/>
       <c r="BL8" s="30"/>
-      <c r="BM8"/>
+      <c r="BM8" s="30"/>
       <c r="BN8"/>
-      <c r="BO8" s="30"/>
-      <c r="BT8"/>
+      <c r="BO8"/>
+      <c r="BP8" s="30"/>
       <c r="BU8"/>
       <c r="BV8"/>
       <c r="BW8"/>
@@ -3360,10 +3388,11 @@
       <c r="BY8"/>
       <c r="BZ8"/>
       <c r="CA8"/>
+      <c r="CB8"/>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
-        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BO9,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BP9,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B9" s="27">
@@ -3379,122 +3408,124 @@
         <v>123</v>
       </c>
       <c r="G9" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="I9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="J9" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="K9" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="L9" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="N9" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="O9" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="23"/>
-      <c r="U9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" s="20" t="s">
+      <c r="R9" s="46"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="23"/>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="X9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="42" t="s">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z9" s="20" t="s">
+      <c r="AA9" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA9" s="23" t="s">
+      <c r="AB9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB9" s="42" t="s">
+      <c r="AC9" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AD9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD9" s="24" t="s">
+      <c r="AE9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="15">
+      <c r="AF9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN9" t="s">
-        <v>49</v>
-      </c>
       <c r="AO9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP9" t="s">
         <v>83</v>
       </c>
-      <c r="AP9" s="51" t="s">
+      <c r="AQ9" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR9" s="51" t="s">
+      <c r="AS9" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT9" t="s">
-        <v>49</v>
-      </c>
       <c r="AU9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV9" t="s">
         <v>8</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>9</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>10</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>69</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>11</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>77</v>
-      </c>
-      <c r="BB9">
-        <v>111</v>
       </c>
       <c r="BC9">
         <v>111</v>
       </c>
-      <c r="BJ9" s="29"/>
-      <c r="BK9" s="30"/>
+      <c r="BD9">
+        <v>111</v>
+      </c>
+      <c r="BK9" s="29"/>
       <c r="BL9" s="30"/>
-      <c r="BM9"/>
+      <c r="BM9" s="30"/>
       <c r="BN9"/>
-      <c r="BO9" s="30"/>
-      <c r="BT9"/>
+      <c r="BO9"/>
+      <c r="BP9" s="30"/>
       <c r="BU9"/>
       <c r="BV9"/>
       <c r="BW9"/>
@@ -3502,10 +3533,11 @@
       <c r="BY9"/>
       <c r="BZ9"/>
       <c r="CA9"/>
+      <c r="CB9"/>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
-        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BO10,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BP10,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B10" s="27">
@@ -3521,122 +3553,124 @@
         <v>123</v>
       </c>
       <c r="G10" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="I10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="J10" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="K10" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="L10" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="N10" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="O10" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="P10" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="23"/>
-      <c r="U10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V10" s="20" t="s">
+      <c r="R10" s="46"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="23"/>
+      <c r="V10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="W10" s="20" t="s">
+      <c r="X10" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="42" t="s">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="AA10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA10" s="23" t="s">
+      <c r="AB10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB10" s="42" t="s">
+      <c r="AC10" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AD10" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD10" s="24" t="s">
+      <c r="AE10" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="15">
+      <c r="AF10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN10" t="s">
-        <v>49</v>
-      </c>
       <c r="AO10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP10" t="s">
         <v>83</v>
       </c>
-      <c r="AP10" s="51" t="s">
+      <c r="AQ10" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AR10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR10" s="51" t="s">
+      <c r="AS10" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AT10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT10" t="s">
-        <v>49</v>
-      </c>
       <c r="AU10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV10" t="s">
         <v>8</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>9</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>10</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>69</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>11</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>77</v>
-      </c>
-      <c r="BB10">
-        <v>111</v>
       </c>
       <c r="BC10">
         <v>111</v>
       </c>
-      <c r="BJ10" s="29"/>
-      <c r="BK10" s="30"/>
+      <c r="BD10">
+        <v>111</v>
+      </c>
+      <c r="BK10" s="29"/>
       <c r="BL10" s="30"/>
-      <c r="BM10"/>
+      <c r="BM10" s="30"/>
       <c r="BN10"/>
-      <c r="BO10" s="30"/>
-      <c r="BT10"/>
+      <c r="BO10"/>
+      <c r="BP10" s="30"/>
       <c r="BU10"/>
       <c r="BV10"/>
       <c r="BW10"/>
@@ -3644,10 +3678,11 @@
       <c r="BY10"/>
       <c r="BZ10"/>
       <c r="CA10"/>
+      <c r="CB10"/>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
-        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BO11,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BP11,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B11" s="27">
@@ -3663,122 +3698,124 @@
         <v>123</v>
       </c>
       <c r="G11" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="I11" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="J11" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="K11" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="L11" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="N11" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="O11" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="P11" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="23"/>
-      <c r="U11" t="s">
-        <v>49</v>
-      </c>
-      <c r="V11" s="20" t="s">
+      <c r="R11" s="46"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="23"/>
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="X11" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="42" t="s">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z11" s="20" t="s">
+      <c r="AA11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA11" s="23" t="s">
+      <c r="AB11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB11" s="42" t="s">
+      <c r="AC11" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC11" s="20" t="s">
+      <c r="AD11" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD11" s="24" t="s">
+      <c r="AE11" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="15">
+      <c r="AF11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN11" t="s">
-        <v>49</v>
-      </c>
       <c r="AO11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP11" t="s">
         <v>83</v>
       </c>
-      <c r="AP11" s="51" t="s">
+      <c r="AQ11" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ11" s="1" t="s">
+      <c r="AR11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR11" s="51" t="s">
+      <c r="AS11" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS11" s="1" t="s">
+      <c r="AT11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT11" t="s">
-        <v>49</v>
-      </c>
       <c r="AU11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV11" t="s">
         <v>8</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>9</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>10</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>69</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>11</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>77</v>
-      </c>
-      <c r="BB11">
-        <v>111</v>
       </c>
       <c r="BC11">
         <v>111</v>
       </c>
-      <c r="BJ11" s="29"/>
-      <c r="BK11" s="30"/>
+      <c r="BD11">
+        <v>111</v>
+      </c>
+      <c r="BK11" s="29"/>
       <c r="BL11" s="30"/>
-      <c r="BM11"/>
+      <c r="BM11" s="30"/>
       <c r="BN11"/>
-      <c r="BO11" s="30"/>
-      <c r="BT11"/>
+      <c r="BO11"/>
+      <c r="BP11" s="30"/>
       <c r="BU11"/>
       <c r="BV11"/>
       <c r="BW11"/>
@@ -3786,10 +3823,11 @@
       <c r="BY11"/>
       <c r="BZ11"/>
       <c r="CA11"/>
+      <c r="CB11"/>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
-        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BO12,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BP12,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B12" s="27">
@@ -3805,122 +3843,124 @@
         <v>124</v>
       </c>
       <c r="G12" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="I12" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="J12" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="K12" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="L12" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="N12" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="O12" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="P12" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="23"/>
-      <c r="U12" t="s">
-        <v>49</v>
-      </c>
-      <c r="V12" s="20" t="s">
+      <c r="R12" s="46"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="23"/>
+      <c r="V12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="X12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="42" t="s">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="AA12" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA12" s="23" t="s">
+      <c r="AB12" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB12" s="42" t="s">
+      <c r="AC12" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC12" s="20" t="s">
+      <c r="AD12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="24" t="s">
+      <c r="AE12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="15">
+      <c r="AF12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN12" t="s">
-        <v>49</v>
-      </c>
       <c r="AO12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP12" t="s">
         <v>83</v>
       </c>
-      <c r="AP12" s="51" t="s">
+      <c r="AQ12" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ12" s="1" t="s">
+      <c r="AR12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR12" s="51" t="s">
+      <c r="AS12" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS12" s="1" t="s">
+      <c r="AT12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT12" t="s">
-        <v>49</v>
-      </c>
       <c r="AU12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV12" t="s">
         <v>8</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>9</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>10</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>69</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>11</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>77</v>
-      </c>
-      <c r="BB12">
-        <v>111</v>
       </c>
       <c r="BC12">
         <v>111</v>
       </c>
-      <c r="BJ12" s="29"/>
-      <c r="BK12" s="30"/>
+      <c r="BD12">
+        <v>111</v>
+      </c>
+      <c r="BK12" s="29"/>
       <c r="BL12" s="30"/>
-      <c r="BM12"/>
+      <c r="BM12" s="30"/>
       <c r="BN12"/>
-      <c r="BO12" s="30"/>
-      <c r="BT12"/>
+      <c r="BO12"/>
+      <c r="BP12" s="30"/>
       <c r="BU12"/>
       <c r="BV12"/>
       <c r="BW12"/>
@@ -3928,10 +3968,11 @@
       <c r="BY12"/>
       <c r="BZ12"/>
       <c r="CA12"/>
+      <c r="CB12"/>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
-        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BO13,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BP13,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B13" s="27">
@@ -3947,122 +3988,124 @@
         <v>124</v>
       </c>
       <c r="G13" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="I13" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="J13" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="K13" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="L13" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="N13" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="O13" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="O13" s="34" t="s">
+      <c r="P13" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="23"/>
-      <c r="U13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V13" s="20" t="s">
+      <c r="R13" s="46"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="23"/>
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="W13" s="20" t="s">
+      <c r="X13" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="42" t="s">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="AA13" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA13" s="23" t="s">
+      <c r="AB13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB13" s="42" t="s">
+      <c r="AC13" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC13" s="20" t="s">
+      <c r="AD13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD13" s="24" t="s">
+      <c r="AE13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="15">
+      <c r="AF13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN13" t="s">
-        <v>49</v>
-      </c>
       <c r="AO13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP13" t="s">
         <v>83</v>
       </c>
-      <c r="AP13" s="51" t="s">
+      <c r="AQ13" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ13" s="1" t="s">
+      <c r="AR13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR13" s="51" t="s">
+      <c r="AS13" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS13" s="1" t="s">
+      <c r="AT13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT13" t="s">
-        <v>49</v>
-      </c>
       <c r="AU13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV13" t="s">
         <v>8</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
         <v>9</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>69</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>11</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>77</v>
-      </c>
-      <c r="BB13">
-        <v>111</v>
       </c>
       <c r="BC13">
         <v>111</v>
       </c>
-      <c r="BJ13" s="29"/>
-      <c r="BK13" s="30"/>
+      <c r="BD13">
+        <v>111</v>
+      </c>
+      <c r="BK13" s="29"/>
       <c r="BL13" s="30"/>
-      <c r="BM13"/>
+      <c r="BM13" s="30"/>
       <c r="BN13"/>
-      <c r="BO13" s="30"/>
-      <c r="BT13"/>
+      <c r="BO13"/>
+      <c r="BP13" s="30"/>
       <c r="BU13"/>
       <c r="BV13"/>
       <c r="BW13"/>
@@ -4070,10 +4113,11 @@
       <c r="BY13"/>
       <c r="BZ13"/>
       <c r="CA13"/>
+      <c r="CB13"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
-        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BO14,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BP14,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B14" s="27">
@@ -4089,122 +4133,124 @@
         <v>124</v>
       </c>
       <c r="G14" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="I14" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="J14" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="K14" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="L14" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M14" s="53" t="s">
+      <c r="N14" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="O14" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="P14" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="23"/>
-      <c r="U14" t="s">
-        <v>49</v>
-      </c>
-      <c r="V14" s="20" t="s">
+      <c r="R14" s="46"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="23"/>
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="W14" s="20" t="s">
+      <c r="X14" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="42" t="s">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z14" s="20" t="s">
+      <c r="AA14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA14" s="23" t="s">
+      <c r="AB14" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB14" s="42" t="s">
+      <c r="AC14" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC14" s="20" t="s">
+      <c r="AD14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD14" s="24" t="s">
+      <c r="AE14" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="15">
+      <c r="AF14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN14" t="s">
-        <v>49</v>
-      </c>
       <c r="AO14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP14" t="s">
         <v>83</v>
       </c>
-      <c r="AP14" s="51" t="s">
+      <c r="AQ14" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ14" s="1" t="s">
+      <c r="AR14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR14" s="51" t="s">
+      <c r="AS14" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS14" s="1" t="s">
+      <c r="AT14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT14" t="s">
-        <v>49</v>
-      </c>
       <c r="AU14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV14" t="s">
         <v>8</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
         <v>9</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>10</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>69</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>11</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>77</v>
-      </c>
-      <c r="BB14">
-        <v>111</v>
       </c>
       <c r="BC14">
         <v>111</v>
       </c>
-      <c r="BJ14" s="29"/>
-      <c r="BK14" s="30"/>
+      <c r="BD14">
+        <v>111</v>
+      </c>
+      <c r="BK14" s="29"/>
       <c r="BL14" s="30"/>
-      <c r="BM14"/>
+      <c r="BM14" s="30"/>
       <c r="BN14"/>
-      <c r="BO14" s="30"/>
-      <c r="BT14"/>
+      <c r="BO14"/>
+      <c r="BP14" s="30"/>
       <c r="BU14"/>
       <c r="BV14"/>
       <c r="BW14"/>
@@ -4212,10 +4258,11 @@
       <c r="BY14"/>
       <c r="BZ14"/>
       <c r="CA14"/>
+      <c r="CB14"/>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BO15,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BP15,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B15" s="27">
@@ -4231,122 +4278,124 @@
         <v>124</v>
       </c>
       <c r="G15" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="I15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="J15" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="K15" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="L15" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M15" s="53" t="s">
+      <c r="N15" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="O15" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="P15" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="23"/>
-      <c r="U15" t="s">
-        <v>49</v>
-      </c>
-      <c r="V15" s="20" t="s">
+      <c r="R15" s="46"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="23"/>
+      <c r="V15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="W15" s="20" t="s">
+      <c r="X15" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="42" t="s">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="20" t="s">
+      <c r="AA15" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA15" s="23" t="s">
+      <c r="AB15" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB15" s="42" t="s">
+      <c r="AC15" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC15" s="20" t="s">
+      <c r="AD15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD15" s="24" t="s">
+      <c r="AE15" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="15">
+      <c r="AF15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN15" t="s">
-        <v>49</v>
-      </c>
       <c r="AO15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP15" t="s">
         <v>83</v>
       </c>
-      <c r="AP15" s="51" t="s">
+      <c r="AQ15" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ15" s="1" t="s">
+      <c r="AR15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR15" s="51" t="s">
+      <c r="AS15" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS15" s="1" t="s">
+      <c r="AT15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT15" t="s">
-        <v>49</v>
-      </c>
       <c r="AU15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV15" t="s">
         <v>8</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
         <v>9</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>10</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>69</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>11</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>77</v>
-      </c>
-      <c r="BB15">
-        <v>111</v>
       </c>
       <c r="BC15">
         <v>111</v>
       </c>
-      <c r="BJ15" s="29"/>
-      <c r="BK15" s="30"/>
+      <c r="BD15">
+        <v>111</v>
+      </c>
+      <c r="BK15" s="29"/>
       <c r="BL15" s="30"/>
-      <c r="BM15"/>
+      <c r="BM15" s="30"/>
       <c r="BN15"/>
-      <c r="BO15" s="30"/>
-      <c r="BT15"/>
+      <c r="BO15"/>
+      <c r="BP15" s="30"/>
       <c r="BU15"/>
       <c r="BV15"/>
       <c r="BW15"/>
@@ -4354,10 +4403,11 @@
       <c r="BY15"/>
       <c r="BZ15"/>
       <c r="CA15"/>
+      <c r="CB15"/>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
-        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BO16,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BP16,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B16" s="27">
@@ -4373,122 +4423,124 @@
         <v>124</v>
       </c>
       <c r="G16" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="I16" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="J16" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="K16" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="L16" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="N16" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="O16" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="O16" s="34" t="s">
+      <c r="P16" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="23"/>
-      <c r="U16" t="s">
-        <v>49</v>
-      </c>
-      <c r="V16" s="20" t="s">
+      <c r="R16" s="46"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="23"/>
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="W16" s="20" t="s">
+      <c r="X16" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="42" t="s">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z16" s="20" t="s">
+      <c r="AA16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA16" s="23" t="s">
+      <c r="AB16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB16" s="42" t="s">
+      <c r="AC16" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" s="20" t="s">
+      <c r="AD16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD16" s="24" t="s">
+      <c r="AE16" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="15">
+      <c r="AF16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN16" t="s">
-        <v>49</v>
-      </c>
       <c r="AO16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP16" t="s">
         <v>83</v>
       </c>
-      <c r="AP16" s="51" t="s">
+      <c r="AQ16" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ16" s="1" t="s">
+      <c r="AR16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR16" s="51" t="s">
+      <c r="AS16" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT16" t="s">
-        <v>49</v>
-      </c>
       <c r="AU16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV16" t="s">
         <v>8</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>9</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>10</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>69</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>11</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>77</v>
-      </c>
-      <c r="BB16">
-        <v>111</v>
       </c>
       <c r="BC16">
         <v>111</v>
       </c>
-      <c r="BJ16" s="29"/>
-      <c r="BK16" s="30"/>
+      <c r="BD16">
+        <v>111</v>
+      </c>
+      <c r="BK16" s="29"/>
       <c r="BL16" s="30"/>
-      <c r="BM16"/>
+      <c r="BM16" s="30"/>
       <c r="BN16"/>
-      <c r="BO16" s="30"/>
-      <c r="BT16"/>
+      <c r="BO16"/>
+      <c r="BP16" s="30"/>
       <c r="BU16"/>
       <c r="BV16"/>
       <c r="BW16"/>
@@ -4496,10 +4548,11 @@
       <c r="BY16"/>
       <c r="BZ16"/>
       <c r="CA16"/>
+      <c r="CB16"/>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
-        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BO17,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BP17,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B17" s="27">
@@ -4515,122 +4568,124 @@
         <v>125</v>
       </c>
       <c r="G17" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="I17" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="J17" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="K17" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="L17" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="N17" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="O17" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="P17" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="23"/>
-      <c r="U17" t="s">
-        <v>49</v>
-      </c>
-      <c r="V17" s="20" t="s">
+      <c r="R17" s="46"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="23"/>
+      <c r="V17" t="s">
+        <v>49</v>
+      </c>
+      <c r="W17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="W17" s="20" t="s">
+      <c r="X17" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="42" t="s">
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z17" s="20" t="s">
+      <c r="AA17" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA17" s="23" t="s">
+      <c r="AB17" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB17" s="42" t="s">
+      <c r="AC17" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC17" s="20" t="s">
+      <c r="AD17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD17" s="24" t="s">
+      <c r="AE17" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="15">
+      <c r="AF17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN17" t="s">
-        <v>49</v>
-      </c>
       <c r="AO17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP17" t="s">
         <v>83</v>
       </c>
-      <c r="AP17" s="51" t="s">
+      <c r="AQ17" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ17" s="1" t="s">
+      <c r="AR17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR17" s="51" t="s">
+      <c r="AS17" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT17" t="s">
-        <v>49</v>
-      </c>
       <c r="AU17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV17" t="s">
         <v>8</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>9</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>10</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>69</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>11</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>77</v>
-      </c>
-      <c r="BB17">
-        <v>111</v>
       </c>
       <c r="BC17">
         <v>111</v>
       </c>
-      <c r="BJ17" s="29"/>
-      <c r="BK17" s="30"/>
+      <c r="BD17">
+        <v>111</v>
+      </c>
+      <c r="BK17" s="29"/>
       <c r="BL17" s="30"/>
-      <c r="BM17"/>
+      <c r="BM17" s="30"/>
       <c r="BN17"/>
-      <c r="BO17" s="30"/>
-      <c r="BT17"/>
+      <c r="BO17"/>
+      <c r="BP17" s="30"/>
       <c r="BU17"/>
       <c r="BV17"/>
       <c r="BW17"/>
@@ -4638,10 +4693,11 @@
       <c r="BY17"/>
       <c r="BZ17"/>
       <c r="CA17"/>
+      <c r="CB17"/>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BO18,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BP18,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B18" s="27">
@@ -4657,122 +4713,124 @@
         <v>125</v>
       </c>
       <c r="G18" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="I18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="J18" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="K18" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="L18" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M18" s="53" t="s">
+      <c r="N18" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="O18" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="O18" s="34" t="s">
+      <c r="P18" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="23"/>
-      <c r="U18" t="s">
-        <v>49</v>
-      </c>
-      <c r="V18" s="20" t="s">
+      <c r="R18" s="46"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="23"/>
+      <c r="V18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="W18" s="20" t="s">
+      <c r="X18" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="42" t="s">
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z18" s="20" t="s">
+      <c r="AA18" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA18" s="23" t="s">
+      <c r="AB18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB18" s="42" t="s">
+      <c r="AC18" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC18" s="20" t="s">
+      <c r="AD18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD18" s="24" t="s">
+      <c r="AE18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="15">
+      <c r="AF18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN18" t="s">
-        <v>49</v>
-      </c>
       <c r="AO18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP18" t="s">
         <v>83</v>
       </c>
-      <c r="AP18" s="51" t="s">
+      <c r="AQ18" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ18" s="1" t="s">
+      <c r="AR18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR18" s="51" t="s">
+      <c r="AS18" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS18" s="1" t="s">
+      <c r="AT18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT18" t="s">
-        <v>49</v>
-      </c>
       <c r="AU18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV18" t="s">
         <v>8</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>9</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>10</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>69</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>11</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" t="s">
         <v>77</v>
-      </c>
-      <c r="BB18">
-        <v>111</v>
       </c>
       <c r="BC18">
         <v>111</v>
       </c>
-      <c r="BJ18" s="29"/>
-      <c r="BK18" s="30"/>
+      <c r="BD18">
+        <v>111</v>
+      </c>
+      <c r="BK18" s="29"/>
       <c r="BL18" s="30"/>
-      <c r="BM18"/>
+      <c r="BM18" s="30"/>
       <c r="BN18"/>
-      <c r="BO18" s="30"/>
-      <c r="BT18"/>
+      <c r="BO18"/>
+      <c r="BP18" s="30"/>
       <c r="BU18"/>
       <c r="BV18"/>
       <c r="BW18"/>
@@ -4780,10 +4838,11 @@
       <c r="BY18"/>
       <c r="BZ18"/>
       <c r="CA18"/>
+      <c r="CB18"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
-        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BO19,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BP19,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B19" s="27">
@@ -4799,122 +4858,124 @@
         <v>125</v>
       </c>
       <c r="G19" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="I19" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="J19" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="K19" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="L19" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M19" s="53" t="s">
+      <c r="N19" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="O19" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="O19" s="34" t="s">
+      <c r="P19" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="23"/>
-      <c r="U19" t="s">
-        <v>49</v>
-      </c>
-      <c r="V19" s="20" t="s">
+      <c r="R19" s="46"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="23"/>
+      <c r="V19" t="s">
+        <v>49</v>
+      </c>
+      <c r="W19" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="W19" s="20" t="s">
+      <c r="X19" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="42" t="s">
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z19" s="20" t="s">
+      <c r="AA19" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA19" s="23" t="s">
+      <c r="AB19" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB19" s="42" t="s">
+      <c r="AC19" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC19" s="20" t="s">
+      <c r="AD19" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD19" s="24" t="s">
+      <c r="AE19" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="15">
+      <c r="AF19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN19" t="s">
-        <v>49</v>
-      </c>
       <c r="AO19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP19" t="s">
         <v>83</v>
       </c>
-      <c r="AP19" s="51" t="s">
+      <c r="AQ19" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ19" s="1" t="s">
+      <c r="AR19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR19" s="51" t="s">
+      <c r="AS19" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS19" s="1" t="s">
+      <c r="AT19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT19" t="s">
-        <v>49</v>
-      </c>
       <c r="AU19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV19" t="s">
         <v>8</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AW19" t="s">
         <v>9</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>10</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AY19" t="s">
         <v>69</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AZ19" t="s">
         <v>11</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>77</v>
-      </c>
-      <c r="BB19">
-        <v>111</v>
       </c>
       <c r="BC19">
         <v>111</v>
       </c>
-      <c r="BJ19" s="29"/>
-      <c r="BK19" s="30"/>
+      <c r="BD19">
+        <v>111</v>
+      </c>
+      <c r="BK19" s="29"/>
       <c r="BL19" s="30"/>
-      <c r="BM19"/>
+      <c r="BM19" s="30"/>
       <c r="BN19"/>
-      <c r="BO19" s="30"/>
-      <c r="BT19"/>
+      <c r="BO19"/>
+      <c r="BP19" s="30"/>
       <c r="BU19"/>
       <c r="BV19"/>
       <c r="BW19"/>
@@ -4922,10 +4983,11 @@
       <c r="BY19"/>
       <c r="BZ19"/>
       <c r="CA19"/>
+      <c r="CB19"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
-        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BO20,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BP20,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B20" s="27">
@@ -4941,122 +5003,124 @@
         <v>125</v>
       </c>
       <c r="G20" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="I20" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="J20" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="K20" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="L20" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M20" s="53" t="s">
+      <c r="N20" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="O20" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="P20" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="23"/>
-      <c r="U20" t="s">
-        <v>49</v>
-      </c>
-      <c r="V20" s="20" t="s">
+      <c r="R20" s="46"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="23"/>
+      <c r="V20" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="W20" s="20" t="s">
+      <c r="X20" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="42" t="s">
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z20" s="20" t="s">
+      <c r="AA20" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA20" s="23" t="s">
+      <c r="AB20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB20" s="42" t="s">
+      <c r="AC20" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC20" s="20" t="s">
+      <c r="AD20" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD20" s="24" t="s">
+      <c r="AE20" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="15">
+      <c r="AF20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN20" t="s">
-        <v>49</v>
-      </c>
       <c r="AO20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP20" t="s">
         <v>83</v>
       </c>
-      <c r="AP20" s="51" t="s">
+      <c r="AQ20" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="AR20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR20" s="51" t="s">
+      <c r="AS20" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS20" s="1" t="s">
+      <c r="AT20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT20" t="s">
-        <v>49</v>
-      </c>
       <c r="AU20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV20" t="s">
         <v>8</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW20" t="s">
         <v>9</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX20" t="s">
         <v>10</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AY20" t="s">
         <v>69</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AZ20" t="s">
         <v>11</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
         <v>77</v>
-      </c>
-      <c r="BB20">
-        <v>111</v>
       </c>
       <c r="BC20">
         <v>111</v>
       </c>
-      <c r="BJ20" s="29"/>
-      <c r="BK20" s="30"/>
+      <c r="BD20">
+        <v>111</v>
+      </c>
+      <c r="BK20" s="29"/>
       <c r="BL20" s="30"/>
-      <c r="BM20"/>
+      <c r="BM20" s="30"/>
       <c r="BN20"/>
-      <c r="BO20" s="30"/>
-      <c r="BT20"/>
+      <c r="BO20"/>
+      <c r="BP20" s="30"/>
       <c r="BU20"/>
       <c r="BV20"/>
       <c r="BW20"/>
@@ -5064,10 +5128,11 @@
       <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
+      <c r="CB20"/>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
-        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BO21,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BP21,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B21" s="27">
@@ -5083,122 +5148,124 @@
         <v>125</v>
       </c>
       <c r="G21" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="I21" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="J21" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="K21" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="L21" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M21" s="53" t="s">
+      <c r="N21" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="O21" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="O21" s="34" t="s">
+      <c r="P21" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="23"/>
-      <c r="U21" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="20" t="s">
+      <c r="R21" s="46"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="23"/>
+      <c r="V21" t="s">
+        <v>49</v>
+      </c>
+      <c r="W21" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="W21" s="20" t="s">
+      <c r="X21" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="42" t="s">
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z21" s="20" t="s">
+      <c r="AA21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA21" s="23" t="s">
+      <c r="AB21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB21" s="42" t="s">
+      <c r="AC21" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC21" s="20" t="s">
+      <c r="AD21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD21" s="24" t="s">
+      <c r="AE21" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="15">
+      <c r="AF21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN21" t="s">
-        <v>49</v>
-      </c>
       <c r="AO21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP21" t="s">
         <v>83</v>
       </c>
-      <c r="AP21" s="51" t="s">
+      <c r="AQ21" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ21" s="1" t="s">
+      <c r="AR21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR21" s="51" t="s">
+      <c r="AS21" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS21" s="1" t="s">
+      <c r="AT21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT21" t="s">
-        <v>49</v>
-      </c>
       <c r="AU21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV21" t="s">
         <v>8</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AW21" t="s">
         <v>9</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AX21" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AY21" t="s">
         <v>69</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>11</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
         <v>77</v>
-      </c>
-      <c r="BB21">
-        <v>111</v>
       </c>
       <c r="BC21">
         <v>111</v>
       </c>
-      <c r="BJ21" s="29"/>
-      <c r="BK21" s="30"/>
+      <c r="BD21">
+        <v>111</v>
+      </c>
+      <c r="BK21" s="29"/>
       <c r="BL21" s="30"/>
-      <c r="BM21"/>
+      <c r="BM21" s="30"/>
       <c r="BN21"/>
-      <c r="BO21" s="30"/>
-      <c r="BT21"/>
+      <c r="BO21"/>
+      <c r="BP21" s="30"/>
       <c r="BU21"/>
       <c r="BV21"/>
       <c r="BW21"/>
@@ -5206,10 +5273,11 @@
       <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
+      <c r="CB21"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
-        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BO22,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BP22,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B22" s="27">
@@ -5225,122 +5293,124 @@
         <v>125</v>
       </c>
       <c r="G22" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="I22" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="J22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="K22" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="L22" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M22" s="53" t="s">
+      <c r="N22" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="O22" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="O22" s="34" t="s">
+      <c r="P22" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="23"/>
-      <c r="U22" t="s">
-        <v>49</v>
-      </c>
-      <c r="V22" s="20" t="s">
+      <c r="R22" s="46"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="23"/>
+      <c r="V22" t="s">
+        <v>49</v>
+      </c>
+      <c r="W22" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="W22" s="20" t="s">
+      <c r="X22" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="42" t="s">
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z22" s="20" t="s">
+      <c r="AA22" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA22" s="23" t="s">
+      <c r="AB22" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB22" s="42" t="s">
+      <c r="AC22" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC22" s="20" t="s">
+      <c r="AD22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD22" s="24" t="s">
+      <c r="AE22" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="15">
+      <c r="AF22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN22" t="s">
-        <v>49</v>
-      </c>
       <c r="AO22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP22" t="s">
         <v>83</v>
       </c>
-      <c r="AP22" s="51" t="s">
+      <c r="AQ22" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ22" s="1" t="s">
+      <c r="AR22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR22" s="51" t="s">
+      <c r="AS22" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS22" s="1" t="s">
+      <c r="AT22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT22" t="s">
-        <v>49</v>
-      </c>
       <c r="AU22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV22" t="s">
         <v>8</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AW22" t="s">
         <v>9</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>10</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>69</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>11</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>77</v>
-      </c>
-      <c r="BB22">
-        <v>111</v>
       </c>
       <c r="BC22">
         <v>111</v>
       </c>
-      <c r="BJ22" s="29"/>
-      <c r="BK22" s="30"/>
+      <c r="BD22">
+        <v>111</v>
+      </c>
+      <c r="BK22" s="29"/>
       <c r="BL22" s="30"/>
-      <c r="BM22"/>
+      <c r="BM22" s="30"/>
       <c r="BN22"/>
-      <c r="BO22" s="30"/>
-      <c r="BT22"/>
+      <c r="BO22"/>
+      <c r="BP22" s="30"/>
       <c r="BU22"/>
       <c r="BV22"/>
       <c r="BW22"/>
@@ -5348,10 +5418,11 @@
       <c r="BY22"/>
       <c r="BZ22"/>
       <c r="CA22"/>
+      <c r="CB22"/>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
-        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BO23,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BP23,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B23" s="27">
@@ -5367,122 +5438,124 @@
         <v>125</v>
       </c>
       <c r="G23" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="I23" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="J23" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="K23" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="L23" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M23" s="53" t="s">
+      <c r="N23" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="N23" s="39" t="s">
+      <c r="O23" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="O23" s="34" t="s">
+      <c r="P23" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="23"/>
-      <c r="U23" t="s">
-        <v>49</v>
-      </c>
-      <c r="V23" s="20" t="s">
+      <c r="R23" s="46"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="23"/>
+      <c r="V23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="W23" s="20" t="s">
+      <c r="X23" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="42" t="s">
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="20" t="s">
+      <c r="AA23" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA23" s="23" t="s">
+      <c r="AB23" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB23" s="42" t="s">
+      <c r="AC23" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC23" s="20" t="s">
+      <c r="AD23" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD23" s="24" t="s">
+      <c r="AE23" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="15">
+      <c r="AF23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN23" t="s">
-        <v>49</v>
-      </c>
       <c r="AO23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP23" t="s">
         <v>83</v>
       </c>
-      <c r="AP23" s="51" t="s">
+      <c r="AQ23" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ23" s="1" t="s">
+      <c r="AR23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR23" s="51" t="s">
+      <c r="AS23" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS23" s="1" t="s">
+      <c r="AT23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT23" t="s">
-        <v>49</v>
-      </c>
       <c r="AU23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV23" t="s">
         <v>8</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AW23" t="s">
         <v>9</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>10</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>69</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>11</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>77</v>
-      </c>
-      <c r="BB23">
-        <v>111</v>
       </c>
       <c r="BC23">
         <v>111</v>
       </c>
-      <c r="BJ23" s="29"/>
-      <c r="BK23" s="30"/>
+      <c r="BD23">
+        <v>111</v>
+      </c>
+      <c r="BK23" s="29"/>
       <c r="BL23" s="30"/>
-      <c r="BM23"/>
+      <c r="BM23" s="30"/>
       <c r="BN23"/>
-      <c r="BO23" s="30"/>
-      <c r="BT23"/>
+      <c r="BO23"/>
+      <c r="BP23" s="30"/>
       <c r="BU23"/>
       <c r="BV23"/>
       <c r="BW23"/>
@@ -5490,10 +5563,11 @@
       <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
+      <c r="CB23"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
-        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BO24,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BP24,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B24" s="27">
@@ -5509,116 +5583,118 @@
         <v>125</v>
       </c>
       <c r="G24" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H24" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="I24" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="J24" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="K24" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="L24" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M24" s="53" t="s">
+      <c r="N24" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="23"/>
-      <c r="U24" t="s">
-        <v>49</v>
-      </c>
-      <c r="V24" s="20" t="s">
+      <c r="R24" s="46"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="23"/>
+      <c r="V24" t="s">
+        <v>49</v>
+      </c>
+      <c r="W24" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="W24" s="20" t="s">
+      <c r="X24" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="42" t="s">
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z24" s="20" t="s">
+      <c r="AA24" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA24" s="23" t="s">
+      <c r="AB24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB24" s="42" t="s">
+      <c r="AC24" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC24" s="20" t="s">
+      <c r="AD24" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD24" s="24" t="s">
+      <c r="AE24" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="15">
+      <c r="AF24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN24" t="s">
-        <v>49</v>
-      </c>
       <c r="AO24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP24" t="s">
         <v>83</v>
       </c>
-      <c r="AP24" s="51" t="s">
+      <c r="AQ24" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ24" s="1" t="s">
+      <c r="AR24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR24" s="51" t="s">
+      <c r="AS24" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS24" s="1" t="s">
+      <c r="AT24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT24" t="s">
-        <v>49</v>
-      </c>
       <c r="AU24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV24" t="s">
         <v>8</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AW24" t="s">
         <v>9</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>10</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AY24" t="s">
         <v>69</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AZ24" t="s">
         <v>11</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
         <v>77</v>
-      </c>
-      <c r="BB24">
-        <v>111</v>
       </c>
       <c r="BC24">
         <v>111</v>
       </c>
-      <c r="BJ24" s="29"/>
-      <c r="BK24" s="30"/>
+      <c r="BD24">
+        <v>111</v>
+      </c>
+      <c r="BK24" s="29"/>
       <c r="BL24" s="30"/>
-      <c r="BM24"/>
+      <c r="BM24" s="30"/>
       <c r="BN24"/>
-      <c r="BO24" s="30"/>
-      <c r="BT24"/>
+      <c r="BO24"/>
+      <c r="BP24" s="30"/>
       <c r="BU24"/>
       <c r="BV24"/>
       <c r="BW24"/>
@@ -5626,10 +5702,11 @@
       <c r="BY24"/>
       <c r="BZ24"/>
       <c r="CA24"/>
+      <c r="CB24"/>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
-        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BO25,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BP25,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B25" s="27">
@@ -5645,122 +5722,124 @@
         <v>125</v>
       </c>
       <c r="G25" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="I25" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="J25" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="K25" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="L25" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="53" t="s">
+      <c r="N25" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="O25" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="O25" s="34" t="s">
+      <c r="P25" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="23"/>
-      <c r="U25" t="s">
-        <v>49</v>
-      </c>
-      <c r="V25" s="20" t="s">
+      <c r="R25" s="46"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="23"/>
+      <c r="V25" t="s">
+        <v>49</v>
+      </c>
+      <c r="W25" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W25" s="20" t="s">
+      <c r="X25" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="42" t="s">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z25" s="20" t="s">
+      <c r="AA25" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA25" s="23" t="s">
+      <c r="AB25" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB25" s="42" t="s">
+      <c r="AC25" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC25" s="20" t="s">
+      <c r="AD25" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD25" s="24" t="s">
+      <c r="AE25" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="15">
+      <c r="AF25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN25" t="s">
-        <v>49</v>
-      </c>
       <c r="AO25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP25" t="s">
         <v>83</v>
       </c>
-      <c r="AP25" s="51" t="s">
+      <c r="AQ25" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ25" s="1" t="s">
+      <c r="AR25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR25" s="51" t="s">
+      <c r="AS25" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS25" s="1" t="s">
+      <c r="AT25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT25" t="s">
-        <v>49</v>
-      </c>
       <c r="AU25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV25" t="s">
         <v>8</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AW25" t="s">
         <v>9</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>10</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>69</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>11</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>77</v>
-      </c>
-      <c r="BB25">
-        <v>111</v>
       </c>
       <c r="BC25">
         <v>111</v>
       </c>
-      <c r="BJ25" s="29"/>
-      <c r="BK25" s="30"/>
+      <c r="BD25">
+        <v>111</v>
+      </c>
+      <c r="BK25" s="29"/>
       <c r="BL25" s="30"/>
-      <c r="BM25"/>
+      <c r="BM25" s="30"/>
       <c r="BN25"/>
-      <c r="BO25" s="30"/>
-      <c r="BT25"/>
+      <c r="BO25"/>
+      <c r="BP25" s="30"/>
       <c r="BU25"/>
       <c r="BV25"/>
       <c r="BW25"/>
@@ -5768,10 +5847,11 @@
       <c r="BY25"/>
       <c r="BZ25"/>
       <c r="CA25"/>
+      <c r="CB25"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
-        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BO26,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BP26,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B26" s="27">
@@ -5787,122 +5867,124 @@
         <v>125</v>
       </c>
       <c r="G26" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="I26" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="J26" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="K26" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="L26" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="53" t="s">
+      <c r="N26" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="O26" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="O26" s="34" t="s">
+      <c r="P26" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="23"/>
-      <c r="U26" t="s">
-        <v>49</v>
-      </c>
-      <c r="V26" s="20" t="s">
+      <c r="R26" s="46"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="23"/>
+      <c r="V26" t="s">
+        <v>49</v>
+      </c>
+      <c r="W26" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="W26" s="20" t="s">
+      <c r="X26" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="42" t="s">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z26" s="20" t="s">
+      <c r="AA26" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA26" s="23" t="s">
+      <c r="AB26" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB26" s="42" t="s">
+      <c r="AC26" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC26" s="20" t="s">
+      <c r="AD26" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD26" s="24" t="s">
+      <c r="AE26" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="15">
+      <c r="AF26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN26" t="s">
-        <v>49</v>
-      </c>
       <c r="AO26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP26" t="s">
         <v>83</v>
       </c>
-      <c r="AP26" s="51" t="s">
+      <c r="AQ26" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ26" s="1" t="s">
+      <c r="AR26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR26" s="51" t="s">
+      <c r="AS26" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS26" s="1" t="s">
+      <c r="AT26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT26" t="s">
-        <v>49</v>
-      </c>
       <c r="AU26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV26" t="s">
         <v>8</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>9</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>10</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>69</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>11</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>77</v>
-      </c>
-      <c r="BB26">
-        <v>111</v>
       </c>
       <c r="BC26">
         <v>111</v>
       </c>
-      <c r="BJ26" s="29"/>
-      <c r="BK26" s="30"/>
+      <c r="BD26">
+        <v>111</v>
+      </c>
+      <c r="BK26" s="29"/>
       <c r="BL26" s="30"/>
-      <c r="BM26"/>
+      <c r="BM26" s="30"/>
       <c r="BN26"/>
-      <c r="BO26" s="30"/>
-      <c r="BT26"/>
+      <c r="BO26"/>
+      <c r="BP26" s="30"/>
       <c r="BU26"/>
       <c r="BV26"/>
       <c r="BW26"/>
@@ -5910,10 +5992,11 @@
       <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
+      <c r="CB26"/>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
-        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BO27,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BP27,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B27" s="27">
@@ -5929,122 +6012,124 @@
         <v>125</v>
       </c>
       <c r="G27" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="I27" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="J27" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="K27" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="L27" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="53" t="s">
+      <c r="N27" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="N27" s="39" t="s">
+      <c r="O27" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="O27" s="34" t="s">
+      <c r="P27" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="23"/>
-      <c r="U27" t="s">
-        <v>49</v>
-      </c>
-      <c r="V27" s="20" t="s">
+      <c r="R27" s="46"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="23"/>
+      <c r="V27" t="s">
+        <v>49</v>
+      </c>
+      <c r="W27" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="W27" s="20" t="s">
+      <c r="X27" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="42" t="s">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z27" s="20" t="s">
+      <c r="AA27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA27" s="23" t="s">
+      <c r="AB27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB27" s="42" t="s">
+      <c r="AC27" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC27" s="20" t="s">
+      <c r="AD27" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD27" s="24" t="s">
+      <c r="AE27" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="15">
+      <c r="AF27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN27" t="s">
-        <v>49</v>
-      </c>
       <c r="AO27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP27" t="s">
         <v>83</v>
       </c>
-      <c r="AP27" s="51" t="s">
+      <c r="AQ27" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ27" s="1" t="s">
+      <c r="AR27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR27" s="51" t="s">
+      <c r="AS27" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS27" s="1" t="s">
+      <c r="AT27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT27" t="s">
-        <v>49</v>
-      </c>
       <c r="AU27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV27" t="s">
         <v>8</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AW27" t="s">
         <v>9</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX27" t="s">
         <v>10</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="AY27" t="s">
         <v>69</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ27" t="s">
         <v>11</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BA27" t="s">
         <v>77</v>
-      </c>
-      <c r="BB27">
-        <v>111</v>
       </c>
       <c r="BC27">
         <v>111</v>
       </c>
-      <c r="BJ27" s="29"/>
-      <c r="BK27" s="30"/>
+      <c r="BD27">
+        <v>111</v>
+      </c>
+      <c r="BK27" s="29"/>
       <c r="BL27" s="30"/>
-      <c r="BM27"/>
+      <c r="BM27" s="30"/>
       <c r="BN27"/>
-      <c r="BO27" s="30"/>
-      <c r="BT27"/>
+      <c r="BO27"/>
+      <c r="BP27" s="30"/>
       <c r="BU27"/>
       <c r="BV27"/>
       <c r="BW27"/>
@@ -6052,10 +6137,11 @@
       <c r="BY27"/>
       <c r="BZ27"/>
       <c r="CA27"/>
+      <c r="CB27"/>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
-        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BO28,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BP28,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B28" s="27">
@@ -6071,122 +6157,124 @@
         <v>125</v>
       </c>
       <c r="G28" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="I28" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="J28" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="K28" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="L28" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M28" s="53" t="s">
+      <c r="N28" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="O28" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="O28" s="34" t="s">
+      <c r="P28" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="23"/>
-      <c r="U28" t="s">
-        <v>49</v>
-      </c>
-      <c r="V28" s="20" t="s">
+      <c r="R28" s="46"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="23"/>
+      <c r="V28" t="s">
+        <v>49</v>
+      </c>
+      <c r="W28" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="W28" s="20" t="s">
+      <c r="X28" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="42" t="s">
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z28" s="20" t="s">
+      <c r="AA28" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA28" s="23" t="s">
+      <c r="AB28" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB28" s="42" t="s">
+      <c r="AC28" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC28" s="20" t="s">
+      <c r="AD28" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD28" s="24" t="s">
+      <c r="AE28" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="15">
+      <c r="AF28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN28" t="s">
-        <v>49</v>
-      </c>
       <c r="AO28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP28" t="s">
         <v>83</v>
       </c>
-      <c r="AP28" s="51" t="s">
+      <c r="AQ28" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ28" s="1" t="s">
+      <c r="AR28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR28" s="51" t="s">
+      <c r="AS28" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS28" s="1" t="s">
+      <c r="AT28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT28" t="s">
-        <v>49</v>
-      </c>
       <c r="AU28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV28" t="s">
         <v>8</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AW28" t="s">
         <v>9</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AX28" t="s">
         <v>10</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AY28" t="s">
         <v>69</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="AZ28" t="s">
         <v>11</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BA28" t="s">
         <v>77</v>
-      </c>
-      <c r="BB28">
-        <v>111</v>
       </c>
       <c r="BC28">
         <v>111</v>
       </c>
-      <c r="BJ28" s="29"/>
-      <c r="BK28" s="30"/>
+      <c r="BD28">
+        <v>111</v>
+      </c>
+      <c r="BK28" s="29"/>
       <c r="BL28" s="30"/>
-      <c r="BM28"/>
+      <c r="BM28" s="30"/>
       <c r="BN28"/>
-      <c r="BO28" s="30"/>
-      <c r="BT28"/>
+      <c r="BO28"/>
+      <c r="BP28" s="30"/>
       <c r="BU28"/>
       <c r="BV28"/>
       <c r="BW28"/>
@@ -6194,10 +6282,11 @@
       <c r="BY28"/>
       <c r="BZ28"/>
       <c r="CA28"/>
+      <c r="CB28"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
-        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BO29,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BP29,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B29" s="27">
@@ -6213,122 +6302,124 @@
         <v>126</v>
       </c>
       <c r="G29" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="I29" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="J29" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="K29" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="L29" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M29" s="53" t="s">
+      <c r="N29" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="N29" s="39" t="s">
+      <c r="O29" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="P29" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="23"/>
-      <c r="U29" t="s">
-        <v>49</v>
-      </c>
-      <c r="V29" s="20" t="s">
+      <c r="R29" s="46"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="23"/>
+      <c r="V29" t="s">
+        <v>49</v>
+      </c>
+      <c r="W29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="W29" s="20" t="s">
+      <c r="X29" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="42" t="s">
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z29" s="20" t="s">
+      <c r="AA29" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA29" s="23" t="s">
+      <c r="AB29" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB29" s="42" t="s">
+      <c r="AC29" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC29" s="20" t="s">
+      <c r="AD29" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD29" s="24" t="s">
+      <c r="AE29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="15">
+      <c r="AF29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN29" t="s">
-        <v>49</v>
-      </c>
       <c r="AO29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP29" t="s">
         <v>83</v>
       </c>
-      <c r="AP29" s="51" t="s">
+      <c r="AQ29" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ29" s="1" t="s">
+      <c r="AR29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR29" s="51" t="s">
+      <c r="AS29" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS29" s="1" t="s">
+      <c r="AT29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT29" t="s">
-        <v>49</v>
-      </c>
       <c r="AU29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV29" t="s">
         <v>8</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AW29" t="s">
         <v>9</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AX29" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AY29" t="s">
         <v>69</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="AZ29" t="s">
         <v>11</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BA29" t="s">
         <v>77</v>
-      </c>
-      <c r="BB29">
-        <v>111</v>
       </c>
       <c r="BC29">
         <v>111</v>
       </c>
-      <c r="BJ29" s="29"/>
-      <c r="BK29" s="30"/>
+      <c r="BD29">
+        <v>111</v>
+      </c>
+      <c r="BK29" s="29"/>
       <c r="BL29" s="30"/>
-      <c r="BM29"/>
+      <c r="BM29" s="30"/>
       <c r="BN29"/>
-      <c r="BO29" s="30"/>
-      <c r="BT29"/>
+      <c r="BO29"/>
+      <c r="BP29" s="30"/>
       <c r="BU29"/>
       <c r="BV29"/>
       <c r="BW29"/>
@@ -6336,10 +6427,11 @@
       <c r="BY29"/>
       <c r="BZ29"/>
       <c r="CA29"/>
+      <c r="CB29"/>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
-        <f>COUNTIF(D30,"&lt;&gt;"&amp;"")+COUNTIF(BO30,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D30,"&lt;&gt;"&amp;"")+COUNTIF(BP30,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B30" s="27">
@@ -6355,122 +6447,124 @@
         <v>126</v>
       </c>
       <c r="G30" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="I30" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="J30" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="K30" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="L30" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M30" s="53" t="s">
+      <c r="N30" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="O30" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="O30" s="34" t="s">
+      <c r="P30" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="23"/>
-      <c r="U30" t="s">
-        <v>49</v>
-      </c>
-      <c r="V30" s="20" t="s">
+      <c r="R30" s="46"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="23"/>
+      <c r="V30" t="s">
+        <v>49</v>
+      </c>
+      <c r="W30" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="W30" s="20" t="s">
+      <c r="X30" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="42" t="s">
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z30" s="20" t="s">
+      <c r="AA30" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA30" s="23" t="s">
+      <c r="AB30" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB30" s="42" t="s">
+      <c r="AC30" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC30" s="20" t="s">
+      <c r="AD30" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD30" s="24" t="s">
+      <c r="AE30" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="15">
+      <c r="AF30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN30" t="s">
-        <v>49</v>
-      </c>
       <c r="AO30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP30" t="s">
         <v>83</v>
       </c>
-      <c r="AP30" s="51" t="s">
+      <c r="AQ30" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ30" s="1" t="s">
+      <c r="AR30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR30" s="51" t="s">
+      <c r="AS30" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS30" s="1" t="s">
+      <c r="AT30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT30" t="s">
-        <v>49</v>
-      </c>
       <c r="AU30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV30" t="s">
         <v>8</v>
       </c>
-      <c r="AV30" t="s">
+      <c r="AW30" t="s">
         <v>9</v>
       </c>
-      <c r="AW30" t="s">
+      <c r="AX30" t="s">
         <v>10</v>
       </c>
-      <c r="AX30" t="s">
+      <c r="AY30" t="s">
         <v>69</v>
       </c>
-      <c r="AY30" t="s">
+      <c r="AZ30" t="s">
         <v>11</v>
       </c>
-      <c r="AZ30" t="s">
+      <c r="BA30" t="s">
         <v>77</v>
-      </c>
-      <c r="BB30">
-        <v>111</v>
       </c>
       <c r="BC30">
         <v>111</v>
       </c>
-      <c r="BJ30" s="29"/>
-      <c r="BK30" s="30"/>
+      <c r="BD30">
+        <v>111</v>
+      </c>
+      <c r="BK30" s="29"/>
       <c r="BL30" s="30"/>
-      <c r="BM30"/>
+      <c r="BM30" s="30"/>
       <c r="BN30"/>
-      <c r="BO30" s="30"/>
-      <c r="BT30"/>
+      <c r="BO30"/>
+      <c r="BP30" s="30"/>
       <c r="BU30"/>
       <c r="BV30"/>
       <c r="BW30"/>
@@ -6478,10 +6572,11 @@
       <c r="BY30"/>
       <c r="BZ30"/>
       <c r="CA30"/>
+      <c r="CB30"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
-        <f>COUNTIF(D31,"&lt;&gt;"&amp;"")+COUNTIF(BO31,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D31,"&lt;&gt;"&amp;"")+COUNTIF(BP31,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B31" s="27">
@@ -6497,122 +6592,124 @@
         <v>126</v>
       </c>
       <c r="G31" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="I31" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="J31" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="K31" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="L31" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M31" s="53" t="s">
+      <c r="N31" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="N31" s="39" t="s">
+      <c r="O31" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="O31" s="34" t="s">
+      <c r="P31" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="23"/>
-      <c r="U31" t="s">
-        <v>49</v>
-      </c>
-      <c r="V31" s="20" t="s">
+      <c r="R31" s="46"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="23"/>
+      <c r="V31" t="s">
+        <v>49</v>
+      </c>
+      <c r="W31" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="W31" s="20" t="s">
+      <c r="X31" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="42" t="s">
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z31" s="20" t="s">
+      <c r="AA31" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA31" s="23" t="s">
+      <c r="AB31" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB31" s="42" t="s">
+      <c r="AC31" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC31" s="20" t="s">
+      <c r="AD31" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD31" s="24" t="s">
+      <c r="AE31" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="15">
+      <c r="AF31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN31" t="s">
-        <v>49</v>
-      </c>
       <c r="AO31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP31" t="s">
         <v>83</v>
       </c>
-      <c r="AP31" s="51" t="s">
+      <c r="AQ31" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR31" s="51" t="s">
+      <c r="AS31" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT31" t="s">
-        <v>49</v>
-      </c>
       <c r="AU31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV31" t="s">
         <v>8</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AW31" t="s">
         <v>9</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AX31" t="s">
         <v>10</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="AY31" t="s">
         <v>69</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="AZ31" t="s">
         <v>11</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="BA31" t="s">
         <v>77</v>
-      </c>
-      <c r="BB31">
-        <v>111</v>
       </c>
       <c r="BC31">
         <v>111</v>
       </c>
-      <c r="BJ31" s="29"/>
-      <c r="BK31" s="30"/>
+      <c r="BD31">
+        <v>111</v>
+      </c>
+      <c r="BK31" s="29"/>
       <c r="BL31" s="30"/>
-      <c r="BM31"/>
+      <c r="BM31" s="30"/>
       <c r="BN31"/>
-      <c r="BO31" s="30"/>
-      <c r="BT31"/>
+      <c r="BO31"/>
+      <c r="BP31" s="30"/>
       <c r="BU31"/>
       <c r="BV31"/>
       <c r="BW31"/>
@@ -6620,10 +6717,11 @@
       <c r="BY31"/>
       <c r="BZ31"/>
       <c r="CA31"/>
+      <c r="CB31"/>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
-        <f>COUNTIF(D32,"&lt;&gt;"&amp;"")+COUNTIF(BO32,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D32,"&lt;&gt;"&amp;"")+COUNTIF(BP32,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B32" s="27">
@@ -6639,122 +6737,124 @@
         <v>126</v>
       </c>
       <c r="G32" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="I32" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="J32" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="K32" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="L32" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M32" s="53" t="s">
+      <c r="N32" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="N32" s="39" t="s">
+      <c r="O32" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="O32" s="34" t="s">
+      <c r="P32" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="23"/>
-      <c r="U32" t="s">
-        <v>49</v>
-      </c>
-      <c r="V32" s="20" t="s">
+      <c r="R32" s="46"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="23"/>
+      <c r="V32" t="s">
+        <v>49</v>
+      </c>
+      <c r="W32" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="W32" s="20" t="s">
+      <c r="X32" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="42" t="s">
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z32" s="20" t="s">
+      <c r="AA32" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA32" s="23" t="s">
+      <c r="AB32" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB32" s="42" t="s">
+      <c r="AC32" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC32" s="20" t="s">
+      <c r="AD32" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD32" s="24" t="s">
+      <c r="AE32" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="15">
+      <c r="AF32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN32" t="s">
-        <v>49</v>
-      </c>
       <c r="AO32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP32" t="s">
         <v>83</v>
       </c>
-      <c r="AP32" s="51" t="s">
+      <c r="AQ32" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ32" s="1" t="s">
+      <c r="AR32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR32" s="51" t="s">
+      <c r="AS32" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS32" s="1" t="s">
+      <c r="AT32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT32" t="s">
-        <v>49</v>
-      </c>
       <c r="AU32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV32" t="s">
         <v>8</v>
       </c>
-      <c r="AV32" t="s">
+      <c r="AW32" t="s">
         <v>9</v>
       </c>
-      <c r="AW32" t="s">
+      <c r="AX32" t="s">
         <v>10</v>
       </c>
-      <c r="AX32" t="s">
+      <c r="AY32" t="s">
         <v>69</v>
       </c>
-      <c r="AY32" t="s">
+      <c r="AZ32" t="s">
         <v>11</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="BA32" t="s">
         <v>77</v>
-      </c>
-      <c r="BB32">
-        <v>111</v>
       </c>
       <c r="BC32">
         <v>111</v>
       </c>
-      <c r="BJ32" s="29"/>
-      <c r="BK32" s="30"/>
+      <c r="BD32">
+        <v>111</v>
+      </c>
+      <c r="BK32" s="29"/>
       <c r="BL32" s="30"/>
-      <c r="BM32"/>
+      <c r="BM32" s="30"/>
       <c r="BN32"/>
-      <c r="BO32" s="30"/>
-      <c r="BT32"/>
+      <c r="BO32"/>
+      <c r="BP32" s="30"/>
       <c r="BU32"/>
       <c r="BV32"/>
       <c r="BW32"/>
@@ -6762,10 +6862,11 @@
       <c r="BY32"/>
       <c r="BZ32"/>
       <c r="CA32"/>
+      <c r="CB32"/>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
-        <f>COUNTIF(D33,"&lt;&gt;"&amp;"")+COUNTIF(BO33,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D33,"&lt;&gt;"&amp;"")+COUNTIF(BP33,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B33" s="27">
@@ -6781,122 +6882,124 @@
         <v>126</v>
       </c>
       <c r="G33" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="I33" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="J33" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="K33" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="L33" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M33" s="53" t="s">
+      <c r="N33" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="N33" s="39" t="s">
+      <c r="O33" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="O33" s="34" t="s">
+      <c r="P33" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="23"/>
-      <c r="U33" t="s">
-        <v>49</v>
-      </c>
-      <c r="V33" s="20" t="s">
+      <c r="R33" s="46"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="23"/>
+      <c r="V33" t="s">
+        <v>49</v>
+      </c>
+      <c r="W33" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="W33" s="20" t="s">
+      <c r="X33" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="42" t="s">
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="20" t="s">
+      <c r="AA33" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA33" s="23" t="s">
+      <c r="AB33" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB33" s="42" t="s">
+      <c r="AC33" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC33" s="20" t="s">
+      <c r="AD33" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD33" s="24" t="s">
+      <c r="AE33" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="15">
+      <c r="AF33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN33" t="s">
-        <v>49</v>
-      </c>
       <c r="AO33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP33" t="s">
         <v>83</v>
       </c>
-      <c r="AP33" s="51" t="s">
+      <c r="AQ33" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ33" s="1" t="s">
+      <c r="AR33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR33" s="51" t="s">
+      <c r="AS33" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS33" s="1" t="s">
+      <c r="AT33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT33" t="s">
-        <v>49</v>
-      </c>
       <c r="AU33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV33" t="s">
         <v>8</v>
       </c>
-      <c r="AV33" t="s">
+      <c r="AW33" t="s">
         <v>9</v>
       </c>
-      <c r="AW33" t="s">
+      <c r="AX33" t="s">
         <v>10</v>
       </c>
-      <c r="AX33" t="s">
+      <c r="AY33" t="s">
         <v>69</v>
       </c>
-      <c r="AY33" t="s">
+      <c r="AZ33" t="s">
         <v>11</v>
       </c>
-      <c r="AZ33" t="s">
+      <c r="BA33" t="s">
         <v>77</v>
-      </c>
-      <c r="BB33">
-        <v>111</v>
       </c>
       <c r="BC33">
         <v>111</v>
       </c>
-      <c r="BJ33" s="29"/>
-      <c r="BK33" s="30"/>
+      <c r="BD33">
+        <v>111</v>
+      </c>
+      <c r="BK33" s="29"/>
       <c r="BL33" s="30"/>
-      <c r="BM33"/>
+      <c r="BM33" s="30"/>
       <c r="BN33"/>
-      <c r="BO33" s="30"/>
-      <c r="BT33"/>
+      <c r="BO33"/>
+      <c r="BP33" s="30"/>
       <c r="BU33"/>
       <c r="BV33"/>
       <c r="BW33"/>
@@ -6904,10 +7007,11 @@
       <c r="BY33"/>
       <c r="BZ33"/>
       <c r="CA33"/>
+      <c r="CB33"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
-        <f>COUNTIF(D34,"&lt;&gt;"&amp;"")+COUNTIF(BO34,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D34,"&lt;&gt;"&amp;"")+COUNTIF(BP34,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B34" s="27">
@@ -6923,122 +7027,124 @@
         <v>126</v>
       </c>
       <c r="G34" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="40" t="s">
+      <c r="I34" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="J34" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="K34" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="L34" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="M34" s="53" t="s">
+      <c r="N34" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="N34" s="39" t="s">
+      <c r="O34" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="O34" s="34" t="s">
+      <c r="P34" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="23"/>
-      <c r="U34" t="s">
-        <v>49</v>
-      </c>
-      <c r="V34" s="20" t="s">
+      <c r="R34" s="46"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="23"/>
+      <c r="V34" t="s">
+        <v>49</v>
+      </c>
+      <c r="W34" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="W34" s="20" t="s">
+      <c r="X34" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="42" t="s">
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z34" s="20" t="s">
+      <c r="AA34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA34" s="23" t="s">
+      <c r="AB34" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AB34" s="42" t="s">
+      <c r="AC34" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC34" s="20" t="s">
+      <c r="AD34" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AD34" s="24" t="s">
+      <c r="AE34" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="15">
+      <c r="AF34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN34" t="s">
-        <v>49</v>
-      </c>
       <c r="AO34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP34" t="s">
         <v>83</v>
       </c>
-      <c r="AP34" s="51" t="s">
+      <c r="AQ34" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AQ34" s="1" t="s">
+      <c r="AR34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR34" s="51" t="s">
+      <c r="AS34" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AS34" s="1" t="s">
+      <c r="AT34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT34" t="s">
-        <v>49</v>
-      </c>
       <c r="AU34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV34" t="s">
         <v>8</v>
       </c>
-      <c r="AV34" t="s">
+      <c r="AW34" t="s">
         <v>9</v>
       </c>
-      <c r="AW34" t="s">
+      <c r="AX34" t="s">
         <v>10</v>
       </c>
-      <c r="AX34" t="s">
+      <c r="AY34" t="s">
         <v>69</v>
       </c>
-      <c r="AY34" t="s">
+      <c r="AZ34" t="s">
         <v>11</v>
       </c>
-      <c r="AZ34" t="s">
+      <c r="BA34" t="s">
         <v>77</v>
-      </c>
-      <c r="BB34">
-        <v>111</v>
       </c>
       <c r="BC34">
         <v>111</v>
       </c>
-      <c r="BJ34" s="29"/>
-      <c r="BK34" s="30"/>
+      <c r="BD34">
+        <v>111</v>
+      </c>
+      <c r="BK34" s="29"/>
       <c r="BL34" s="30"/>
-      <c r="BM34"/>
+      <c r="BM34" s="30"/>
       <c r="BN34"/>
-      <c r="BO34" s="30"/>
-      <c r="BT34"/>
+      <c r="BO34"/>
+      <c r="BP34" s="30"/>
       <c r="BU34"/>
       <c r="BV34"/>
       <c r="BW34"/>
@@ -7046,33 +7152,33 @@
       <c r="BY34"/>
       <c r="BZ34"/>
       <c r="CA34"/>
+      <c r="CB34"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="E35"/>
       <c r="F35" s="36"/>
-      <c r="H35" s="39"/>
-      <c r="V35"/>
+      <c r="I35" s="39"/>
       <c r="W35"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35"/>
+      <c r="X35"/>
+      <c r="Z35" s="2"/>
       <c r="AA35"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35"/>
+      <c r="AB35"/>
+      <c r="AC35" s="2"/>
       <c r="AD35"/>
-      <c r="AG35"/>
-      <c r="AI35"/>
+      <c r="AE35"/>
+      <c r="AH35"/>
       <c r="AJ35"/>
-      <c r="AL35"/>
-      <c r="AM35" s="15"/>
-      <c r="AQ35"/>
-      <c r="AS35"/>
-      <c r="BK35"/>
+      <c r="AK35"/>
+      <c r="AM35"/>
+      <c r="AN35" s="15"/>
+      <c r="AR35"/>
+      <c r="AT35"/>
       <c r="BL35"/>
       <c r="BM35"/>
       <c r="BN35"/>
       <c r="BO35"/>
-      <c r="BT35"/>
+      <c r="BP35"/>
       <c r="BU35"/>
       <c r="BV35"/>
       <c r="BW35"/>
@@ -7080,33 +7186,33 @@
       <c r="BY35"/>
       <c r="BZ35"/>
       <c r="CA35"/>
+      <c r="CB35"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="E36"/>
       <c r="F36" s="36"/>
-      <c r="H36" s="39"/>
-      <c r="V36"/>
+      <c r="I36" s="39"/>
       <c r="W36"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36"/>
+      <c r="X36"/>
+      <c r="Z36" s="2"/>
       <c r="AA36"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36"/>
+      <c r="AB36"/>
+      <c r="AC36" s="2"/>
       <c r="AD36"/>
-      <c r="AG36"/>
-      <c r="AI36"/>
+      <c r="AE36"/>
+      <c r="AH36"/>
       <c r="AJ36"/>
-      <c r="AL36"/>
-      <c r="AM36" s="15"/>
-      <c r="AQ36"/>
-      <c r="AS36"/>
-      <c r="BK36"/>
+      <c r="AK36"/>
+      <c r="AM36"/>
+      <c r="AN36" s="15"/>
+      <c r="AR36"/>
+      <c r="AT36"/>
       <c r="BL36"/>
       <c r="BM36"/>
       <c r="BN36"/>
       <c r="BO36"/>
-      <c r="BT36"/>
+      <c r="BP36"/>
       <c r="BU36"/>
       <c r="BV36"/>
       <c r="BW36"/>
@@ -7114,93 +7220,94 @@
       <c r="BY36"/>
       <c r="BZ36"/>
       <c r="CA36"/>
+      <c r="CB36"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM37" s="15"/>
+    <row r="37" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN37" s="15"/>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM38" s="15"/>
+    <row r="38" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN38" s="15"/>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM39" s="15"/>
+    <row r="39" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN39" s="15"/>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM40" s="15"/>
+    <row r="40" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN40" s="15"/>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM41" s="15"/>
+    <row r="41" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN41" s="15"/>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM42" s="15"/>
+    <row r="42" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN42" s="15"/>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM43" s="15"/>
+    <row r="43" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN43" s="15"/>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM44" s="15"/>
+    <row r="44" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN44" s="15"/>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM45" s="15"/>
+    <row r="45" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN45" s="15"/>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM46" s="15"/>
+    <row r="46" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN46" s="15"/>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM47" s="15"/>
+    <row r="47" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN47" s="15"/>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM48" s="15"/>
+    <row r="48" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN48" s="15"/>
     </row>
-    <row r="49" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM49" s="15"/>
+    <row r="49" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN49" s="15"/>
     </row>
-    <row r="50" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM50" s="15"/>
+    <row r="50" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN50" s="15"/>
     </row>
-    <row r="51" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM51" s="15"/>
+    <row r="51" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN51" s="15"/>
     </row>
-    <row r="52" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM52" s="15"/>
+    <row r="52" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN52" s="15"/>
     </row>
-    <row r="53" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM53" s="15"/>
+    <row r="53" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN53" s="15"/>
     </row>
-    <row r="54" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM54" s="15"/>
+    <row r="54" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN54" s="15"/>
     </row>
-    <row r="55" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM55" s="15"/>
+    <row r="55" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN55" s="15"/>
     </row>
-    <row r="56" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM56" s="15"/>
+    <row r="56" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN56" s="15"/>
     </row>
-    <row r="57" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM57" s="15"/>
+    <row r="57" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN57" s="15"/>
     </row>
-    <row r="58" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM58" s="15"/>
+    <row r="58" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN58" s="15"/>
     </row>
-    <row r="59" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM59" s="15"/>
+    <row r="59" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN59" s="15"/>
     </row>
-    <row r="60" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM60" s="15"/>
+    <row r="60" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN60" s="15"/>
     </row>
-    <row r="61" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM61" s="15"/>
+    <row r="61" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN61" s="15"/>
     </row>
-    <row r="62" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM62" s="15"/>
+    <row r="62" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN62" s="15"/>
     </row>
-    <row r="63" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM63" s="15"/>
+    <row r="63" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN63" s="15"/>
     </row>
-    <row r="64" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM64" s="15"/>
+    <row r="64" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN64" s="15"/>
     </row>
-    <row r="65" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM65" s="15"/>
+    <row r="65" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN65" s="15"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -7246,14 +7353,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BK1:BP1"/>
+    <mergeCell ref="BR1:BS1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="AL3:AL34">
+  <conditionalFormatting sqref="AM3:AM34">
     <cfRule type="containsBlanks" dxfId="4" priority="9" stopIfTrue="1">
-      <formula>LEN(TRIM(AL3))=0</formula>
+      <formula>LEN(TRIM(AM3))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
       <formula>0.02</formula>
@@ -7268,17 +7375,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:R34">
+  <conditionalFormatting sqref="R3:S34">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>2000</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$Q3&lt;&gt;$R3</formula>
+      <formula>$R3&lt;&gt;$S3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:R34 Q37:R1048576">
+  <conditionalFormatting sqref="R2:S34 R37:S1048576">
     <cfRule type="containsBlanks" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>LEN(TRIM(Q2))=0</formula>
+      <formula>LEN(TRIM(R2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
+++ b/metadata/excel/projects/micans_v6_exp1/metadata.xlsx
@@ -247,9 +247,6 @@
     <t>Suffix</t>
   </si>
   <si>
-    <t>~/SIFES/raw/projects/</t>
-  </si>
-  <si>
     <t>micans_v6/experiment_1/</t>
   </si>
   <si>
@@ -802,6 +799,9 @@
   </si>
   <si>
     <t>micans</t>
+  </si>
+  <si>
+    <t>~/SIFES/raw/projects/micans/</t>
   </si>
 </sst>
 </file>
@@ -2132,10 +2132,10 @@
   </sheetPr>
   <dimension ref="A1:CC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="114" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="114" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="C24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2147,7 +2147,7 @@
     <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="14" customWidth="1"/>
     <col min="7" max="7" width="15" style="39" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" style="39" customWidth="1"/>
     <col min="9" max="9" width="27.6640625" style="40" customWidth="1"/>
     <col min="10" max="10" width="17" style="39" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="39" customWidth="1"/>
@@ -2287,11 +2287,11 @@
       <c r="BO1" s="65"/>
       <c r="BP1" s="65"/>
       <c r="BR1" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BS1" s="65"/>
       <c r="BU1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="25"/>
       <c r="BW1" s="25"/>
@@ -2309,17 +2309,17 @@
         <v>30</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>61</v>
@@ -2338,13 +2338,13 @@
       </c>
       <c r="M2" s="56"/>
       <c r="N2" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O2" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P2" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="56"/>
       <c r="R2" s="57" t="s">
@@ -2507,16 +2507,16 @@
         <v>31</v>
       </c>
       <c r="BY2" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BZ2" s="63" t="s">
         <v>41</v>
       </c>
       <c r="CA2" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB2" s="63" t="s">
         <v>186</v>
-      </c>
-      <c r="CB2" s="63" t="s">
-        <v>187</v>
       </c>
       <c r="CC2" s="59"/>
     </row>
@@ -2529,40 +2529,40 @@
         <v>1</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="I3" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J3" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K3" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N3" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R3" s="46"/>
       <c r="S3" s="49"/>
@@ -2572,29 +2572,29 @@
         <v>49</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AB3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC3" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD3" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE3" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>49</v>
@@ -2609,19 +2609,19 @@
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ3" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS3" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS3" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU3" t="s">
         <v>49</v>
@@ -2636,13 +2636,13 @@
         <v>10</v>
       </c>
       <c r="AY3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ3" t="s">
         <v>11</v>
       </c>
       <c r="BA3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC3">
         <v>111</v>
@@ -2674,40 +2674,40 @@
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J4" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K4" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N4" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R4" s="46"/>
       <c r="S4" s="49"/>
@@ -2717,29 +2717,29 @@
         <v>49</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AB4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC4" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE4" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>49</v>
@@ -2754,19 +2754,19 @@
         <v>49</v>
       </c>
       <c r="AP4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ4" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS4" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS4" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU4" t="s">
         <v>49</v>
@@ -2781,13 +2781,13 @@
         <v>10</v>
       </c>
       <c r="AY4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ4" t="s">
         <v>11</v>
       </c>
       <c r="BA4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC4">
         <v>111</v>
@@ -2819,40 +2819,40 @@
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="I5" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J5" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L5" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N5" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R5" s="46"/>
       <c r="S5" s="49"/>
@@ -2862,29 +2862,29 @@
         <v>49</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AB5" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB5" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC5" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD5" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE5" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>49</v>
@@ -2899,19 +2899,19 @@
         <v>49</v>
       </c>
       <c r="AP5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ5" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS5" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU5" t="s">
         <v>49</v>
@@ -2926,13 +2926,13 @@
         <v>10</v>
       </c>
       <c r="AY5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ5" t="s">
         <v>11</v>
       </c>
       <c r="BA5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC5">
         <v>111</v>
@@ -2964,40 +2964,40 @@
         <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="I6" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J6" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L6" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N6" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O6" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R6" s="46"/>
       <c r="S6" s="49"/>
@@ -3007,29 +3007,29 @@
         <v>49</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AB6" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB6" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC6" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD6" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE6" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>49</v>
@@ -3044,19 +3044,19 @@
         <v>49</v>
       </c>
       <c r="AP6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ6" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS6" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT6" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS6" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU6" t="s">
         <v>49</v>
@@ -3071,13 +3071,13 @@
         <v>10</v>
       </c>
       <c r="AY6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ6" t="s">
         <v>11</v>
       </c>
       <c r="BA6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC6">
         <v>111</v>
@@ -3109,40 +3109,40 @@
         <v>5</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="I7" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J7" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L7" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N7" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="39" t="s">
-        <v>215</v>
-      </c>
       <c r="P7" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R7" s="46"/>
       <c r="S7" s="49"/>
@@ -3152,29 +3152,29 @@
         <v>49</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA7" s="20" t="s">
+      <c r="AB7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB7" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC7" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD7" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE7" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>49</v>
@@ -3189,19 +3189,19 @@
         <v>49</v>
       </c>
       <c r="AP7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ7" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS7" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT7" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS7" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU7" t="s">
         <v>49</v>
@@ -3216,13 +3216,13 @@
         <v>10</v>
       </c>
       <c r="AY7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ7" t="s">
         <v>11</v>
       </c>
       <c r="BA7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC7">
         <v>111</v>
@@ -3254,40 +3254,40 @@
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="I8" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J8" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K8" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L8" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N8" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O8" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R8" s="46"/>
       <c r="S8" s="49"/>
@@ -3297,29 +3297,29 @@
         <v>49</v>
       </c>
       <c r="W8" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X8" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA8" s="20" t="s">
+      <c r="AB8" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB8" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC8" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE8" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>49</v>
@@ -3334,19 +3334,19 @@
         <v>49</v>
       </c>
       <c r="AP8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ8" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS8" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT8" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS8" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU8" t="s">
         <v>49</v>
@@ -3361,13 +3361,13 @@
         <v>10</v>
       </c>
       <c r="AY8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ8" t="s">
         <v>11</v>
       </c>
       <c r="BA8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC8">
         <v>111</v>
@@ -3399,40 +3399,40 @@
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="I9" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J9" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K9" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L9" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L9" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N9" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R9" s="46"/>
       <c r="S9" s="49"/>
@@ -3442,29 +3442,29 @@
         <v>49</v>
       </c>
       <c r="W9" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X9" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB9" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC9" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD9" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE9" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>49</v>
@@ -3479,19 +3479,19 @@
         <v>49</v>
       </c>
       <c r="AP9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ9" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS9" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT9" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS9" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU9" t="s">
         <v>49</v>
@@ -3506,13 +3506,13 @@
         <v>10</v>
       </c>
       <c r="AY9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ9" t="s">
         <v>11</v>
       </c>
       <c r="BA9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC9">
         <v>111</v>
@@ -3544,40 +3544,40 @@
         <v>8</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="I10" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J10" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K10" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L10" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N10" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O10" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R10" s="46"/>
       <c r="S10" s="49"/>
@@ -3587,29 +3587,29 @@
         <v>49</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X10" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB10" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC10" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD10" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE10" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>49</v>
@@ -3624,19 +3624,19 @@
         <v>49</v>
       </c>
       <c r="AP10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ10" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS10" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT10" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS10" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU10" t="s">
         <v>49</v>
@@ -3651,13 +3651,13 @@
         <v>10</v>
       </c>
       <c r="AY10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ10" t="s">
         <v>11</v>
       </c>
       <c r="BA10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC10">
         <v>111</v>
@@ -3689,40 +3689,40 @@
         <v>9</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="I11" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J11" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K11" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L11" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N11" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O11" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R11" s="46"/>
       <c r="S11" s="49"/>
@@ -3732,29 +3732,29 @@
         <v>49</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA11" s="20" t="s">
+      <c r="AB11" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB11" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC11" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE11" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>49</v>
@@ -3769,19 +3769,19 @@
         <v>49</v>
       </c>
       <c r="AP11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ11" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS11" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS11" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU11" t="s">
         <v>49</v>
@@ -3796,13 +3796,13 @@
         <v>10</v>
       </c>
       <c r="AY11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ11" t="s">
         <v>11</v>
       </c>
       <c r="BA11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC11">
         <v>111</v>
@@ -3834,40 +3834,40 @@
         <v>10</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="I12" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J12" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K12" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L12" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N12" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O12" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R12" s="46"/>
       <c r="S12" s="49"/>
@@ -3877,29 +3877,29 @@
         <v>49</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X12" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA12" s="20" t="s">
+      <c r="AB12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB12" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC12" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE12" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>49</v>
@@ -3914,19 +3914,19 @@
         <v>49</v>
       </c>
       <c r="AP12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ12" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS12" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT12" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS12" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU12" t="s">
         <v>49</v>
@@ -3941,13 +3941,13 @@
         <v>10</v>
       </c>
       <c r="AY12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ12" t="s">
         <v>11</v>
       </c>
       <c r="BA12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC12">
         <v>111</v>
@@ -3979,40 +3979,40 @@
         <v>11</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="I13" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J13" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K13" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N13" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R13" s="46"/>
       <c r="S13" s="49"/>
@@ -4022,29 +4022,29 @@
         <v>49</v>
       </c>
       <c r="W13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X13" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="20" t="s">
+      <c r="AB13" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB13" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC13" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD13" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE13" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>49</v>
@@ -4059,19 +4059,19 @@
         <v>49</v>
       </c>
       <c r="AP13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ13" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS13" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT13" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS13" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU13" t="s">
         <v>49</v>
@@ -4086,13 +4086,13 @@
         <v>10</v>
       </c>
       <c r="AY13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ13" t="s">
         <v>11</v>
       </c>
       <c r="BA13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC13">
         <v>111</v>
@@ -4124,40 +4124,40 @@
         <v>12</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="I14" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J14" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K14" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L14" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N14" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R14" s="46"/>
       <c r="S14" s="49"/>
@@ -4167,29 +4167,29 @@
         <v>49</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X14" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA14" s="20" t="s">
+      <c r="AB14" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB14" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC14" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD14" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE14" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>49</v>
@@ -4204,19 +4204,19 @@
         <v>49</v>
       </c>
       <c r="AP14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ14" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS14" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS14" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU14" t="s">
         <v>49</v>
@@ -4231,13 +4231,13 @@
         <v>10</v>
       </c>
       <c r="AY14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ14" t="s">
         <v>11</v>
       </c>
       <c r="BA14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC14">
         <v>111</v>
@@ -4269,40 +4269,40 @@
         <v>13</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="I15" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J15" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K15" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L15" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N15" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O15" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R15" s="46"/>
       <c r="S15" s="49"/>
@@ -4312,29 +4312,29 @@
         <v>49</v>
       </c>
       <c r="W15" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X15" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA15" s="20" t="s">
+      <c r="AB15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB15" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC15" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD15" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE15" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>49</v>
@@ -4349,19 +4349,19 @@
         <v>49</v>
       </c>
       <c r="AP15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ15" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS15" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT15" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS15" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU15" t="s">
         <v>49</v>
@@ -4376,13 +4376,13 @@
         <v>10</v>
       </c>
       <c r="AY15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ15" t="s">
         <v>11</v>
       </c>
       <c r="BA15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC15">
         <v>111</v>
@@ -4414,40 +4414,40 @@
         <v>14</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H16" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="I16" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J16" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K16" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L16" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N16" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O16" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R16" s="46"/>
       <c r="S16" s="49"/>
@@ -4457,29 +4457,29 @@
         <v>49</v>
       </c>
       <c r="W16" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X16" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA16" s="20" t="s">
+      <c r="AB16" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB16" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC16" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD16" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE16" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>49</v>
@@ -4494,19 +4494,19 @@
         <v>49</v>
       </c>
       <c r="AP16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ16" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS16" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT16" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS16" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU16" t="s">
         <v>49</v>
@@ -4521,13 +4521,13 @@
         <v>10</v>
       </c>
       <c r="AY16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ16" t="s">
         <v>11</v>
       </c>
       <c r="BA16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC16">
         <v>111</v>
@@ -4559,40 +4559,40 @@
         <v>15</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H17" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="I17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J17" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K17" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L17" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N17" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R17" s="46"/>
       <c r="S17" s="49"/>
@@ -4602,29 +4602,29 @@
         <v>49</v>
       </c>
       <c r="W17" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X17" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA17" s="20" t="s">
+      <c r="AB17" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB17" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC17" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD17" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE17" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>49</v>
@@ -4639,19 +4639,19 @@
         <v>49</v>
       </c>
       <c r="AP17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ17" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS17" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT17" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS17" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU17" t="s">
         <v>49</v>
@@ -4666,13 +4666,13 @@
         <v>10</v>
       </c>
       <c r="AY17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ17" t="s">
         <v>11</v>
       </c>
       <c r="BA17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC17">
         <v>111</v>
@@ -4704,40 +4704,40 @@
         <v>16</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="I18" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J18" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K18" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L18" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N18" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R18" s="46"/>
       <c r="S18" s="49"/>
@@ -4747,29 +4747,29 @@
         <v>49</v>
       </c>
       <c r="W18" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X18" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA18" s="20" t="s">
+      <c r="AB18" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB18" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC18" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE18" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>49</v>
@@ -4784,19 +4784,19 @@
         <v>49</v>
       </c>
       <c r="AP18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ18" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS18" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT18" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS18" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU18" t="s">
         <v>49</v>
@@ -4811,13 +4811,13 @@
         <v>10</v>
       </c>
       <c r="AY18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ18" t="s">
         <v>11</v>
       </c>
       <c r="BA18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC18">
         <v>111</v>
@@ -4849,40 +4849,40 @@
         <v>17</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="I19" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J19" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K19" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L19" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N19" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R19" s="46"/>
       <c r="S19" s="49"/>
@@ -4892,29 +4892,29 @@
         <v>49</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X19" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA19" s="20" t="s">
+      <c r="AB19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB19" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC19" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD19" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE19" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>49</v>
@@ -4929,19 +4929,19 @@
         <v>49</v>
       </c>
       <c r="AP19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ19" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS19" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT19" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS19" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU19" t="s">
         <v>49</v>
@@ -4956,13 +4956,13 @@
         <v>10</v>
       </c>
       <c r="AY19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ19" t="s">
         <v>11</v>
       </c>
       <c r="BA19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC19">
         <v>111</v>
@@ -4994,40 +4994,40 @@
         <v>18</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="I20" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J20" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K20" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L20" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N20" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R20" s="46"/>
       <c r="S20" s="49"/>
@@ -5037,29 +5037,29 @@
         <v>49</v>
       </c>
       <c r="W20" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X20" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA20" s="20" t="s">
+      <c r="AB20" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB20" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC20" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD20" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE20" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>49</v>
@@ -5074,19 +5074,19 @@
         <v>49</v>
       </c>
       <c r="AP20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ20" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS20" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT20" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS20" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU20" t="s">
         <v>49</v>
@@ -5101,13 +5101,13 @@
         <v>10</v>
       </c>
       <c r="AY20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ20" t="s">
         <v>11</v>
       </c>
       <c r="BA20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC20">
         <v>111</v>
@@ -5139,40 +5139,40 @@
         <v>19</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G21" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="I21" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J21" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K21" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L21" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N21" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O21" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R21" s="46"/>
       <c r="S21" s="49"/>
@@ -5182,29 +5182,29 @@
         <v>49</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA21" s="20" t="s">
+      <c r="AB21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB21" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC21" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD21" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE21" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF21" s="1" t="s">
         <v>49</v>
@@ -5219,19 +5219,19 @@
         <v>49</v>
       </c>
       <c r="AP21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ21" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS21" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT21" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS21" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU21" t="s">
         <v>49</v>
@@ -5246,13 +5246,13 @@
         <v>10</v>
       </c>
       <c r="AY21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ21" t="s">
         <v>11</v>
       </c>
       <c r="BA21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC21">
         <v>111</v>
@@ -5284,40 +5284,40 @@
         <v>20</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G22" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="I22" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J22" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K22" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L22" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N22" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O22" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R22" s="46"/>
       <c r="S22" s="49"/>
@@ -5327,29 +5327,29 @@
         <v>49</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA22" s="20" t="s">
+      <c r="AB22" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB22" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC22" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD22" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE22" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>49</v>
@@ -5364,19 +5364,19 @@
         <v>49</v>
       </c>
       <c r="AP22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ22" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS22" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT22" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS22" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU22" t="s">
         <v>49</v>
@@ -5391,13 +5391,13 @@
         <v>10</v>
       </c>
       <c r="AY22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ22" t="s">
         <v>11</v>
       </c>
       <c r="BA22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC22">
         <v>111</v>
@@ -5429,40 +5429,40 @@
         <v>21</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="I23" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J23" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K23" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L23" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N23" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O23" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R23" s="46"/>
       <c r="S23" s="49"/>
@@ -5472,29 +5472,29 @@
         <v>49</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X23" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA23" s="20" t="s">
+      <c r="AB23" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB23" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC23" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD23" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>49</v>
@@ -5509,19 +5509,19 @@
         <v>49</v>
       </c>
       <c r="AP23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ23" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS23" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT23" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS23" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU23" t="s">
         <v>49</v>
@@ -5536,13 +5536,13 @@
         <v>10</v>
       </c>
       <c r="AY23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ23" t="s">
         <v>11</v>
       </c>
       <c r="BA23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC23">
         <v>111</v>
@@ -5574,34 +5574,34 @@
         <v>22</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="I24" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J24" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K24" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L24" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N24" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R24" s="46"/>
       <c r="S24" s="49"/>
@@ -5611,29 +5611,29 @@
         <v>49</v>
       </c>
       <c r="W24" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X24" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y24" s="1"/>
       <c r="Z24" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA24" s="20" t="s">
+      <c r="AB24" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB24" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC24" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD24" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE24" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>49</v>
@@ -5648,19 +5648,19 @@
         <v>49</v>
       </c>
       <c r="AP24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ24" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS24" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT24" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS24" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT24" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU24" t="s">
         <v>49</v>
@@ -5675,13 +5675,13 @@
         <v>10</v>
       </c>
       <c r="AY24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ24" t="s">
         <v>11</v>
       </c>
       <c r="BA24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC24">
         <v>111</v>
@@ -5713,40 +5713,40 @@
         <v>23</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="I25" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J25" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L25" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N25" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O25" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R25" s="46"/>
       <c r="S25" s="49"/>
@@ -5756,29 +5756,29 @@
         <v>49</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X25" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA25" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA25" s="20" t="s">
+      <c r="AB25" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB25" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC25" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD25" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE25" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>49</v>
@@ -5793,19 +5793,19 @@
         <v>49</v>
       </c>
       <c r="AP25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ25" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS25" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT25" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS25" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT25" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU25" t="s">
         <v>49</v>
@@ -5820,13 +5820,13 @@
         <v>10</v>
       </c>
       <c r="AY25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ25" t="s">
         <v>11</v>
       </c>
       <c r="BA25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC25">
         <v>111</v>
@@ -5858,40 +5858,40 @@
         <v>24</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="I26" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J26" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K26" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L26" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N26" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O26" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P26" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R26" s="46"/>
       <c r="S26" s="49"/>
@@ -5901,29 +5901,29 @@
         <v>49</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA26" s="20" t="s">
+      <c r="AB26" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB26" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC26" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD26" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE26" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>49</v>
@@ -5938,19 +5938,19 @@
         <v>49</v>
       </c>
       <c r="AP26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ26" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS26" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT26" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS26" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU26" t="s">
         <v>49</v>
@@ -5965,13 +5965,13 @@
         <v>10</v>
       </c>
       <c r="AY26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ26" t="s">
         <v>11</v>
       </c>
       <c r="BA26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC26">
         <v>111</v>
@@ -6003,40 +6003,40 @@
         <v>25</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="I27" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J27" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K27" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L27" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N27" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O27" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P27" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R27" s="46"/>
       <c r="S27" s="49"/>
@@ -6046,29 +6046,29 @@
         <v>49</v>
       </c>
       <c r="W27" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA27" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA27" s="20" t="s">
+      <c r="AB27" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB27" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC27" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD27" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE27" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>49</v>
@@ -6083,19 +6083,19 @@
         <v>49</v>
       </c>
       <c r="AP27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ27" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS27" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT27" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS27" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU27" t="s">
         <v>49</v>
@@ -6110,13 +6110,13 @@
         <v>10</v>
       </c>
       <c r="AY27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ27" t="s">
         <v>11</v>
       </c>
       <c r="BA27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC27">
         <v>111</v>
@@ -6148,40 +6148,40 @@
         <v>26</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="I28" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J28" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K28" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L28" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L28" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N28" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O28" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R28" s="46"/>
       <c r="S28" s="49"/>
@@ -6191,29 +6191,29 @@
         <v>49</v>
       </c>
       <c r="W28" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X28" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA28" s="20" t="s">
+      <c r="AB28" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB28" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC28" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD28" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE28" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>49</v>
@@ -6228,19 +6228,19 @@
         <v>49</v>
       </c>
       <c r="AP28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ28" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS28" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT28" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS28" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU28" t="s">
         <v>49</v>
@@ -6255,13 +6255,13 @@
         <v>10</v>
       </c>
       <c r="AY28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ28" t="s">
         <v>11</v>
       </c>
       <c r="BA28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC28">
         <v>111</v>
@@ -6293,40 +6293,40 @@
         <v>27</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="I29" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J29" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K29" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L29" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N29" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O29" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P29" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R29" s="46"/>
       <c r="S29" s="49"/>
@@ -6336,29 +6336,29 @@
         <v>49</v>
       </c>
       <c r="W29" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X29" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y29" s="1"/>
       <c r="Z29" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA29" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA29" s="20" t="s">
+      <c r="AB29" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB29" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC29" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD29" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE29" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>49</v>
@@ -6373,19 +6373,19 @@
         <v>49</v>
       </c>
       <c r="AP29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ29" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS29" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT29" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS29" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU29" t="s">
         <v>49</v>
@@ -6400,13 +6400,13 @@
         <v>10</v>
       </c>
       <c r="AY29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ29" t="s">
         <v>11</v>
       </c>
       <c r="BA29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC29">
         <v>111</v>
@@ -6438,40 +6438,40 @@
         <v>28</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H30" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="I30" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J30" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K30" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L30" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L30" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N30" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O30" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R30" s="46"/>
       <c r="S30" s="49"/>
@@ -6481,29 +6481,29 @@
         <v>49</v>
       </c>
       <c r="W30" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X30" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA30" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA30" s="20" t="s">
+      <c r="AB30" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB30" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC30" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD30" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE30" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>49</v>
@@ -6518,19 +6518,19 @@
         <v>49</v>
       </c>
       <c r="AP30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ30" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS30" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT30" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS30" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU30" t="s">
         <v>49</v>
@@ -6545,13 +6545,13 @@
         <v>10</v>
       </c>
       <c r="AY30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ30" t="s">
         <v>11</v>
       </c>
       <c r="BA30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC30">
         <v>111</v>
@@ -6583,40 +6583,40 @@
         <v>29</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G31" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H31" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="I31" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J31" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K31" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L31" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N31" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O31" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P31" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R31" s="46"/>
       <c r="S31" s="49"/>
@@ -6626,29 +6626,29 @@
         <v>49</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X31" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA31" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA31" s="20" t="s">
+      <c r="AB31" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB31" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC31" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD31" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE31" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>49</v>
@@ -6663,19 +6663,19 @@
         <v>49</v>
       </c>
       <c r="AP31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ31" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS31" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT31" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS31" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU31" t="s">
         <v>49</v>
@@ -6690,13 +6690,13 @@
         <v>10</v>
       </c>
       <c r="AY31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ31" t="s">
         <v>11</v>
       </c>
       <c r="BA31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC31">
         <v>111</v>
@@ -6728,40 +6728,40 @@
         <v>30</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="I32" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J32" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K32" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L32" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L32" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N32" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O32" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R32" s="46"/>
       <c r="S32" s="49"/>
@@ -6771,29 +6771,29 @@
         <v>49</v>
       </c>
       <c r="W32" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X32" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y32" s="1"/>
       <c r="Z32" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA32" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA32" s="20" t="s">
+      <c r="AB32" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB32" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC32" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD32" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE32" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>49</v>
@@ -6808,19 +6808,19 @@
         <v>49</v>
       </c>
       <c r="AP32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ32" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS32" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT32" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS32" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU32" t="s">
         <v>49</v>
@@ -6835,13 +6835,13 @@
         <v>10</v>
       </c>
       <c r="AY32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ32" t="s">
         <v>11</v>
       </c>
       <c r="BA32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC32">
         <v>111</v>
@@ -6873,40 +6873,40 @@
         <v>31</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G33" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="I33" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J33" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K33" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L33" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N33" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O33" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R33" s="46"/>
       <c r="S33" s="49"/>
@@ -6916,29 +6916,29 @@
         <v>49</v>
       </c>
       <c r="W33" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X33" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y33" s="1"/>
       <c r="Z33" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA33" s="20" t="s">
+      <c r="AB33" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB33" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC33" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD33" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE33" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>49</v>
@@ -6953,19 +6953,19 @@
         <v>49</v>
       </c>
       <c r="AP33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ33" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS33" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT33" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS33" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT33" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU33" t="s">
         <v>49</v>
@@ -6980,13 +6980,13 @@
         <v>10</v>
       </c>
       <c r="AY33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ33" t="s">
         <v>11</v>
       </c>
       <c r="BA33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC33">
         <v>111</v>
@@ -7018,40 +7018,40 @@
         <v>32</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G34" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="I34" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="J34" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="L34" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="39" t="s">
-        <v>174</v>
-      </c>
       <c r="N34" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P34" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R34" s="46"/>
       <c r="S34" s="49"/>
@@ -7061,29 +7061,29 @@
         <v>49</v>
       </c>
       <c r="W34" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X34" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA34" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA34" s="20" t="s">
+      <c r="AB34" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB34" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="AC34" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD34" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE34" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>49</v>
@@ -7098,19 +7098,19 @@
         <v>49</v>
       </c>
       <c r="AP34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ34" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS34" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT34" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS34" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT34" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AU34" t="s">
         <v>49</v>
@@ -7125,13 +7125,13 @@
         <v>10</v>
       </c>
       <c r="AY34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ34" t="s">
         <v>11</v>
       </c>
       <c r="BA34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC34">
         <v>111</v>
